--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Item</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Torrent</t>
-  </si>
-  <si>
-    <t>Sucesso</t>
   </si>
   <si>
     <t>Falha</t>
@@ -484,7 +481,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -526,7 +523,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\LearningSeleniumAndPython\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AAF9A9-56C3-429C-88E9-C6E9A5CE6002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="172">
   <si>
     <t>Item</t>
   </si>
@@ -28,50 +34,515 @@
     <t>Registro</t>
   </si>
   <si>
-    <t>ENOXAPARINA 40 MG</t>
-  </si>
-  <si>
-    <t>ezetimiba EZETROL 10mg</t>
-  </si>
-  <si>
-    <t>FLUTICASONA (FLIXOTIDE®) 250 MG AEROSOL 60 DOSES</t>
-  </si>
-  <si>
-    <t>ibandronato de sódio BONVIVA 150mg</t>
-  </si>
-  <si>
-    <t>INSULINA DEGLUDECA 100 U/ML + LIRAGLUTIDA 3,6 MG/ML (XULTOPHY®) SOL. INJ. - SIST. APLIC. (CANETA) COM 3ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lacosamida VIMPAT </t>
-  </si>
-  <si>
-    <t>Mylan</t>
+    <t>ACETATO DE MEDROXIPROGESTERONA SUSPENSAO INJETAVEL 150 MG/ML</t>
+  </si>
+  <si>
+    <t>ALENDRONATO SODIO 70 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>AMOXILINA + CLAVULANATO DE POTASSIO 50+12,5 MG/ML PO PARA SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>AMOXILINA + CLAVULANATO DE POTASSIO 500+125 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>AMOXILINA 500MG CAPSULA</t>
+  </si>
+  <si>
+    <t>ANLODIPINO BESILATO 10 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARBONATO DE CALCIO 500MG</t>
+  </si>
+  <si>
+    <t>CEFALEXINA 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACINO CLORIDRATO 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>DEXCLORFENIRAMINA MALEATO 0,4 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>DEXCLORFENIRAMINA MALEATO 2MG</t>
+  </si>
+  <si>
+    <t>DIAZEPAM 5 MG</t>
+  </si>
+  <si>
+    <t>DINITRATO DE ISOSSORBIDA 5MG SUBLINGUAL</t>
+  </si>
+  <si>
+    <t>DIPIRONA SODICA 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>DIPIRONA SODICA 500MG/ML FRASCO 20ML</t>
+  </si>
+  <si>
+    <t>DOXAZOSINA 2MG</t>
+  </si>
+  <si>
+    <t>DOXAZOSINA MESILATO 4MG</t>
+  </si>
+  <si>
+    <t>ENALAPRIL MALEATO 10 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ENALAPRIL MALEATO 20 MG</t>
+  </si>
+  <si>
+    <t>ENALAPRIL MALEATO 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ESPIRONOCTONA 25 MG</t>
+  </si>
+  <si>
+    <t>FLUOXETINA CLORIDRATO 20 MG CAPSULA</t>
+  </si>
+  <si>
+    <t>GLICOSIMETROS (MEDIDOR DE GLICOSE)</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL 1MG</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>HIDROCORTISONA ACETATO 10MG/G CREME DERMATOLOGICO</t>
+  </si>
+  <si>
+    <t>ISOSSORBIDA MONONITRATO 20 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ISOSSORBIDA MONONITRATO 40 MG</t>
+  </si>
+  <si>
+    <t>LORATADINA 1 MG/ML XAROPE</t>
+  </si>
+  <si>
+    <t>METFORMINA CLORIDRATO  850 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METFORMINA CLORIDRATO 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METOCLOPRAMIDA CLORIDRATO 10 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METOCLOPRAMIDA CLORIDRATO 4 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>METOPROLOL SUCCINATO 100 MCG COMPRIMIDO REVESTIDO DE LIBERACAO CONTROLADA</t>
+  </si>
+  <si>
+    <t>METOPROLOL SUCCINATO 50 MG COMPRIMIDO REVESTIDO DE LIBERACAO CONTROLADA</t>
+  </si>
+  <si>
+    <t>METRONIDAZOL 400 MG</t>
+  </si>
+  <si>
+    <t>MICONAZOL NITRATO 20 MG/G CREME VAGINAL</t>
+  </si>
+  <si>
+    <t>NITRATO DE MICONAZOL 20 MG CREME DERMATOLOGICO - EMBALAGEM 28 GRAMAS</t>
+  </si>
+  <si>
+    <t>NORTRIPTILINA CLORIDRATO 25 MG</t>
+  </si>
+  <si>
+    <t>NORTRIPTILINA CLORIDRATO 50 MG CAPSULA</t>
+  </si>
+  <si>
+    <t>LEVODORA + CLORIDRATO DE BENZERAZIDA 100/25 MG BD</t>
+  </si>
+  <si>
+    <t>LEVODORA + CORIDRATO DE BENZERAZIDA 200MG/50 MG</t>
+  </si>
+  <si>
+    <t>SULFAMETOXAZOL + TRIMETROPRIMA 40 + 8 MG/ML SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>SULFATO FERROSO 125 MG/ML GOTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA PARA TESTES DE GLICEMIA COMPATIVEL PARA O APARELHO ACCU-CHEK ACTIVE </t>
+  </si>
+  <si>
+    <t>Nutivit/Imec</t>
+  </si>
+  <si>
+    <t>On Call Plus</t>
+  </si>
+  <si>
+    <t>Arte Nativa</t>
+  </si>
+  <si>
+    <t>Não encontrado</t>
+  </si>
+  <si>
+    <t>ACETATO DE DEXAMETASONA CREME 1MG//G TUBO 10 G</t>
+  </si>
+  <si>
+    <t>ACIDO ACETILSALICILICO 100 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ACIDO FOLICO 5MG</t>
+  </si>
+  <si>
+    <t>ACIDO VALPROICO 250MG</t>
+  </si>
+  <si>
+    <t>ACIDO VALPROICO 500 MG</t>
+  </si>
+  <si>
+    <t>ALBENDAZOL 40 MG/ML SUSPENSAO ORAL   - FRASCO COM 10 ML  - FRASCO COM 10 ML</t>
+  </si>
+  <si>
+    <t>ALBENDAZOL 400 MG COMPRIMIDO MASTIGAVEL</t>
+  </si>
+  <si>
+    <t>ALOPURINOL 100 MG</t>
+  </si>
+  <si>
+    <t>ALOPURINOL 300 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>AMOXICILINA 250MG/5ML SUSPENSAO ORAL 150ML</t>
+  </si>
+  <si>
+    <t>ATENOLOL 50MG</t>
+  </si>
+  <si>
+    <t>AZITROMICINA 40 MG/ML (600 MG) PO PARA SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>AZITROMICINA DI-HIDRATADA 500MG</t>
+  </si>
+  <si>
+    <t>BENZOILMETRONIDAZOL 40MG/ML SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>BESILATO DE ANLODIPINO  5MG</t>
+  </si>
+  <si>
+    <t>CAPTOPRIL 25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARBAMAZEPINA 20 MG/ML SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>CARBAMAZEPINA 200 MG</t>
+  </si>
+  <si>
+    <t>CARBONATO DE LITIO 300MG</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 12,5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 3,125 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 6,25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CEFALEXINA SUSPENSAO ORAL 250MG/5ML 100ML</t>
+  </si>
+  <si>
+    <t>CETOCONAZOL 20MG/ML SHAMPOO</t>
+  </si>
+  <si>
+    <t>CLARITROMICINA 500MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA 200MCG SPRAY 200 DOSES 10ML</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA 50MCG SPRAY 200 DOSES 10ML</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA 250 MCG/DOSE SOL AER CT TB AL + DISPOSITIVO ORAL X 200 DOSES</t>
+  </si>
+  <si>
+    <t>CLONAZEPAM 2,5MG/ML</t>
+  </si>
+  <si>
+    <t>CLORETO DE SODIO 9 MG/ML SOLUCAO NASAL (NASOJET)</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE AMIODARONA 200MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE AMITRIPTILINA 25 MG CAIXA COM 30</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLOMIPRAMINA 25 MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA 100MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA 25MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA 40MG/ML SOL OR CT FR VD GOTAS X 20ML 4%</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE HIDRALAZINA 25MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE IMIPRAMINA 25 MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE PROPRANOLOL 40MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE VERAPAMIL 80MG</t>
+  </si>
+  <si>
+    <t>DEXAMETASONA 1 MG/ML (0,1%) SUSPENSAO OFTALMICA</t>
+  </si>
+  <si>
+    <t>DIAZEPAM 10 MG</t>
+  </si>
+  <si>
+    <t>DIGOXINA 0,25 MG</t>
+  </si>
+  <si>
+    <t>ESTRIOL 1MG/G CREME VAGINAL</t>
+  </si>
+  <si>
+    <t>FENITOINA SODICA 100 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>FENOBARBITAL 100MG</t>
+  </si>
+  <si>
+    <t>FENOBARBITAL SODICO 40 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>FLUCONAZOL 150 MG - CAPSULA</t>
+  </si>
+  <si>
+    <t>FOSFATO DE SODIO DE PREDNISOLONA 3MG/ML XAROPE</t>
+  </si>
+  <si>
+    <t>FUROSEMIDA 40 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>GLIBENCLAMIDA 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA 30 MG</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA 60MG COMPRIMIDO DE LIBERACAO PROLONGADA</t>
+  </si>
+  <si>
+    <t>HIDROCLOROTIAZIDA 25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>IBUPROFENO 50MG/ML</t>
+  </si>
+  <si>
+    <t>IBUPROFENO 600 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ITRACONAZOL 100MG</t>
+  </si>
+  <si>
+    <t>IVERMECTINA 6MG</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SODICA 100 MCG</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SODICA 25 MCG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SODICA 50 MCG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>LORATADINA 10MG</t>
+  </si>
+  <si>
+    <t>LOSARTANA POTASSICA 50MG</t>
+  </si>
+  <si>
+    <t>MALEATO DE TIMOLOL 5MG/ML 0,5%</t>
+  </si>
+  <si>
+    <t>METILDOPA 250 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METRONIDAZOL 250 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>NITROFURANTOINA 100 MG CAPSULA</t>
+  </si>
+  <si>
+    <t>ENANTATO DE NORETISTERONA + VALERATO DE ESTRADIOL 50 + 5 MG/ML SOLUÇÃO INJETÁVEL C/ 1 AMPOLA 1 ML</t>
+  </si>
+  <si>
+    <t>OMEPRAZOL 20MG</t>
+  </si>
+  <si>
+    <t>PARACETAMOL 200 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>PARACETAMOL 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>PREDNISONA 20 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>PREDNISONA 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 10MG</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 20 MG</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 40 MG</t>
+  </si>
+  <si>
+    <t>SULFADIAZINA DE PRATA 10 MG/G CREME</t>
+  </si>
+  <si>
+    <t>SULFAMETOXAZOL + TRIMETROPRIMA 400 + 80 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>SULFATO DE SALBUTAMOL 100MCG AEROSOL ORAL</t>
+  </si>
+  <si>
+    <t>VARFARINA SODICA 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Osório de Moraes</t>
+  </si>
+  <si>
+    <t>EMS</t>
+  </si>
+  <si>
+    <t>Brasterápica</t>
+  </si>
+  <si>
+    <t>Geolab</t>
   </si>
   <si>
     <t>Biolab</t>
   </si>
   <si>
-    <t>GSK</t>
+    <t>Cellera</t>
+  </si>
+  <si>
+    <t>Sandoz</t>
   </si>
   <si>
     <t>Eurofarma</t>
   </si>
   <si>
-    <t>Novo Nordisk</t>
-  </si>
-  <si>
-    <t>Torrent</t>
-  </si>
-  <si>
-    <t>Falha</t>
+    <t>Brainfarma</t>
+  </si>
+  <si>
+    <t>Vitamedic</t>
+  </si>
+  <si>
+    <t>Pharlab</t>
+  </si>
+  <si>
+    <t>Belfar</t>
+  </si>
+  <si>
+    <t>Novartis</t>
+  </si>
+  <si>
+    <t>Germed</t>
+  </si>
+  <si>
+    <t>Nova Química</t>
+  </si>
+  <si>
+    <t>Nativita</t>
+  </si>
+  <si>
+    <t>Chiesi</t>
+  </si>
+  <si>
+    <t>Natulab</t>
+  </si>
+  <si>
+    <t>Sanofi</t>
+  </si>
+  <si>
+    <t>Cristália</t>
+  </si>
+  <si>
+    <t>Airela</t>
+  </si>
+  <si>
+    <t>Teuto</t>
+  </si>
+  <si>
+    <t>Medquímica</t>
+  </si>
+  <si>
+    <t>Aché</t>
+  </si>
+  <si>
+    <t>Legrand</t>
+  </si>
+  <si>
+    <t>Merck</t>
+  </si>
+  <si>
+    <t>Multilab</t>
+  </si>
+  <si>
+    <t>Cifarma</t>
+  </si>
+  <si>
+    <t>Ranbaxy</t>
+  </si>
+  <si>
+    <t>Globo</t>
+  </si>
+  <si>
+    <t>Roche</t>
+  </si>
+  <si>
+    <t>Pharmascience</t>
+  </si>
+  <si>
+    <t>União Química</t>
+  </si>
+  <si>
+    <t>Errado</t>
+  </si>
+  <si>
+    <t>RDC: 27, DE 6 DE AGOSTO DE 2010</t>
+  </si>
+  <si>
+    <t>RDC n° 576, DE 11 DE NOVEMBRO DE 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDC n° 240, DE 26 DE JULHO DE 2018 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,12 +559,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF45656"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -123,22 +600,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF45656"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF45656"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -180,7 +701,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,9 +733,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,6 +785,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,112 +978,2690 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="4">
+        <v>105040038</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2">
+        <f>IF(E2="Ok",D2,E2)</f>
+        <v>105040038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="8">
+        <v>105830220</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">IF(E3="Ok",D3,E3)</f>
+        <v>105830220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="4">
+        <v>100380043</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>100380043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="4">
+        <v>154230142</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>154230142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="8">
+        <v>109740258</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>109740258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="8">
+        <v>109740258</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>109740258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="4">
+        <v>154230044</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>154230044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="8">
+        <v>154230329</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>154230329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="8">
+        <v>104400205</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>104400205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="4">
+        <v>100470614</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>100470614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="4">
+        <v>100470614</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>100470614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="4">
+        <v>100430727</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>100430727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="8">
+        <v>102350528</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>102350528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="8">
+        <v>102350532</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>102350532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="8">
+        <v>155840141</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>155840141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="8">
+        <v>103920150</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>103920150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="4">
+        <v>100470363</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>100470363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="4">
+        <v>141070610</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>141070610</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="4">
+        <v>154230167</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>154230167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="4">
+        <v>105710154</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>105710154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="4">
+        <v>103920150</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>103920150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="4">
+        <v>154230001</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>154230001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="4">
+        <v>100680085</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>100680085</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="4">
+        <v>105830847</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>105830847</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>RDC: 27, DE 6 DE AGOSTO DE 2010</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="4">
+        <v>109740309</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>109740309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="4">
+        <v>109740322</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>109740322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="4">
+        <v>109740322</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>109740322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="4">
+        <v>109740322</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>109740322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="4">
+        <v>109740322</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>109740322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C32" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="4">
+        <v>126750233</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>126750233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>33</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="8">
+        <v>155840294</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>155840294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="4">
+        <v>147610020</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>147610020</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="8">
+        <v>118190214</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>118190214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="4">
+        <v>141070628</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>141070628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>38</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="8">
+        <v>100580009</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>100580009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>39</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" s="8">
+        <v>100580009</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>100580009</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="8">
+        <v>100580009</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>100580009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="4">
+        <v>154230175</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>154230175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="4">
+        <v>138410072</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>138410072</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>43</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="4">
+        <v>154230002</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>154230002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>44</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="4">
+        <v>155840067</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>155840067</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>46</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="4">
+        <v>105830354</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>105830354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>47</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="4">
+        <v>183260385</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>183260385</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>48</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="4">
+        <v>183260385</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>183260385</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>49</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="4">
+        <v>183260385</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>183260385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>50</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="4">
+        <v>100680013</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>100680013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>51</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" s="4">
+        <v>102980023</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>102980023</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>52</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="4">
+        <v>105040033</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>105040033</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>53</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="4">
+        <v>102350626</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>102350626</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>54</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="4">
+        <v>100681097</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>100681097</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>55</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="8">
+        <v>154230051</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>154230051</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>56</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="8">
+        <v>154230012</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>154230012</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>57</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="4">
+        <v>141070086</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>141070086</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>58</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" s="8">
+        <v>167730219</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>167730219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>59</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="4">
+        <v>141070059</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>141070059</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>60</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
+      <c r="C58" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="8">
+        <v>135690015</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>135690015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>61</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" s="8">
+        <v>103920101</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>103920101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>62</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="4">
+        <v>144930010</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>144930010</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>63</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="8">
+        <v>154230285</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>154230285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>64</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="8">
+        <v>100431114</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>100431114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>65</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" s="8">
+        <v>103920177</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>103920177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>66</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="8">
+        <v>103920177</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>103920177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>67</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="8">
+        <v>105710158</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>105710158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>68</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" s="8">
+        <v>154230266</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>154230266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>69</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67" s="4">
+        <v>109740237</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F127" si="1">IF(E67="Ok",D67,E67)</f>
+        <v>109740237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>70</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" s="4">
+        <v>103700473</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>103700473</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>71</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" s="4">
+        <v>103700640</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>103700640</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>72</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" s="4">
+        <v>183260323</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>183260323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>73</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" s="4">
+        <v>103920190</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>103920190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>74</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72" s="8">
+        <v>109170103</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>109170103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>75</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E73" s="8">
+        <v>105730541</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>105730541</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>77</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" s="4">
+        <v>154230023</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>154230023</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>78</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" s="4">
+        <v>109170064</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>109170064</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>79</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="4">
+        <v>141070117</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>141070117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>80</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" s="4">
+        <v>141070117</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>141070117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>81</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E78" s="8">
+        <v>80011990003</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>80011990003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>83</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E79" s="8">
+        <v>112360011</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>112360011</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>85</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E80" s="8">
+        <v>112360011</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>112360011</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>86</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" s="4">
+        <v>109170093</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>109170093</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>87</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E82" s="8">
+        <v>103700527</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>103700527</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>88</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E83" s="8">
+        <v>154230307</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>154230307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>89</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D84" s="4">
+        <v>103920065</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>103920065</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>90</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" s="8">
+        <v>109740265</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>109740265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>91</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E86" s="8">
+        <v>105730581</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>105730581</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>92</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" s="4">
+        <v>167730588</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>167730588</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>93</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D88" s="4">
+        <v>105830989</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>105830989</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>96</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D89" s="4">
+        <v>100890202</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>100890202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>97</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D90" s="4">
+        <v>100890202</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>100890202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>98</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D91" s="4">
+        <v>100890202</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>100890202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>99</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D92" s="4">
+        <v>144930068</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>144930068</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>100</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E93" s="8">
+        <v>154230003</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>154230003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>101</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D94" s="4">
+        <v>141070627</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>141070627</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>102</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D95" s="4">
+        <v>105830876</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>105830876</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>103</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E96" s="8">
+        <v>154230270</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>154230270</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>104</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E97" s="8">
+        <v>103920215</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>103920215</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>105</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D98" s="4">
+        <v>102350564</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>102350564</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>106</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E99" s="8">
+        <v>105710165</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>105710165</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>107</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E100" s="8">
+        <v>109170016</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>109170016</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>108</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E101" s="8">
+        <v>109740350</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>109740350</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>110</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E102" s="8">
+        <v>109740350</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>109740350</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>111</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E103" s="8">
+        <v>155840308</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>155840308</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>112</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E104" s="8">
+        <v>167730181</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>167730181</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>113</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E105" s="8">
+        <v>105710157</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>105710157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>114</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="1"/>
+        <v>RDC n° 576, DE 11 DE NOVEMBRO DE 2021</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>115</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D107" s="4">
+        <v>103700443</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>103700443</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>116</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108" s="4">
+        <v>115600240</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>115600240</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>117</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E109" s="8">
+        <v>123520191</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>123520191</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>118</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E110" s="8">
+        <v>123520191</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="1"/>
+        <v>123520191</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>119</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D111" s="4">
+        <v>154230328</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>154230328</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>120</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D112" s="4">
+        <v>154230050</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>154230050</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>121</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D113" s="4">
+        <v>105710133</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="1"/>
+        <v>105710133</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>122</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D114" s="4">
+        <v>105350217</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="1"/>
+        <v>105350217</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>123</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D115" s="4">
+        <v>126750238</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="1"/>
+        <v>126750238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>124</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E116" s="8">
+        <v>101000064</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="1"/>
+        <v>101000064</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>125</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E117" s="8">
+        <v>101000064</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="1"/>
+        <v>101000064</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>127</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D118" s="4">
+        <v>141070108</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="1"/>
+        <v>141070108</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <v>128</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E119" s="8">
+        <v>126750310</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="1"/>
+        <v>126750310</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>129</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D120" s="4">
+        <v>100681124</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="1"/>
+        <v>100681124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>130</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D121" s="4">
+        <v>147610023</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="1"/>
+        <v>147610023</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>131</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E122" s="8">
+        <v>102351048</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="1"/>
+        <v>102351048</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>132</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D123" s="4">
+        <v>103920169</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="1"/>
+        <v>103920169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>134</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D124" s="4">
+        <v>117170009</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="1"/>
+        <v>117170009</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>135</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F125" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">RDC n° 240, DE 26 DE JULHO DE 2018 </v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>137</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E126" s="8">
+        <v>80011990002</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="1"/>
+        <v>80011990002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>138</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D127" s="4">
+        <v>104971323</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="1"/>
+        <v>104971323</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:D127 D26">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$D2="Não encontrado"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>Item</t>
   </si>
@@ -28,73 +28,16 @@
     <t>Registro</t>
   </si>
   <si>
-    <t>HEPARINA SODICA SUBCUT 5000UI</t>
-  </si>
-  <si>
-    <t>PROMETAZINA PROFERGAN</t>
-  </si>
-  <si>
-    <t>HALOPERIDOL 5MG</t>
-  </si>
-  <si>
-    <t>CLORPROMAZINA 40MG/ML SOL ORAL</t>
-  </si>
-  <si>
-    <t>HALOPERIDOL 2MG/ML SOL ORAL</t>
-  </si>
-  <si>
-    <t>CLORPROMAZINA 25MG</t>
-  </si>
-  <si>
-    <t>FOSFATO DE CODEÍNA CODEIN</t>
-  </si>
-  <si>
-    <t>CLORIDRATO DE IMIPRAMINA IMIPRA</t>
-  </si>
-  <si>
-    <t>RISPERIDONA RISPERIDONA</t>
-  </si>
-  <si>
-    <t>LEVOMEPROMAZINA 4% GOTAS</t>
-  </si>
-  <si>
-    <t>LIDOCAÍNA XYLESTESIN</t>
-  </si>
-  <si>
-    <t>NITRATO DE CERIO +SULFADIAZINA</t>
-  </si>
-  <si>
-    <t>COLAGENASE KOLLAGENASE</t>
-  </si>
-  <si>
-    <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
-  </si>
-  <si>
-    <t>LABORATÓRIO TEUTO BRASILEIRO S/A</t>
-  </si>
-  <si>
-    <t>CELLERA FARMACÊUTICA S.A.</t>
-  </si>
-  <si>
-    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
-  </si>
-  <si>
-    <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
-  </si>
-  <si>
-    <t>102980371</t>
-  </si>
-  <si>
-    <t>183260385</t>
-  </si>
-  <si>
-    <t>183260316</t>
-  </si>
-  <si>
-    <t>102980560</t>
-  </si>
-  <si>
-    <t>102980431</t>
+    <t>CLORETO DE SÓDIO JP FISIOLÓGICO</t>
+  </si>
+  <si>
+    <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
+  </si>
+  <si>
+    <t>JP INDUSTRIA FARMACEUTICA S/A</t>
+  </si>
+  <si>
+    <t>104910020</t>
   </si>
 </sst>
 </file>
@@ -452,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,198 +417,58 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>104910070</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>103700321</v>
+        <v>104910070</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
       <c r="D4">
-        <v>112360011</v>
+        <v>104910070</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>112360011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>102980199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>102980023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>103920197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>103920197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>102980357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>Item</t>
   </si>
@@ -28,16 +28,124 @@
     <t>Registro</t>
   </si>
   <si>
-    <t>CLORETO DE SÓDIO JP FISIOLÓGICO</t>
-  </si>
-  <si>
-    <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-  </si>
-  <si>
-    <t>JP INDUSTRIA FARMACEUTICA S/A</t>
-  </si>
-  <si>
-    <t>104910020</t>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>Tempo Decorrido</t>
+  </si>
+  <si>
+    <t>HEPARINA SODICA SUBCUT 5000UI</t>
+  </si>
+  <si>
+    <t>PROMETAZINA PROFERGAN</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL 5MG</t>
+  </si>
+  <si>
+    <t>CLORPROMAZINA 40MG/ML SOL ORAL</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL 2MG/ML SOL ORAL</t>
+  </si>
+  <si>
+    <t>CLORPROMAZINA 25MG</t>
+  </si>
+  <si>
+    <t>FOSFATO DE CODEÍNA CODEIN</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE IMIPRAMINA IMIPRA</t>
+  </si>
+  <si>
+    <t>RISPERIDONA RISPERIDONA</t>
+  </si>
+  <si>
+    <t>LEVOMEPROMAZINA 4% GOTAS</t>
+  </si>
+  <si>
+    <t>LIDOCAÍNA XYLESTESIN</t>
+  </si>
+  <si>
+    <t>NITRATO DE CERIO +SULFADIAZINA</t>
+  </si>
+  <si>
+    <t>COLAGENASE KOLLAGENASE</t>
+  </si>
+  <si>
+    <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO TEUTO BRASILEIRO S/A</t>
+  </si>
+  <si>
+    <t>CELLERA FARMACÊUTICA S.A.</t>
+  </si>
+  <si>
+    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>102980371</t>
+  </si>
+  <si>
+    <t>183260385</t>
+  </si>
+  <si>
+    <t>183260316</t>
+  </si>
+  <si>
+    <t>102980560</t>
+  </si>
+  <si>
+    <t>102980431</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 29.90 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 13.45 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 14.38 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 29.00 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 13.53 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 29.53 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 13.26 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 13.69 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 12.81 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 13.92 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 28.47 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 13.30 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 30.09 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 30.70 seconds</t>
   </si>
 </sst>
 </file>
@@ -395,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,61 +522,291 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>103700321</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>112360011</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>104910070</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>104910070</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>112360011</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>104910070</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>102980199</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>102980023</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>103920197</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>103920197</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>102980357</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -106,46 +106,46 @@
     <t>OK</t>
   </si>
   <si>
+    <t>0 hours, 0 minutes, and 32.78 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 13.49 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 13.70 seconds</t>
+  </si>
+  <si>
     <t>0 hours, 0 minutes, and 29.90 seconds</t>
   </si>
   <si>
-    <t>0 hours, 0 minutes, and 13.45 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 14.38 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 29.00 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 13.53 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 29.53 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 13.26 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 13.69 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 12.81 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 13.92 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 28.47 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 13.30 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 30.09 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 30.70 seconds</t>
+    <t>0 hours, 0 minutes, and 14.35 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 30.49 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 12.29 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 14.68 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 12.98 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 13.38 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 28.75 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 13.66 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 31.00 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 34.66 seconds</t>
   </si>
 </sst>
 </file>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Item</t>
   </si>
@@ -34,118 +34,25 @@
     <t>Tempo Decorrido</t>
   </si>
   <si>
-    <t>HEPARINA SODICA SUBCUT 5000UI</t>
-  </si>
-  <si>
-    <t>PROMETAZINA PROFERGAN</t>
-  </si>
-  <si>
-    <t>HALOPERIDOL 5MG</t>
-  </si>
-  <si>
-    <t>CLORPROMAZINA 40MG/ML SOL ORAL</t>
-  </si>
-  <si>
-    <t>HALOPERIDOL 2MG/ML SOL ORAL</t>
-  </si>
-  <si>
-    <t>CLORPROMAZINA 25MG</t>
-  </si>
-  <si>
-    <t>FOSFATO DE CODEÍNA CODEIN</t>
-  </si>
-  <si>
-    <t>CLORIDRATO DE IMIPRAMINA IMIPRA</t>
-  </si>
-  <si>
-    <t>RISPERIDONA RISPERIDONA</t>
-  </si>
-  <si>
-    <t>LEVOMEPROMAZINA 4% GOTAS</t>
-  </si>
-  <si>
-    <t>LIDOCAÍNA XYLESTESIN</t>
-  </si>
-  <si>
-    <t>NITRATO DE CERIO +SULFADIAZINA</t>
-  </si>
-  <si>
-    <t>COLAGENASE KOLLAGENASE</t>
-  </si>
-  <si>
-    <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
-  </si>
-  <si>
-    <t>LABORATÓRIO TEUTO BRASILEIRO S/A</t>
-  </si>
-  <si>
-    <t>CELLERA FARMACÊUTICA S.A.</t>
-  </si>
-  <si>
-    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
-  </si>
-  <si>
-    <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
-  </si>
-  <si>
-    <t>102980371</t>
-  </si>
-  <si>
-    <t>183260385</t>
-  </si>
-  <si>
-    <t>183260316</t>
-  </si>
-  <si>
-    <t>102980560</t>
-  </si>
-  <si>
-    <t>102980431</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 32.78 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 13.49 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 13.70 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 29.90 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 14.35 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 30.49 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 12.29 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 14.68 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 12.98 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 13.38 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 28.75 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 13.66 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 31.00 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 34.66 seconds</t>
+    <t>CLORETO DE SÓDIO JP FISIOLÓGICO</t>
+  </si>
+  <si>
+    <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
+  </si>
+  <si>
+    <t>JP INDUSTRIA FARMACEUTICA S/A</t>
+  </si>
+  <si>
+    <t>104910020</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 0.10 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 18.70 seconds</t>
   </si>
 </sst>
 </file>
@@ -503,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,282 +438,82 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>104910070</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>103700321</v>
+        <v>104910070</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
       <c r="D4">
-        <v>112360011</v>
+        <v>104910070</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>112360011</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>102980199</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>102980023</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
-        <v>103920197</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>103920197</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>102980357</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Item</t>
   </si>
@@ -46,13 +46,19 @@
     <t>104910020</t>
   </si>
   <si>
-    <t>Pendente</t>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 15.39 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 0.11 seconds</t>
   </si>
   <si>
     <t>0 hours, 0 minutes, and 0.10 seconds</t>
   </si>
   <si>
-    <t>0 hours, 0 minutes, and 18.70 seconds</t>
+    <t>0 hours, 0 minutes, and 31.16 seconds</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -493,7 +499,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -513,7 +519,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -34,7 +34,7 @@
     <t>Tempo Decorrido</t>
   </si>
   <si>
-    <t>CLORETO DE SÓDIO JP FISIOLÓGICO</t>
+    <t>GLICOSE;CLORETO DE SÓDIO</t>
   </si>
   <si>
     <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
@@ -49,7 +49,7 @@
     <t>OK</t>
   </si>
   <si>
-    <t>0 hours, 0 minutes, and 15.39 seconds</t>
+    <t>0 hours, 0 minutes, and 0.16 seconds</t>
   </si>
   <si>
     <t>0 hours, 0 minutes, and 0.11 seconds</t>
@@ -58,7 +58,7 @@
     <t>0 hours, 0 minutes, and 0.10 seconds</t>
   </si>
   <si>
-    <t>0 hours, 0 minutes, and 31.16 seconds</t>
+    <t>0 hours, 0 minutes, and 22.78 seconds</t>
   </si>
 </sst>
 </file>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -49,16 +49,16 @@
     <t>OK</t>
   </si>
   <si>
-    <t>0 hours, 0 minutes, and 0.16 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 0.11 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 0.10 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 22.78 seconds</t>
+    <t>0 hours, 3 minutes, and 44.88 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 5.64 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 0.57 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 21.12 seconds</t>
   </si>
 </sst>
 </file>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="272">
   <si>
     <t>Item</t>
   </si>
@@ -34,31 +34,802 @@
     <t>Tempo Decorrido</t>
   </si>
   <si>
-    <t>GLICOSE;CLORETO DE SÓDIO</t>
-  </si>
-  <si>
-    <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-  </si>
-  <si>
-    <t>JP INDUSTRIA FARMACEUTICA S/A</t>
-  </si>
-  <si>
-    <t>104910020</t>
+    <t>ACETATO DE DEXAMETASONA</t>
+  </si>
+  <si>
+    <t>ACETATO DE MEDROXIPROGESTERONA</t>
+  </si>
+  <si>
+    <t>ÁCIDO ACETIL SALICILICO</t>
+  </si>
+  <si>
+    <t>ÁCIDO FÓLICO</t>
+  </si>
+  <si>
+    <t>ÁCIDO VALPRÓICO</t>
+  </si>
+  <si>
+    <t>ALBENDAZOL</t>
+  </si>
+  <si>
+    <t>sodio;alendronato</t>
+  </si>
+  <si>
+    <t>ALOPURINOL</t>
+  </si>
+  <si>
+    <t>AMOXICILINA</t>
+  </si>
+  <si>
+    <t>CLAVULANATO DE POTÁSSIO</t>
+  </si>
+  <si>
+    <t>AMOXILINA 500MG CAPSULA</t>
+  </si>
+  <si>
+    <t>besilato;anlodipino</t>
+  </si>
+  <si>
+    <t>ATENOLOL</t>
+  </si>
+  <si>
+    <t>AZITROMICINA</t>
+  </si>
+  <si>
+    <t>AZITROMICINA DI-HIDRATADA</t>
+  </si>
+  <si>
+    <t>BENZOILMETRONIDAZOL</t>
+  </si>
+  <si>
+    <t>BESILATO DE ANLODIPINO</t>
+  </si>
+  <si>
+    <t>CAPTOPRIL</t>
+  </si>
+  <si>
+    <t>CARBAMAZEPINA</t>
+  </si>
+  <si>
+    <t>CARBONATO DE CÁLCIO</t>
+  </si>
+  <si>
+    <t>CARBONATO DE LÍTIO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL</t>
+  </si>
+  <si>
+    <t>CEFALEXINA</t>
+  </si>
+  <si>
+    <t>CETOCONAZOL</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACINO</t>
+  </si>
+  <si>
+    <t>CLARITROMICINA</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA</t>
+  </si>
+  <si>
+    <t>CLONAZEPAM</t>
+  </si>
+  <si>
+    <t>CLORETO DE SÓDIO</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE AMIODARONA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE AMITRIPTILINA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLOMIPRAMINA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE HIDRALAZINA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE IMIPRAMINA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE PROPRANOLOL</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE VERAPAMIL</t>
+  </si>
+  <si>
+    <t>DEXAMETASONA</t>
+  </si>
+  <si>
+    <t>DEXCLORFENIRAMINA</t>
+  </si>
+  <si>
+    <t>DIAZEPAM</t>
+  </si>
+  <si>
+    <t>DIGOXINA</t>
+  </si>
+  <si>
+    <t>DINITRATO DE ISOSSORBIDA</t>
+  </si>
+  <si>
+    <t>DIPIRONA</t>
+  </si>
+  <si>
+    <t>doxazosina</t>
+  </si>
+  <si>
+    <t>mesilato;doxazosina</t>
+  </si>
+  <si>
+    <t>maleato;enalapril</t>
+  </si>
+  <si>
+    <t>ESPIRONOCTONA 25 MG</t>
+  </si>
+  <si>
+    <t>ESTRIOL</t>
+  </si>
+  <si>
+    <t>FENITOÍNA SÓDICA</t>
+  </si>
+  <si>
+    <t>FENOBARBITAL</t>
+  </si>
+  <si>
+    <t>FENOBARBITAL SÓDICO</t>
+  </si>
+  <si>
+    <t>FLUCONAZOL</t>
+  </si>
+  <si>
+    <t>FLUOXETINA</t>
+  </si>
+  <si>
+    <t>PREDNISOLONA</t>
+  </si>
+  <si>
+    <t>FUROSEMIDA</t>
+  </si>
+  <si>
+    <t>GLIBENCLAMIDA</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA</t>
+  </si>
+  <si>
+    <t>GLICOSE</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL</t>
+  </si>
+  <si>
+    <t>HIDROCLOROTIAZIDA</t>
+  </si>
+  <si>
+    <t>HIDROCORTISONA</t>
+  </si>
+  <si>
+    <t>IBUPROFENO</t>
+  </si>
+  <si>
+    <t>mononitrato;isossorbida</t>
+  </si>
+  <si>
+    <t>ITRACONAZOL</t>
+  </si>
+  <si>
+    <t>IVERMECTINA</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SÓDICA</t>
+  </si>
+  <si>
+    <t>LORATADINA</t>
+  </si>
+  <si>
+    <t>LOSARTANA POTÁSSICA</t>
+  </si>
+  <si>
+    <t>MALEATO DE TIMOLOL</t>
+  </si>
+  <si>
+    <t>cloridrato;metformina</t>
+  </si>
+  <si>
+    <t>METILDOPA</t>
+  </si>
+  <si>
+    <t>METOCLOPRAMIDA</t>
+  </si>
+  <si>
+    <t>succinato;metoprolol</t>
+  </si>
+  <si>
+    <t>METRONIDAZOL</t>
+  </si>
+  <si>
+    <t>MICONAZOL</t>
+  </si>
+  <si>
+    <t>NITRATO DE MICONAZOL</t>
+  </si>
+  <si>
+    <t>NITROFURANTOÍNA</t>
+  </si>
+  <si>
+    <t>ENANTATO DE NORETISTERONA;VALERATO DE ESTRADIOL</t>
+  </si>
+  <si>
+    <t>cloridrato;nortriptilina</t>
+  </si>
+  <si>
+    <t>OMEPRAZOL</t>
+  </si>
+  <si>
+    <t>PARACETAMOL</t>
+  </si>
+  <si>
+    <t>PREDNISONA</t>
+  </si>
+  <si>
+    <t>cloridrato</t>
+  </si>
+  <si>
+    <t>LEVODORA + CORIDRATO DE BENZERAZIDA 200MG/50 MG</t>
+  </si>
+  <si>
+    <t>SINVASTATINA</t>
+  </si>
+  <si>
+    <t>SULFADIAZINA DE PRATA</t>
+  </si>
+  <si>
+    <t>SULFAMETOXAZOL</t>
+  </si>
+  <si>
+    <t>SULFATO DE SALBUTAMOL</t>
+  </si>
+  <si>
+    <t>SULFATO FERROSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA PARA TESTES DE GLICEMIA COMPATIVEL PARA O APARELHO ACCU-CHEK ACTIVE </t>
+  </si>
+  <si>
+    <t>VARFARINA SÓDICA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIOS OSÓRIO DE MORAES LTDA</t>
+  </si>
+  <si>
+    <t>EMS SIGMA PHARMA LTDA</t>
+  </si>
+  <si>
+    <t>BRASTERAPICA INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>GEOLAB INDÚSTRIA FARMACÊUTICA S/A</t>
+  </si>
+  <si>
+    <t>BIOLAB SANUS FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>CELLERA FARMACÊUTICA S.A.</t>
+  </si>
+  <si>
+    <t>SANDOZ DO BRASIL INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>EUROFARMA LABORATÓRIOS S.A.</t>
+  </si>
+  <si>
+    <t>BRAINFARMA INDÚSTRIA QUÍMICA E FARMACÊUTICA S.A</t>
+  </si>
+  <si>
+    <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>PHARLAB INDÚSTRIA FARMACÊUTICA S.A.</t>
+  </si>
+  <si>
+    <t>BELFAR LTDA</t>
+  </si>
+  <si>
+    <t>NOVARTIS BIOCIENCIAS S.A</t>
+  </si>
+  <si>
+    <t>GERMED FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>Nutivit/Imec</t>
+  </si>
+  <si>
+    <t>NOVA QUIMICA FARMACÊUTICA S/A</t>
+  </si>
+  <si>
+    <t>NATIVITA IND. COM. LTDA</t>
+  </si>
+  <si>
+    <t>CHIESI FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>NATULAB LABORATÓRIO S.A</t>
+  </si>
+  <si>
+    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>AIRELA INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO TEUTO BRASILEIRO S/A</t>
+  </si>
+  <si>
+    <t>MEDQUIMICA INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>ACHÉ LABORATÓRIOS FARMACÊUTICOS S.A</t>
+  </si>
+  <si>
+    <t>On Call Plus</t>
+  </si>
+  <si>
+    <t>LEGRAND PHARMA INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>MERCK S/A</t>
+  </si>
+  <si>
+    <t>MULTILAB INDÚSTRIA E COMÉRCIO DE PRODUTOS FARMACÊUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>CIFARMA CIENTÍFICA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>RANBAXY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO GLOBO SA</t>
+  </si>
+  <si>
+    <t>PRODUTOS ROCHE QUÍMICOS E FARMACÊUTICOS S.A.</t>
+  </si>
+  <si>
+    <t>PHARMASCIENCE INDUSTRIA FARMACEUTICA S.A</t>
+  </si>
+  <si>
+    <t>Arte Nativa</t>
+  </si>
+  <si>
+    <t>UNIÃO QUÍMICA FARMACÊUTICA NACIONAL S/A</t>
+  </si>
+  <si>
+    <t>105040038</t>
+  </si>
+  <si>
+    <t>105830220</t>
+  </si>
+  <si>
+    <t>100380043</t>
+  </si>
+  <si>
+    <t>154230142</t>
+  </si>
+  <si>
+    <t>109740046</t>
+  </si>
+  <si>
+    <t>154230044</t>
+  </si>
+  <si>
+    <t>104400157</t>
+  </si>
+  <si>
+    <t>100470614</t>
+  </si>
+  <si>
+    <t>100430727</t>
+  </si>
+  <si>
+    <t>135690713</t>
+  </si>
+  <si>
+    <t>155840141</t>
+  </si>
+  <si>
+    <t>103920150</t>
+  </si>
+  <si>
+    <t>100470363</t>
+  </si>
+  <si>
+    <t>141070610</t>
+  </si>
+  <si>
+    <t>154230167</t>
+  </si>
+  <si>
+    <t>105710154</t>
+  </si>
+  <si>
+    <t>154230001</t>
+  </si>
+  <si>
+    <t>100680085</t>
+  </si>
+  <si>
+    <t>105830847</t>
+  </si>
+  <si>
+    <t>Não encontrado</t>
+  </si>
+  <si>
+    <t>109740309</t>
+  </si>
+  <si>
+    <t>109740322</t>
+  </si>
+  <si>
+    <t>102350553</t>
+  </si>
+  <si>
+    <t>155840056</t>
+  </si>
+  <si>
+    <t>147610020</t>
+  </si>
+  <si>
+    <t>126750398</t>
+  </si>
+  <si>
+    <t>141070628</t>
+  </si>
+  <si>
+    <t>100580104</t>
+  </si>
+  <si>
+    <t>154230175</t>
+  </si>
+  <si>
+    <t>138410072</t>
+  </si>
+  <si>
+    <t>154230002</t>
+  </si>
+  <si>
+    <t>155840067</t>
+  </si>
+  <si>
+    <t>105830354</t>
+  </si>
+  <si>
+    <t>183260385</t>
+  </si>
+  <si>
+    <t>100680013</t>
+  </si>
+  <si>
+    <t>102980023</t>
+  </si>
+  <si>
+    <t>105040033</t>
+  </si>
+  <si>
+    <t>135690199</t>
+  </si>
+  <si>
+    <t>100681097</t>
+  </si>
+  <si>
+    <t>154230038</t>
+  </si>
+  <si>
+    <t>141070086</t>
+  </si>
+  <si>
+    <t>167730219</t>
+  </si>
+  <si>
+    <t>141070059</t>
+  </si>
+  <si>
+    <t>135690015</t>
+  </si>
+  <si>
+    <t>103920101</t>
+  </si>
+  <si>
+    <t>144930010</t>
+  </si>
+  <si>
+    <t>154230285</t>
+  </si>
+  <si>
+    <t>100431005</t>
+  </si>
+  <si>
+    <t>103920177</t>
+  </si>
+  <si>
+    <t>105710096</t>
+  </si>
+  <si>
+    <t>109740237</t>
+  </si>
+  <si>
+    <t>103700507</t>
+  </si>
+  <si>
+    <t>103700322</t>
+  </si>
+  <si>
+    <t>183260323</t>
+  </si>
+  <si>
+    <t>103920190</t>
+  </si>
+  <si>
+    <t>109170103</t>
+  </si>
+  <si>
+    <t>105730560</t>
+  </si>
+  <si>
+    <t>154230023</t>
+  </si>
+  <si>
+    <t>109170126</t>
+  </si>
+  <si>
+    <t>141070117</t>
+  </si>
+  <si>
+    <t>112360011</t>
+  </si>
+  <si>
+    <t>109170093</t>
+  </si>
+  <si>
+    <t>103700463</t>
+  </si>
+  <si>
+    <t>154230227</t>
+  </si>
+  <si>
+    <t>103920065</t>
+  </si>
+  <si>
+    <t>109740091</t>
+  </si>
+  <si>
+    <t>105730581</t>
+  </si>
+  <si>
+    <t>167730588</t>
+  </si>
+  <si>
+    <t>105830989</t>
+  </si>
+  <si>
+    <t>100890202</t>
+  </si>
+  <si>
+    <t>144930068</t>
+  </si>
+  <si>
+    <t>154230049</t>
+  </si>
+  <si>
+    <t>141070627</t>
+  </si>
+  <si>
+    <t>105830876</t>
+  </si>
+  <si>
+    <t>154230040</t>
+  </si>
+  <si>
+    <t>103920109</t>
+  </si>
+  <si>
+    <t>102350564</t>
+  </si>
+  <si>
+    <t>105710086</t>
+  </si>
+  <si>
+    <t>109170016</t>
+  </si>
+  <si>
+    <t>109740334</t>
+  </si>
+  <si>
+    <t>155840097</t>
+  </si>
+  <si>
+    <t>167730181</t>
+  </si>
+  <si>
+    <t>105710019</t>
+  </si>
+  <si>
+    <t>103700443</t>
+  </si>
+  <si>
+    <t>115600240</t>
+  </si>
+  <si>
+    <t>123520191</t>
+  </si>
+  <si>
+    <t>154230328</t>
+  </si>
+  <si>
+    <t>154230050</t>
+  </si>
+  <si>
+    <t>105710133</t>
+  </si>
+  <si>
+    <t>105350217</t>
+  </si>
+  <si>
+    <t>126750238</t>
+  </si>
+  <si>
+    <t>101000668</t>
+  </si>
+  <si>
+    <t>101000064</t>
+  </si>
+  <si>
+    <t>141070108</t>
+  </si>
+  <si>
+    <t>126750311</t>
+  </si>
+  <si>
+    <t>100681124</t>
+  </si>
+  <si>
+    <t>102351048</t>
+  </si>
+  <si>
+    <t>103920169</t>
+  </si>
+  <si>
+    <t>117170009</t>
+  </si>
+  <si>
+    <t>104971323</t>
   </si>
   <si>
     <t>OK</t>
   </si>
   <si>
-    <t>0 hours, 3 minutes, and 44.88 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 5.64 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 0.57 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 21.12 seconds</t>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 0.03 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 0.01 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 0.02 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 0.00 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 0.08 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 16.05 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 16.42 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 16.52 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 13.14 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 0.04 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 17.70 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 16.12 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 17.10 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 0.29 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 16.90 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 0.28 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 16.24 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 15.83 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 13.59 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 14.05 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 16.50 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 19.53 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 19.28 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 16.57 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 13.35 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 0.05 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 13.05 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 15.96 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 12.90 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 15.99 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 13.78 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 13.89 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 16.23 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 14.66 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 16.77 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 14.07 seconds</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes, and 14.86 seconds</t>
   </si>
 </sst>
 </file>
@@ -416,7 +1187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,82 +1215,2522 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>104910070</v>
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>233</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>104910070</v>
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>233</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>104910070</v>
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>233</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" t="s">
+        <v>233</v>
+      </c>
+      <c r="F24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" t="s">
+        <v>233</v>
+      </c>
+      <c r="F27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" t="s">
+        <v>233</v>
+      </c>
+      <c r="F28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" t="s">
+        <v>233</v>
+      </c>
+      <c r="F29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" t="s">
+        <v>233</v>
+      </c>
+      <c r="F30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" t="s">
+        <v>233</v>
+      </c>
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" t="s">
+        <v>233</v>
+      </c>
+      <c r="F32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" t="s">
+        <v>233</v>
+      </c>
+      <c r="F33" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" t="s">
+        <v>233</v>
+      </c>
+      <c r="F35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" t="s">
+        <v>233</v>
+      </c>
+      <c r="F36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" t="s">
+        <v>233</v>
+      </c>
+      <c r="F37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" t="s">
+        <v>233</v>
+      </c>
+      <c r="F38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" t="s">
+        <v>233</v>
+      </c>
+      <c r="F39" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" t="s">
+        <v>233</v>
+      </c>
+      <c r="F40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" t="s">
+        <v>233</v>
+      </c>
+      <c r="F41" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" t="s">
+        <v>233</v>
+      </c>
+      <c r="F42" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" t="s">
+        <v>233</v>
+      </c>
+      <c r="F43" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" t="s">
+        <v>233</v>
+      </c>
+      <c r="F44" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" t="s">
+        <v>233</v>
+      </c>
+      <c r="F45" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" t="s">
+        <v>233</v>
+      </c>
+      <c r="F46" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" t="s">
+        <v>233</v>
+      </c>
+      <c r="F47" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" t="s">
+        <v>233</v>
+      </c>
+      <c r="F48" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" t="s">
+        <v>233</v>
+      </c>
+      <c r="F49" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" t="s">
+        <v>233</v>
+      </c>
+      <c r="F50" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" t="s">
+        <v>233</v>
+      </c>
+      <c r="F51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" t="s">
+        <v>233</v>
+      </c>
+      <c r="F52" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" t="s">
+        <v>233</v>
+      </c>
+      <c r="F53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" t="s">
+        <v>233</v>
+      </c>
+      <c r="F54" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" t="s">
+        <v>233</v>
+      </c>
+      <c r="F55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" t="s">
+        <v>174</v>
+      </c>
+      <c r="E56" t="s">
+        <v>233</v>
+      </c>
+      <c r="F56" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57" t="s">
+        <v>233</v>
+      </c>
+      <c r="F57" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" t="s">
+        <v>233</v>
+      </c>
+      <c r="F58" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" t="s">
+        <v>233</v>
+      </c>
+      <c r="F59" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" t="s">
+        <v>233</v>
+      </c>
+      <c r="F60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" t="s">
+        <v>233</v>
+      </c>
+      <c r="F61" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" t="s">
+        <v>180</v>
+      </c>
+      <c r="E62" t="s">
+        <v>233</v>
+      </c>
+      <c r="F62" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" t="s">
+        <v>181</v>
+      </c>
+      <c r="E63" t="s">
+        <v>233</v>
+      </c>
+      <c r="F63" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" t="s">
+        <v>181</v>
+      </c>
+      <c r="E64" t="s">
+        <v>233</v>
+      </c>
+      <c r="F64" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65" t="s">
+        <v>233</v>
+      </c>
+      <c r="F65" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" t="s">
+        <v>234</v>
+      </c>
+      <c r="F66" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" t="s">
+        <v>183</v>
+      </c>
+      <c r="E67" t="s">
+        <v>233</v>
+      </c>
+      <c r="F67" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" t="s">
+        <v>184</v>
+      </c>
+      <c r="E68" t="s">
+        <v>233</v>
+      </c>
+      <c r="F68" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" t="s">
+        <v>185</v>
+      </c>
+      <c r="E69" t="s">
+        <v>233</v>
+      </c>
+      <c r="F69" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70" t="s">
+        <v>186</v>
+      </c>
+      <c r="E70" t="s">
+        <v>233</v>
+      </c>
+      <c r="F70" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" t="s">
+        <v>187</v>
+      </c>
+      <c r="E71" t="s">
+        <v>233</v>
+      </c>
+      <c r="F71" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D72" t="s">
+        <v>188</v>
+      </c>
+      <c r="E72" t="s">
+        <v>233</v>
+      </c>
+      <c r="F72" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" t="s">
+        <v>233</v>
+      </c>
+      <c r="F73" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" t="s">
+        <v>233</v>
+      </c>
+      <c r="F74" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" t="s">
+        <v>191</v>
+      </c>
+      <c r="E75" t="s">
+        <v>233</v>
+      </c>
+      <c r="F75" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" t="s">
+        <v>192</v>
+      </c>
+      <c r="E76" t="s">
+        <v>233</v>
+      </c>
+      <c r="F76" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" t="s">
+        <v>192</v>
+      </c>
+      <c r="E77" t="s">
+        <v>233</v>
+      </c>
+      <c r="F77" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78" t="s">
+        <v>152</v>
+      </c>
+      <c r="E78" t="s">
+        <v>234</v>
+      </c>
+      <c r="F78" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79" t="s">
+        <v>193</v>
+      </c>
+      <c r="E79" t="s">
+        <v>233</v>
+      </c>
+      <c r="F79" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" t="s">
+        <v>193</v>
+      </c>
+      <c r="E80" t="s">
+        <v>233</v>
+      </c>
+      <c r="F80" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" t="s">
+        <v>194</v>
+      </c>
+      <c r="E81" t="s">
+        <v>233</v>
+      </c>
+      <c r="F81" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" t="s">
+        <v>195</v>
+      </c>
+      <c r="E82" t="s">
+        <v>233</v>
+      </c>
+      <c r="F82" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" t="s">
+        <v>100</v>
+      </c>
+      <c r="D83" t="s">
+        <v>196</v>
+      </c>
+      <c r="E83" t="s">
+        <v>233</v>
+      </c>
+      <c r="F83" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84" t="s">
+        <v>197</v>
+      </c>
+      <c r="E84" t="s">
+        <v>233</v>
+      </c>
+      <c r="F84" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>90</v>
+      </c>
+      <c r="B85" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" t="s">
+        <v>101</v>
+      </c>
+      <c r="D85" t="s">
+        <v>198</v>
+      </c>
+      <c r="E85" t="s">
+        <v>233</v>
+      </c>
+      <c r="F85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" t="s">
+        <v>121</v>
+      </c>
+      <c r="D86" t="s">
+        <v>199</v>
+      </c>
+      <c r="E86" t="s">
+        <v>233</v>
+      </c>
+      <c r="F86" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>92</v>
+      </c>
+      <c r="B87" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87" t="s">
+        <v>200</v>
+      </c>
+      <c r="E87" t="s">
+        <v>233</v>
+      </c>
+      <c r="F87" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>70</v>
+      </c>
+      <c r="C88" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88" t="s">
+        <v>201</v>
+      </c>
+      <c r="E88" t="s">
+        <v>233</v>
+      </c>
+      <c r="F88" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" t="s">
+        <v>124</v>
+      </c>
+      <c r="D89" t="s">
+        <v>202</v>
+      </c>
+      <c r="E89" t="s">
+        <v>233</v>
+      </c>
+      <c r="F89" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90" t="s">
+        <v>202</v>
+      </c>
+      <c r="E90" t="s">
+        <v>233</v>
+      </c>
+      <c r="F90" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" t="s">
+        <v>124</v>
+      </c>
+      <c r="D91" t="s">
+        <v>202</v>
+      </c>
+      <c r="E91" t="s">
+        <v>233</v>
+      </c>
+      <c r="F91" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D92" t="s">
+        <v>203</v>
+      </c>
+      <c r="E92" t="s">
+        <v>233</v>
+      </c>
+      <c r="F92" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" t="s">
+        <v>100</v>
+      </c>
+      <c r="D93" t="s">
+        <v>204</v>
+      </c>
+      <c r="E93" t="s">
+        <v>233</v>
+      </c>
+      <c r="F93" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>73</v>
+      </c>
+      <c r="C94" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" t="s">
+        <v>205</v>
+      </c>
+      <c r="E94" t="s">
+        <v>233</v>
+      </c>
+      <c r="F94" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>102</v>
+      </c>
+      <c r="B95" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" t="s">
+        <v>110</v>
+      </c>
+      <c r="D95" t="s">
+        <v>206</v>
+      </c>
+      <c r="E95" t="s">
+        <v>233</v>
+      </c>
+      <c r="F95" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" t="s">
+        <v>207</v>
+      </c>
+      <c r="E96" t="s">
+        <v>233</v>
+      </c>
+      <c r="F96" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>104</v>
+      </c>
+      <c r="B97" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" t="s">
+        <v>106</v>
+      </c>
+      <c r="D97" t="s">
+        <v>208</v>
+      </c>
+      <c r="E97" t="s">
+        <v>233</v>
+      </c>
+      <c r="F97" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" t="s">
+        <v>98</v>
+      </c>
+      <c r="D98" t="s">
+        <v>209</v>
+      </c>
+      <c r="E98" t="s">
+        <v>233</v>
+      </c>
+      <c r="F98" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>77</v>
+      </c>
+      <c r="C99" t="s">
+        <v>108</v>
+      </c>
+      <c r="D99" t="s">
+        <v>210</v>
+      </c>
+      <c r="E99" t="s">
+        <v>233</v>
+      </c>
+      <c r="F99" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>77</v>
+      </c>
+      <c r="C100" t="s">
+        <v>120</v>
+      </c>
+      <c r="D100" t="s">
+        <v>211</v>
+      </c>
+      <c r="E100" t="s">
+        <v>233</v>
+      </c>
+      <c r="F100" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>108</v>
+      </c>
+      <c r="B101" t="s">
+        <v>78</v>
+      </c>
+      <c r="C101" t="s">
+        <v>101</v>
+      </c>
+      <c r="D101" t="s">
+        <v>212</v>
+      </c>
+      <c r="E101" t="s">
+        <v>233</v>
+      </c>
+      <c r="F101" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>110</v>
+      </c>
+      <c r="B102" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" t="s">
+        <v>101</v>
+      </c>
+      <c r="D102" t="s">
+        <v>212</v>
+      </c>
+      <c r="E102" t="s">
+        <v>233</v>
+      </c>
+      <c r="F102" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>111</v>
+      </c>
+      <c r="B103" t="s">
+        <v>79</v>
+      </c>
+      <c r="C103" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" t="s">
+        <v>213</v>
+      </c>
+      <c r="E103" t="s">
+        <v>233</v>
+      </c>
+      <c r="F103" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>112</v>
+      </c>
+      <c r="B104" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104" t="s">
+        <v>125</v>
+      </c>
+      <c r="D104" t="s">
+        <v>214</v>
+      </c>
+      <c r="E104" t="s">
+        <v>233</v>
+      </c>
+      <c r="F104" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>113</v>
+      </c>
+      <c r="B105" t="s">
+        <v>80</v>
+      </c>
+      <c r="C105" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" t="s">
+        <v>215</v>
+      </c>
+      <c r="E105" t="s">
+        <v>233</v>
+      </c>
+      <c r="F105" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>114</v>
+      </c>
+      <c r="B106" t="s">
+        <v>81</v>
+      </c>
+      <c r="C106" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" t="s">
+        <v>152</v>
+      </c>
+      <c r="E106" t="s">
+        <v>234</v>
+      </c>
+      <c r="F106" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>115</v>
+      </c>
+      <c r="B107" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107" t="s">
+        <v>119</v>
+      </c>
+      <c r="D107" t="s">
+        <v>216</v>
+      </c>
+      <c r="E107" t="s">
+        <v>233</v>
+      </c>
+      <c r="F107" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>116</v>
+      </c>
+      <c r="B108" t="s">
+        <v>83</v>
+      </c>
+      <c r="C108" t="s">
+        <v>126</v>
+      </c>
+      <c r="D108" t="s">
+        <v>217</v>
+      </c>
+      <c r="E108" t="s">
+        <v>233</v>
+      </c>
+      <c r="F108" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>117</v>
+      </c>
+      <c r="B109" t="s">
+        <v>84</v>
+      </c>
+      <c r="C109" t="s">
+        <v>127</v>
+      </c>
+      <c r="D109" t="s">
+        <v>218</v>
+      </c>
+      <c r="E109" t="s">
+        <v>233</v>
+      </c>
+      <c r="F109" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>118</v>
+      </c>
+      <c r="B110" t="s">
+        <v>84</v>
+      </c>
+      <c r="C110" t="s">
+        <v>127</v>
+      </c>
+      <c r="D110" t="s">
+        <v>218</v>
+      </c>
+      <c r="E110" t="s">
+        <v>233</v>
+      </c>
+      <c r="F110" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>119</v>
+      </c>
+      <c r="B111" t="s">
+        <v>85</v>
+      </c>
+      <c r="C111" t="s">
+        <v>100</v>
+      </c>
+      <c r="D111" t="s">
+        <v>219</v>
+      </c>
+      <c r="E111" t="s">
+        <v>233</v>
+      </c>
+      <c r="F111" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>120</v>
+      </c>
+      <c r="B112" t="s">
+        <v>86</v>
+      </c>
+      <c r="C112" t="s">
+        <v>100</v>
+      </c>
+      <c r="D112" t="s">
+        <v>220</v>
+      </c>
+      <c r="E112" t="s">
+        <v>233</v>
+      </c>
+      <c r="F112" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>121</v>
+      </c>
+      <c r="B113" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113" t="s">
+        <v>108</v>
+      </c>
+      <c r="D113" t="s">
+        <v>221</v>
+      </c>
+      <c r="E113" t="s">
+        <v>233</v>
+      </c>
+      <c r="F113" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>122</v>
+      </c>
+      <c r="B114" t="s">
+        <v>87</v>
+      </c>
+      <c r="C114" t="s">
+        <v>128</v>
+      </c>
+      <c r="D114" t="s">
+        <v>222</v>
+      </c>
+      <c r="E114" t="s">
+        <v>233</v>
+      </c>
+      <c r="F114" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>123</v>
+      </c>
+      <c r="B115" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" t="s">
+        <v>112</v>
+      </c>
+      <c r="D115" t="s">
+        <v>223</v>
+      </c>
+      <c r="E115" t="s">
+        <v>233</v>
+      </c>
+      <c r="F115" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>124</v>
+      </c>
+      <c r="B116" t="s">
+        <v>88</v>
+      </c>
+      <c r="C116" t="s">
+        <v>129</v>
+      </c>
+      <c r="D116" t="s">
+        <v>224</v>
+      </c>
+      <c r="E116" t="s">
+        <v>233</v>
+      </c>
+      <c r="F116" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>125</v>
+      </c>
+      <c r="B117" t="s">
+        <v>89</v>
+      </c>
+      <c r="C117" t="s">
+        <v>129</v>
+      </c>
+      <c r="D117" t="s">
+        <v>225</v>
+      </c>
+      <c r="E117" t="s">
+        <v>233</v>
+      </c>
+      <c r="F117" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>127</v>
+      </c>
+      <c r="B118" t="s">
+        <v>90</v>
+      </c>
+      <c r="C118" t="s">
+        <v>107</v>
+      </c>
+      <c r="D118" t="s">
+        <v>226</v>
+      </c>
+      <c r="E118" t="s">
+        <v>233</v>
+      </c>
+      <c r="F118" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>128</v>
+      </c>
+      <c r="B119" t="s">
+        <v>90</v>
+      </c>
+      <c r="C119" t="s">
+        <v>112</v>
+      </c>
+      <c r="D119" t="s">
+        <v>227</v>
+      </c>
+      <c r="E119" t="s">
+        <v>233</v>
+      </c>
+      <c r="F119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>129</v>
+      </c>
+      <c r="B120" t="s">
+        <v>90</v>
+      </c>
+      <c r="C120" t="s">
+        <v>109</v>
+      </c>
+      <c r="D120" t="s">
+        <v>228</v>
+      </c>
+      <c r="E120" t="s">
+        <v>233</v>
+      </c>
+      <c r="F120" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>130</v>
+      </c>
+      <c r="B121" t="s">
+        <v>91</v>
+      </c>
+      <c r="C121" t="s">
+        <v>113</v>
+      </c>
+      <c r="D121" t="s">
+        <v>152</v>
+      </c>
+      <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>131</v>
+      </c>
+      <c r="B122" t="s">
+        <v>92</v>
+      </c>
+      <c r="C122" t="s">
+        <v>98</v>
+      </c>
+      <c r="D122" t="s">
+        <v>229</v>
+      </c>
+      <c r="E122" t="s">
+        <v>233</v>
+      </c>
+      <c r="F122" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>132</v>
+      </c>
+      <c r="B123" t="s">
+        <v>92</v>
+      </c>
+      <c r="C123" t="s">
+        <v>106</v>
+      </c>
+      <c r="D123" t="s">
+        <v>230</v>
+      </c>
+      <c r="E123" t="s">
+        <v>233</v>
+      </c>
+      <c r="F123" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>134</v>
+      </c>
+      <c r="B124" t="s">
+        <v>93</v>
+      </c>
+      <c r="C124" t="s">
+        <v>130</v>
+      </c>
+      <c r="D124" t="s">
+        <v>231</v>
+      </c>
+      <c r="E124" t="s">
+        <v>233</v>
+      </c>
+      <c r="F124" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>135</v>
+      </c>
+      <c r="B125" t="s">
+        <v>94</v>
+      </c>
+      <c r="C125" t="s">
+        <v>131</v>
+      </c>
+      <c r="D125" t="s">
+        <v>152</v>
+      </c>
+      <c r="E125" t="s">
+        <v>234</v>
+      </c>
+      <c r="F125" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>137</v>
+      </c>
+      <c r="B126" t="s">
+        <v>95</v>
+      </c>
+      <c r="C126" t="s">
+        <v>122</v>
+      </c>
+      <c r="D126" t="s">
+        <v>152</v>
+      </c>
+      <c r="E126" t="s">
+        <v>234</v>
+      </c>
+      <c r="F126" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>138</v>
+      </c>
+      <c r="B127" t="s">
+        <v>96</v>
+      </c>
+      <c r="C127" t="s">
+        <v>132</v>
+      </c>
+      <c r="D127" t="s">
+        <v>232</v>
+      </c>
+      <c r="E127" t="s">
+        <v>233</v>
+      </c>
+      <c r="F127" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Item</t>
   </si>
@@ -31,9 +31,6 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>Tempo Decorrido</t>
-  </si>
-  <si>
     <t>CLORETO DE SÓDIO;GLICOSE</t>
   </si>
   <si>
@@ -50,15 +47,6 @@
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 0.15 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 0.01 seconds</t>
-  </si>
-  <si>
-    <t>0 hours, 0 minutes, and 24.06 seconds</t>
   </si>
 </sst>
 </file>
@@ -416,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,88 +426,73 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Item</t>
   </si>
@@ -22,7 +22,10 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t>Marca</t>
+    <t>Concentração_Obtida</t>
+  </si>
+  <si>
+    <t>Laboratório</t>
   </si>
   <si>
     <t>Registro</t>
@@ -37,6 +40,15 @@
     <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
   </si>
   <si>
+    <t>1000ml</t>
+  </si>
+  <si>
+    <t>250ml</t>
+  </si>
+  <si>
+    <t>500ml</t>
+  </si>
+  <si>
     <t>JP INDUSTRIA FARMACEUTICA S/A</t>
   </si>
   <si>
@@ -46,7 +58,7 @@
     <t>104910020</t>
   </si>
   <si>
-    <t>OK</t>
+    <t>Pendente</t>
   </si>
 </sst>
 </file>
@@ -404,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,73 +438,88 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Item</t>
   </si>
@@ -34,28 +34,16 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>CLORETO DE SÓDIO;GLICOSE</t>
-  </si>
-  <si>
-    <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-  </si>
-  <si>
-    <t>1000ml</t>
-  </si>
-  <si>
-    <t>250ml</t>
-  </si>
-  <si>
-    <t>500ml</t>
-  </si>
-  <si>
-    <t>JP INDUSTRIA FARMACEUTICA S/A</t>
-  </si>
-  <si>
-    <t>104910019</t>
-  </si>
-  <si>
-    <t>104910020</t>
+    <t>aciclovir</t>
+  </si>
+  <si>
+    <t>250mg/ml</t>
+  </si>
+  <si>
+    <t>cimed</t>
+  </si>
+  <si>
+    <t>143810181</t>
   </si>
   <si>
     <t>Pendente</t>
@@ -416,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,82 +432,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Item</t>
   </si>
@@ -34,16 +34,28 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>aciclovir</t>
-  </si>
-  <si>
-    <t>250mg/ml</t>
-  </si>
-  <si>
-    <t>cimed</t>
-  </si>
-  <si>
-    <t>143810181</t>
+    <t>CLORETO DE SÓDIO;GLICOSE</t>
+  </si>
+  <si>
+    <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
+  </si>
+  <si>
+    <t>1000ml</t>
+  </si>
+  <si>
+    <t>250ml</t>
+  </si>
+  <si>
+    <t>500ml</t>
+  </si>
+  <si>
+    <t>JP INDUSTRIA FARMACEUTICA S/A</t>
+  </si>
+  <si>
+    <t>104910019</t>
+  </si>
+  <si>
+    <t>104910020</t>
   </si>
   <si>
     <t>Pendente</t>
@@ -404,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,22 +444,82 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>Item</t>
   </si>
@@ -34,31 +34,124 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>CLORETO DE SÓDIO;GLICOSE</t>
-  </si>
-  <si>
-    <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-  </si>
-  <si>
-    <t>1000ml</t>
-  </si>
-  <si>
-    <t>250ml</t>
-  </si>
-  <si>
-    <t>500ml</t>
-  </si>
-  <si>
-    <t>JP INDUSTRIA FARMACEUTICA S/A</t>
-  </si>
-  <si>
-    <t>104910019</t>
-  </si>
-  <si>
-    <t>104910020</t>
-  </si>
-  <si>
-    <t>Pendente</t>
+    <t>sodica;heparina</t>
+  </si>
+  <si>
+    <t>PROMETAZINA</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL</t>
+  </si>
+  <si>
+    <t>clorpromazina</t>
+  </si>
+  <si>
+    <t>codeina</t>
+  </si>
+  <si>
+    <t>imipramina</t>
+  </si>
+  <si>
+    <t>RISPERIDONA</t>
+  </si>
+  <si>
+    <t>levomepromazina</t>
+  </si>
+  <si>
+    <t>LIDOCAÍNA</t>
+  </si>
+  <si>
+    <t>NITRATO DE CERIO;SULFADIAZINA</t>
+  </si>
+  <si>
+    <t>COLAGENASE</t>
+  </si>
+  <si>
+    <t>5000ui</t>
+  </si>
+  <si>
+    <t>25mg</t>
+  </si>
+  <si>
+    <t>5mg</t>
+  </si>
+  <si>
+    <t>40mg/ml</t>
+  </si>
+  <si>
+    <t>2mg/ml</t>
+  </si>
+  <si>
+    <t>30mg</t>
+  </si>
+  <si>
+    <t>3mg</t>
+  </si>
+  <si>
+    <t>1mg</t>
+  </si>
+  <si>
+    <t>4%</t>
+  </si>
+  <si>
+    <t>2%</t>
+  </si>
+  <si>
+    <t>Concentração não encontrada</t>
+  </si>
+  <si>
+    <t>30g</t>
+  </si>
+  <si>
+    <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO TEUTO BRASILEIRO S/A</t>
+  </si>
+  <si>
+    <t>CELLERA FARMACÊUTICA S.A.</t>
+  </si>
+  <si>
+    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>102980371</t>
+  </si>
+  <si>
+    <t>103700691</t>
+  </si>
+  <si>
+    <t>112360011</t>
+  </si>
+  <si>
+    <t>183260385</t>
+  </si>
+  <si>
+    <t>102980199</t>
+  </si>
+  <si>
+    <t>102980023</t>
+  </si>
+  <si>
+    <t>103920197</t>
+  </si>
+  <si>
+    <t>183260316</t>
+  </si>
+  <si>
+    <t>102980249</t>
+  </si>
+  <si>
+    <t>102980560</t>
+  </si>
+  <si>
+    <t>102980431</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -416,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,82 +537,282 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
         <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="286">
   <si>
     <t>Item</t>
   </si>
@@ -34,124 +34,844 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>sodica;heparina</t>
-  </si>
-  <si>
-    <t>PROMETAZINA</t>
+    <t>ACETATO DE DEXAMETASONA</t>
+  </si>
+  <si>
+    <t>ACETATO DE MEDROXIPROGESTERONA</t>
+  </si>
+  <si>
+    <t>ÁCIDO ACETIL SALICILICO</t>
+  </si>
+  <si>
+    <t>ÁCIDO FÓLICO</t>
+  </si>
+  <si>
+    <t>ÁCIDO VALPRÓICO</t>
+  </si>
+  <si>
+    <t>ALBENDAZOL</t>
+  </si>
+  <si>
+    <t>sodio;alendronato</t>
+  </si>
+  <si>
+    <t>ALOPURINOL</t>
+  </si>
+  <si>
+    <t>AMOXICILINA</t>
+  </si>
+  <si>
+    <t>CLAVULANATO DE POTÁSSIO</t>
+  </si>
+  <si>
+    <t>AMOXILINA 500MG CAPSULA</t>
+  </si>
+  <si>
+    <t>besilato;anlodipino</t>
+  </si>
+  <si>
+    <t>ATENOLOL</t>
+  </si>
+  <si>
+    <t>AZITROMICINA</t>
+  </si>
+  <si>
+    <t>AZITROMICINA DI-HIDRATADA</t>
+  </si>
+  <si>
+    <t>BENZOILMETRONIDAZOL</t>
+  </si>
+  <si>
+    <t>BESILATO DE ANLODIPINO</t>
+  </si>
+  <si>
+    <t>CAPTOPRIL</t>
+  </si>
+  <si>
+    <t>CARBAMAZEPINA</t>
+  </si>
+  <si>
+    <t>CARBONATO DE LÍTIO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL</t>
+  </si>
+  <si>
+    <t>CEFALEXINA</t>
+  </si>
+  <si>
+    <t>CETOCONAZOL</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACINO</t>
+  </si>
+  <si>
+    <t>CLARITROMICINA</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA</t>
+  </si>
+  <si>
+    <t>CLONAZEPAM</t>
+  </si>
+  <si>
+    <t>CLORETO DE SÓDIO</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE AMIODARONA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE AMITRIPTILINA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLOMIPRAMINA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE HIDRALAZINA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE IMIPRAMINA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE PROPRANOLOL</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE VERAPAMIL</t>
+  </si>
+  <si>
+    <t>DEXAMETASONA</t>
+  </si>
+  <si>
+    <t>DEXCLORFENIRAMINA</t>
+  </si>
+  <si>
+    <t>DIAZEPAM</t>
+  </si>
+  <si>
+    <t>DIGOXINA</t>
+  </si>
+  <si>
+    <t>DINITRATO DE ISOSSORBIDA</t>
+  </si>
+  <si>
+    <t>DIPIRONA</t>
+  </si>
+  <si>
+    <t>doxazosina</t>
+  </si>
+  <si>
+    <t>mesilato;doxazosina</t>
+  </si>
+  <si>
+    <t>maleato;enalapril</t>
+  </si>
+  <si>
+    <t>ESPIRONOCTONA 25 MG</t>
+  </si>
+  <si>
+    <t>ESTRIOL</t>
+  </si>
+  <si>
+    <t>FENITOÍNA SÓDICA</t>
+  </si>
+  <si>
+    <t>FENOBARBITAL</t>
+  </si>
+  <si>
+    <t>FENOBARBITAL SÓDICO</t>
+  </si>
+  <si>
+    <t>FLUCONAZOL</t>
+  </si>
+  <si>
+    <t>FLUOXETINA</t>
+  </si>
+  <si>
+    <t>PREDNISOLONA</t>
+  </si>
+  <si>
+    <t>FUROSEMIDA</t>
+  </si>
+  <si>
+    <t>GLIBENCLAMIDA</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA</t>
   </si>
   <si>
     <t>HALOPERIDOL</t>
   </si>
   <si>
-    <t>clorpromazina</t>
-  </si>
-  <si>
-    <t>codeina</t>
-  </si>
-  <si>
-    <t>imipramina</t>
-  </si>
-  <si>
-    <t>RISPERIDONA</t>
-  </si>
-  <si>
-    <t>levomepromazina</t>
-  </si>
-  <si>
-    <t>LIDOCAÍNA</t>
-  </si>
-  <si>
-    <t>NITRATO DE CERIO;SULFADIAZINA</t>
-  </si>
-  <si>
-    <t>COLAGENASE</t>
-  </si>
-  <si>
-    <t>5000ui</t>
+    <t>HIDROCLOROTIAZIDA</t>
+  </si>
+  <si>
+    <t>HIDROCORTISONA</t>
+  </si>
+  <si>
+    <t>IBUPROFENO</t>
+  </si>
+  <si>
+    <t>mononitrato;isossorbida</t>
+  </si>
+  <si>
+    <t>ITRACONAZOL</t>
+  </si>
+  <si>
+    <t>IVERMECTINA</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SÓDICA</t>
+  </si>
+  <si>
+    <t>LORATADINA</t>
+  </si>
+  <si>
+    <t>LOSARTANA POTÁSSICA</t>
+  </si>
+  <si>
+    <t>MALEATO DE TIMOLOL</t>
+  </si>
+  <si>
+    <t>cloridrato;metformina</t>
+  </si>
+  <si>
+    <t>METILDOPA</t>
+  </si>
+  <si>
+    <t>METOCLOPRAMIDA</t>
+  </si>
+  <si>
+    <t>succinato;metoprolol</t>
+  </si>
+  <si>
+    <t>METRONIDAZOL</t>
+  </si>
+  <si>
+    <t>MICONAZOL</t>
+  </si>
+  <si>
+    <t>NITROFURANTOÍNA</t>
+  </si>
+  <si>
+    <t>ENANTATO DE NORETISTERONA;VALERATO DE ESTRADIOL</t>
+  </si>
+  <si>
+    <t>cloridrato;nortriptilina</t>
+  </si>
+  <si>
+    <t>OMEPRAZOL</t>
+  </si>
+  <si>
+    <t>PARACETAMOL</t>
+  </si>
+  <si>
+    <t>PREDNISONA</t>
+  </si>
+  <si>
+    <t>cloridrato</t>
+  </si>
+  <si>
+    <t>LEVODORA + CORIDRATO DE BENZERAZIDA 200MG/50 MG</t>
+  </si>
+  <si>
+    <t>SINVASTATINA</t>
+  </si>
+  <si>
+    <t>SULFADIAZINA DE PRATA</t>
+  </si>
+  <si>
+    <t>SULFAMETOXAZOL</t>
+  </si>
+  <si>
+    <t>SULFATO DE SALBUTAMOL</t>
+  </si>
+  <si>
+    <t>VARFARINA SÓDICA</t>
+  </si>
+  <si>
+    <t>1mg</t>
+  </si>
+  <si>
+    <t>150 mg/ml</t>
+  </si>
+  <si>
+    <t>100 mg</t>
+  </si>
+  <si>
+    <t>5mg</t>
+  </si>
+  <si>
+    <t>250mg</t>
+  </si>
+  <si>
+    <t>500 mg</t>
+  </si>
+  <si>
+    <t>40 mg/ml</t>
+  </si>
+  <si>
+    <t>400 mg</t>
+  </si>
+  <si>
+    <t>70 mg</t>
+  </si>
+  <si>
+    <t>300 mg</t>
+  </si>
+  <si>
+    <t>5 mg/ml</t>
+  </si>
+  <si>
+    <t>125 mg</t>
+  </si>
+  <si>
+    <t>500mg</t>
+  </si>
+  <si>
+    <t>10 mg</t>
+  </si>
+  <si>
+    <t>50mg</t>
+  </si>
+  <si>
+    <t>40mg/ml</t>
+  </si>
+  <si>
+    <t>25 mg</t>
+  </si>
+  <si>
+    <t>20 mg/ml</t>
+  </si>
+  <si>
+    <t>200 mg</t>
+  </si>
+  <si>
+    <t>300mg</t>
+  </si>
+  <si>
+    <t>5 mg</t>
+  </si>
+  <si>
+    <t>20mg/ml</t>
+  </si>
+  <si>
+    <t>200mcg</t>
+  </si>
+  <si>
+    <t>50mcg</t>
+  </si>
+  <si>
+    <t>250 mcg</t>
+  </si>
+  <si>
+    <t>5mg/ml</t>
+  </si>
+  <si>
+    <t>9 mg/ml</t>
+  </si>
+  <si>
+    <t>200mg</t>
+  </si>
+  <si>
+    <t>100mg</t>
   </si>
   <si>
     <t>25mg</t>
   </si>
   <si>
-    <t>5mg</t>
-  </si>
-  <si>
-    <t>40mg/ml</t>
-  </si>
-  <si>
-    <t>2mg/ml</t>
-  </si>
-  <si>
-    <t>30mg</t>
-  </si>
-  <si>
-    <t>3mg</t>
-  </si>
-  <si>
-    <t>1mg</t>
-  </si>
-  <si>
-    <t>4%</t>
-  </si>
-  <si>
-    <t>2%</t>
-  </si>
-  <si>
-    <t>Concentração não encontrada</t>
-  </si>
-  <si>
-    <t>30g</t>
+    <t>40mg</t>
+  </si>
+  <si>
+    <t>80mg</t>
+  </si>
+  <si>
+    <t>1 mg/ml</t>
+  </si>
+  <si>
+    <t>4 mg/ml</t>
+  </si>
+  <si>
+    <t>2mg</t>
+  </si>
+  <si>
+    <t>500mg/ml</t>
+  </si>
+  <si>
+    <t>4mg</t>
+  </si>
+  <si>
+    <t>20 mg</t>
+  </si>
+  <si>
+    <t>150 mg</t>
+  </si>
+  <si>
+    <t>3mg/ml</t>
+  </si>
+  <si>
+    <t>40 mg</t>
+  </si>
+  <si>
+    <t>30 mg</t>
+  </si>
+  <si>
+    <t>60mg</t>
+  </si>
+  <si>
+    <t>10mg</t>
+  </si>
+  <si>
+    <t>50mg/ml</t>
+  </si>
+  <si>
+    <t>600 mg</t>
+  </si>
+  <si>
+    <t>6mg</t>
+  </si>
+  <si>
+    <t>100 mcg</t>
+  </si>
+  <si>
+    <t>25 mcg</t>
+  </si>
+  <si>
+    <t>50 mcg</t>
+  </si>
+  <si>
+    <t>850 mg</t>
+  </si>
+  <si>
+    <t>250 mg</t>
+  </si>
+  <si>
+    <t>50 mg</t>
+  </si>
+  <si>
+    <t>20mg</t>
+  </si>
+  <si>
+    <t>200 mg/ml</t>
+  </si>
+  <si>
+    <t>8 mg/ml</t>
+  </si>
+  <si>
+    <t>80 mg</t>
+  </si>
+  <si>
+    <t>100mcg</t>
+  </si>
+  <si>
+    <t>LABORATÓRIOS OSÓRIO DE MORAES LTDA</t>
+  </si>
+  <si>
+    <t>EMS SIGMA PHARMA LTDA</t>
+  </si>
+  <si>
+    <t>BRASTERAPICA INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>GEOLAB INDÚSTRIA FARMACÊUTICA S/A</t>
+  </si>
+  <si>
+    <t>BIOLAB SANUS FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>CELLERA FARMACÊUTICA S.A.</t>
+  </si>
+  <si>
+    <t>SANDOZ DO BRASIL INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>EUROFARMA LABORATÓRIOS S.A.</t>
+  </si>
+  <si>
+    <t>BRAINFARMA INDÚSTRIA QUÍMICA E FARMACÊUTICA S.A</t>
+  </si>
+  <si>
+    <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>PHARLAB INDÚSTRIA FARMACÊUTICA S.A.</t>
+  </si>
+  <si>
+    <t>BELFAR LTDA</t>
+  </si>
+  <si>
+    <t>NOVARTIS BIOCIENCIAS S.A</t>
+  </si>
+  <si>
+    <t>GERMED FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>NOVA QUIMICA FARMACÊUTICA S/A</t>
+  </si>
+  <si>
+    <t>NATIVITA IND. COM. LTDA</t>
+  </si>
+  <si>
+    <t>CHIESI FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>NATULAB LABORATÓRIO S.A</t>
+  </si>
+  <si>
+    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
   </si>
   <si>
     <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
   </si>
   <si>
+    <t>AIRELA INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
     <t>LABORATÓRIO TEUTO BRASILEIRO S/A</t>
   </si>
   <si>
-    <t>CELLERA FARMACÊUTICA S.A.</t>
-  </si>
-  <si>
-    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
-  </si>
-  <si>
-    <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
-  </si>
-  <si>
-    <t>102980371</t>
-  </si>
-  <si>
-    <t>103700691</t>
+    <t>MEDQUIMICA INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>ACHÉ LABORATÓRIOS FARMACÊUTICOS S.A</t>
+  </si>
+  <si>
+    <t>LEGRAND PHARMA INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>MERCK S/A</t>
+  </si>
+  <si>
+    <t>MULTILAB INDÚSTRIA E COMÉRCIO DE PRODUTOS FARMACÊUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>CIFARMA CIENTÍFICA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>RANBAXY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO GLOBO SA</t>
+  </si>
+  <si>
+    <t>PRODUTOS ROCHE QUÍMICOS E FARMACÊUTICOS S.A.</t>
+  </si>
+  <si>
+    <t>PHARMASCIENCE INDUSTRIA FARMACEUTICA S.A</t>
+  </si>
+  <si>
+    <t>UNIÃO QUÍMICA FARMACÊUTICA NACIONAL S/A</t>
+  </si>
+  <si>
+    <t>105040038</t>
+  </si>
+  <si>
+    <t>105830220</t>
+  </si>
+  <si>
+    <t>100380043</t>
+  </si>
+  <si>
+    <t>154230142</t>
+  </si>
+  <si>
+    <t>109740046</t>
+  </si>
+  <si>
+    <t>154230044</t>
+  </si>
+  <si>
+    <t>104400157</t>
+  </si>
+  <si>
+    <t>100470614</t>
+  </si>
+  <si>
+    <t>100430727</t>
+  </si>
+  <si>
+    <t>135690713</t>
+  </si>
+  <si>
+    <t>155840141</t>
+  </si>
+  <si>
+    <t>103920150</t>
+  </si>
+  <si>
+    <t>100470363</t>
+  </si>
+  <si>
+    <t>141070610</t>
+  </si>
+  <si>
+    <t>154230167</t>
+  </si>
+  <si>
+    <t>105710154</t>
+  </si>
+  <si>
+    <t>154230001</t>
+  </si>
+  <si>
+    <t>100680085</t>
+  </si>
+  <si>
+    <t>105830847</t>
+  </si>
+  <si>
+    <t>109740309</t>
+  </si>
+  <si>
+    <t>109740322</t>
+  </si>
+  <si>
+    <t>102350553</t>
+  </si>
+  <si>
+    <t>155840056</t>
+  </si>
+  <si>
+    <t>147610020</t>
+  </si>
+  <si>
+    <t>126750398</t>
+  </si>
+  <si>
+    <t>141070628</t>
+  </si>
+  <si>
+    <t>100580104</t>
+  </si>
+  <si>
+    <t>154230175</t>
+  </si>
+  <si>
+    <t>138410072</t>
+  </si>
+  <si>
+    <t>154230002</t>
+  </si>
+  <si>
+    <t>155840067</t>
+  </si>
+  <si>
+    <t>105830354</t>
+  </si>
+  <si>
+    <t>183260385</t>
+  </si>
+  <si>
+    <t>100680013</t>
+  </si>
+  <si>
+    <t>102980023</t>
+  </si>
+  <si>
+    <t>105040033</t>
+  </si>
+  <si>
+    <t>135690199</t>
+  </si>
+  <si>
+    <t>100681097</t>
+  </si>
+  <si>
+    <t>154230038</t>
+  </si>
+  <si>
+    <t>141070086</t>
+  </si>
+  <si>
+    <t>167730219</t>
+  </si>
+  <si>
+    <t>141070059</t>
+  </si>
+  <si>
+    <t>135690015</t>
+  </si>
+  <si>
+    <t>103920101</t>
+  </si>
+  <si>
+    <t>144930010</t>
+  </si>
+  <si>
+    <t>154230285</t>
+  </si>
+  <si>
+    <t>100431005</t>
+  </si>
+  <si>
+    <t>103920177</t>
+  </si>
+  <si>
+    <t>105710096</t>
+  </si>
+  <si>
+    <t>154230266</t>
+  </si>
+  <si>
+    <t>109740237</t>
+  </si>
+  <si>
+    <t>103700507</t>
+  </si>
+  <si>
+    <t>103700322</t>
+  </si>
+  <si>
+    <t>183260323</t>
+  </si>
+  <si>
+    <t>103920190</t>
+  </si>
+  <si>
+    <t>109170103</t>
+  </si>
+  <si>
+    <t>105730560</t>
+  </si>
+  <si>
+    <t>154230023</t>
+  </si>
+  <si>
+    <t>109170126</t>
+  </si>
+  <si>
+    <t>141070117</t>
   </si>
   <si>
     <t>112360011</t>
   </si>
   <si>
-    <t>183260385</t>
-  </si>
-  <si>
-    <t>102980199</t>
-  </si>
-  <si>
-    <t>102980023</t>
-  </si>
-  <si>
-    <t>103920197</t>
-  </si>
-  <si>
-    <t>183260316</t>
-  </si>
-  <si>
-    <t>102980249</t>
-  </si>
-  <si>
-    <t>102980560</t>
-  </si>
-  <si>
-    <t>102980431</t>
+    <t>109170093</t>
+  </si>
+  <si>
+    <t>103700463</t>
+  </si>
+  <si>
+    <t>154230227</t>
+  </si>
+  <si>
+    <t>103920065</t>
+  </si>
+  <si>
+    <t>109740091</t>
+  </si>
+  <si>
+    <t>105730581</t>
+  </si>
+  <si>
+    <t>167730588</t>
+  </si>
+  <si>
+    <t>105830989</t>
+  </si>
+  <si>
+    <t>100890202</t>
+  </si>
+  <si>
+    <t>144930068</t>
+  </si>
+  <si>
+    <t>154230049</t>
+  </si>
+  <si>
+    <t>141070627</t>
+  </si>
+  <si>
+    <t>105830876</t>
+  </si>
+  <si>
+    <t>154230040</t>
+  </si>
+  <si>
+    <t>103920109</t>
+  </si>
+  <si>
+    <t>102350564</t>
+  </si>
+  <si>
+    <t>105710086</t>
+  </si>
+  <si>
+    <t>109170016</t>
+  </si>
+  <si>
+    <t>109740334</t>
+  </si>
+  <si>
+    <t>155840097</t>
+  </si>
+  <si>
+    <t>167730181</t>
+  </si>
+  <si>
+    <t>105710019</t>
+  </si>
+  <si>
+    <t>103700443</t>
+  </si>
+  <si>
+    <t>115600240</t>
+  </si>
+  <si>
+    <t>123520191</t>
+  </si>
+  <si>
+    <t>154230328</t>
+  </si>
+  <si>
+    <t>154230050</t>
+  </si>
+  <si>
+    <t>105710133</t>
+  </si>
+  <si>
+    <t>105350217</t>
+  </si>
+  <si>
+    <t>126750238</t>
+  </si>
+  <si>
+    <t>101000668</t>
+  </si>
+  <si>
+    <t>101000064</t>
+  </si>
+  <si>
+    <t>141070108</t>
+  </si>
+  <si>
+    <t>126750311</t>
+  </si>
+  <si>
+    <t>100681124</t>
+  </si>
+  <si>
+    <t>147610023</t>
+  </si>
+  <si>
+    <t>102351048</t>
+  </si>
+  <si>
+    <t>103920169</t>
+  </si>
+  <si>
+    <t>117170009</t>
+  </si>
+  <si>
+    <t>104971323</t>
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Pendente</t>
   </si>
 </sst>
 </file>
@@ -509,7 +1229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,276 +1263,2416 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
         <v>28</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" t="s">
+        <v>203</v>
+      </c>
+      <c r="F27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
         <v>29</v>
       </c>
-      <c r="E15" t="s">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" t="s">
+        <v>206</v>
+      </c>
+      <c r="F33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" t="s">
+        <v>208</v>
+      </c>
+      <c r="F35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" t="s">
+        <v>209</v>
+      </c>
+      <c r="F38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" t="s">
+        <v>210</v>
+      </c>
+      <c r="F39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" t="s">
+        <v>211</v>
+      </c>
+      <c r="F40" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F41" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
         <v>44</v>
       </c>
-      <c r="F15" t="s">
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" t="s">
+        <v>214</v>
+      </c>
+      <c r="F43" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" t="s">
+        <v>215</v>
+      </c>
+      <c r="F44" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" t="s">
+        <v>215</v>
+      </c>
+      <c r="F46" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" t="s">
+        <v>216</v>
+      </c>
+      <c r="F47" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" t="s">
+        <v>219</v>
+      </c>
+      <c r="F50" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" t="s">
+        <v>220</v>
+      </c>
+      <c r="F51" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" t="s">
+        <v>221</v>
+      </c>
+      <c r="F52" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" t="s">
+        <v>221</v>
+      </c>
+      <c r="F53" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" t="s">
+        <v>222</v>
+      </c>
+      <c r="F54" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F55" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
         <v>45</v>
+      </c>
+      <c r="C56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" t="s">
+        <v>224</v>
+      </c>
+      <c r="F56" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" t="s">
+        <v>225</v>
+      </c>
+      <c r="F57" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" t="s">
+        <v>226</v>
+      </c>
+      <c r="F58" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" t="s">
+        <v>227</v>
+      </c>
+      <c r="F59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" t="s">
+        <v>228</v>
+      </c>
+      <c r="F60" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" t="s">
+        <v>229</v>
+      </c>
+      <c r="F61" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" t="s">
+        <v>159</v>
+      </c>
+      <c r="E62" t="s">
+        <v>230</v>
+      </c>
+      <c r="F62" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63" t="s">
+        <v>230</v>
+      </c>
+      <c r="F63" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" t="s">
+        <v>161</v>
+      </c>
+      <c r="E64" t="s">
+        <v>231</v>
+      </c>
+      <c r="F64" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" t="s">
+        <v>153</v>
+      </c>
+      <c r="E65" t="s">
+        <v>232</v>
+      </c>
+      <c r="F65" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" t="s">
+        <v>154</v>
+      </c>
+      <c r="E66" t="s">
+        <v>233</v>
+      </c>
+      <c r="F66" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" t="s">
+        <v>171</v>
+      </c>
+      <c r="E67" t="s">
+        <v>234</v>
+      </c>
+      <c r="F67" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68" t="s">
+        <v>171</v>
+      </c>
+      <c r="E68" t="s">
+        <v>235</v>
+      </c>
+      <c r="F68" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69" t="s">
+        <v>236</v>
+      </c>
+      <c r="F69" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70" t="s">
+        <v>237</v>
+      </c>
+      <c r="F70" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" t="s">
+        <v>172</v>
+      </c>
+      <c r="E71" t="s">
+        <v>238</v>
+      </c>
+      <c r="F71" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" t="s">
+        <v>131</v>
+      </c>
+      <c r="D72" t="s">
+        <v>173</v>
+      </c>
+      <c r="E72" t="s">
+        <v>239</v>
+      </c>
+      <c r="F72" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" t="s">
+        <v>240</v>
+      </c>
+      <c r="F73" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" t="s">
+        <v>172</v>
+      </c>
+      <c r="E74" t="s">
+        <v>241</v>
+      </c>
+      <c r="F74" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" t="s">
+        <v>160</v>
+      </c>
+      <c r="E75" t="s">
+        <v>242</v>
+      </c>
+      <c r="F75" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" t="s">
+        <v>242</v>
+      </c>
+      <c r="F76" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>83</v>
+      </c>
+      <c r="B77" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77" t="s">
+        <v>155</v>
+      </c>
+      <c r="E77" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" t="s">
+        <v>243</v>
+      </c>
+      <c r="F78" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79" t="s">
+        <v>172</v>
+      </c>
+      <c r="E79" t="s">
+        <v>244</v>
+      </c>
+      <c r="F79" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>87</v>
+      </c>
+      <c r="B80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" t="s">
+        <v>171</v>
+      </c>
+      <c r="E80" t="s">
+        <v>245</v>
+      </c>
+      <c r="F80" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81" t="s">
+        <v>153</v>
+      </c>
+      <c r="E81" t="s">
+        <v>246</v>
+      </c>
+      <c r="F81" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" t="s">
+        <v>137</v>
+      </c>
+      <c r="D82" t="s">
+        <v>159</v>
+      </c>
+      <c r="E82" t="s">
+        <v>247</v>
+      </c>
+      <c r="F82" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>90</v>
+      </c>
+      <c r="B83" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" t="s">
+        <v>129</v>
+      </c>
+      <c r="D83" t="s">
+        <v>154</v>
+      </c>
+      <c r="E83" t="s">
+        <v>248</v>
+      </c>
+      <c r="F83" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" t="s">
+        <v>132</v>
+      </c>
+      <c r="D84" t="s">
+        <v>173</v>
+      </c>
+      <c r="E84" t="s">
+        <v>249</v>
+      </c>
+      <c r="F84" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>92</v>
+      </c>
+      <c r="B85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" t="s">
+        <v>120</v>
+      </c>
+      <c r="D85" t="s">
+        <v>174</v>
+      </c>
+      <c r="E85" t="s">
+        <v>250</v>
+      </c>
+      <c r="F85" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" t="s">
+        <v>138</v>
+      </c>
+      <c r="D86" t="s">
+        <v>163</v>
+      </c>
+      <c r="E86" t="s">
+        <v>251</v>
+      </c>
+      <c r="F86" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87" t="s">
+        <v>175</v>
+      </c>
+      <c r="E87" t="s">
+        <v>252</v>
+      </c>
+      <c r="F87" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" t="s">
+        <v>140</v>
+      </c>
+      <c r="D88" t="s">
+        <v>175</v>
+      </c>
+      <c r="E88" t="s">
+        <v>252</v>
+      </c>
+      <c r="F88" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89" t="s">
+        <v>175</v>
+      </c>
+      <c r="E89" t="s">
+        <v>252</v>
+      </c>
+      <c r="F89" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90" t="s">
+        <v>170</v>
+      </c>
+      <c r="E90" t="s">
+        <v>253</v>
+      </c>
+      <c r="F90" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>100</v>
+      </c>
+      <c r="B91" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91" t="s">
+        <v>153</v>
+      </c>
+      <c r="E91" t="s">
+        <v>254</v>
+      </c>
+      <c r="F91" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>101</v>
+      </c>
+      <c r="B92" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" t="s">
+        <v>160</v>
+      </c>
+      <c r="E92" t="s">
+        <v>255</v>
+      </c>
+      <c r="F92" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>102</v>
+      </c>
+      <c r="B93" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" t="s">
+        <v>117</v>
+      </c>
+      <c r="D93" t="s">
+        <v>163</v>
+      </c>
+      <c r="E93" t="s">
+        <v>256</v>
+      </c>
+      <c r="F93" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>103</v>
+      </c>
+      <c r="B94" t="s">
+        <v>73</v>
+      </c>
+      <c r="C94" t="s">
+        <v>142</v>
+      </c>
+      <c r="D94" t="s">
+        <v>153</v>
+      </c>
+      <c r="E94" t="s">
+        <v>257</v>
+      </c>
+      <c r="F94" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>104</v>
+      </c>
+      <c r="B95" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" t="s">
+        <v>159</v>
+      </c>
+      <c r="E95" t="s">
+        <v>258</v>
+      </c>
+      <c r="F95" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>105</v>
+      </c>
+      <c r="B96" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" t="s">
+        <v>151</v>
+      </c>
+      <c r="E96" t="s">
+        <v>259</v>
+      </c>
+      <c r="F96" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>106</v>
+      </c>
+      <c r="B97" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" t="s">
+        <v>105</v>
+      </c>
+      <c r="D97" t="s">
+        <v>161</v>
+      </c>
+      <c r="E97" t="s">
+        <v>260</v>
+      </c>
+      <c r="F97" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>107</v>
+      </c>
+      <c r="B98" t="s">
+        <v>75</v>
+      </c>
+      <c r="C98" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" t="s">
+        <v>172</v>
+      </c>
+      <c r="E98" t="s">
+        <v>261</v>
+      </c>
+      <c r="F98" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>108</v>
+      </c>
+      <c r="B99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" t="s">
+        <v>139</v>
+      </c>
+      <c r="D99" t="s">
+        <v>154</v>
+      </c>
+      <c r="E99" t="s">
+        <v>262</v>
+      </c>
+      <c r="F99" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>110</v>
+      </c>
+      <c r="B100" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" t="s">
+        <v>144</v>
+      </c>
+      <c r="D100" t="s">
+        <v>154</v>
+      </c>
+      <c r="E100" t="s">
+        <v>262</v>
+      </c>
+      <c r="F100" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>111</v>
+      </c>
+      <c r="B101" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" t="s">
+        <v>143</v>
+      </c>
+      <c r="D101" t="s">
+        <v>158</v>
+      </c>
+      <c r="E101" t="s">
+        <v>263</v>
+      </c>
+      <c r="F101" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>112</v>
+      </c>
+      <c r="B102" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102" t="s">
+        <v>99</v>
+      </c>
+      <c r="D102" t="s">
+        <v>176</v>
+      </c>
+      <c r="E102" t="s">
+        <v>264</v>
+      </c>
+      <c r="F102" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>113</v>
+      </c>
+      <c r="B103" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103" t="s">
+        <v>129</v>
+      </c>
+      <c r="D103" t="s">
+        <v>161</v>
+      </c>
+      <c r="E103" t="s">
+        <v>265</v>
+      </c>
+      <c r="F103" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>115</v>
+      </c>
+      <c r="B104" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104" t="s">
+        <v>94</v>
+      </c>
+      <c r="D104" t="s">
+        <v>171</v>
+      </c>
+      <c r="E104" t="s">
+        <v>266</v>
+      </c>
+      <c r="F104" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>116</v>
+      </c>
+      <c r="B105" t="s">
+        <v>80</v>
+      </c>
+      <c r="C105" t="s">
+        <v>102</v>
+      </c>
+      <c r="D105" t="s">
+        <v>177</v>
+      </c>
+      <c r="E105" t="s">
+        <v>267</v>
+      </c>
+      <c r="F105" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>117</v>
+      </c>
+      <c r="B106" t="s">
+        <v>81</v>
+      </c>
+      <c r="C106" t="s">
+        <v>108</v>
+      </c>
+      <c r="D106" t="s">
+        <v>178</v>
+      </c>
+      <c r="E106" t="s">
+        <v>268</v>
+      </c>
+      <c r="F106" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>118</v>
+      </c>
+      <c r="B107" t="s">
+        <v>81</v>
+      </c>
+      <c r="C107" t="s">
+        <v>144</v>
+      </c>
+      <c r="D107" t="s">
+        <v>178</v>
+      </c>
+      <c r="E107" t="s">
+        <v>268</v>
+      </c>
+      <c r="F107" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>119</v>
+      </c>
+      <c r="B108" t="s">
+        <v>82</v>
+      </c>
+      <c r="C108" t="s">
+        <v>145</v>
+      </c>
+      <c r="D108" t="s">
+        <v>153</v>
+      </c>
+      <c r="E108" t="s">
+        <v>269</v>
+      </c>
+      <c r="F108" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>120</v>
+      </c>
+      <c r="B109" t="s">
+        <v>83</v>
+      </c>
+      <c r="C109" t="s">
+        <v>146</v>
+      </c>
+      <c r="D109" t="s">
+        <v>153</v>
+      </c>
+      <c r="E109" t="s">
+        <v>270</v>
+      </c>
+      <c r="F109" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>121</v>
+      </c>
+      <c r="B110" t="s">
+        <v>83</v>
+      </c>
+      <c r="C110" t="s">
+        <v>97</v>
+      </c>
+      <c r="D110" t="s">
+        <v>161</v>
+      </c>
+      <c r="E110" t="s">
+        <v>271</v>
+      </c>
+      <c r="F110" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>122</v>
+      </c>
+      <c r="B111" t="s">
+        <v>84</v>
+      </c>
+      <c r="C111" t="s">
+        <v>129</v>
+      </c>
+      <c r="D111" t="s">
+        <v>179</v>
+      </c>
+      <c r="E111" t="s">
+        <v>272</v>
+      </c>
+      <c r="F111" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>123</v>
+      </c>
+      <c r="B112" t="s">
+        <v>84</v>
+      </c>
+      <c r="C112" t="s">
+        <v>112</v>
+      </c>
+      <c r="D112" t="s">
+        <v>164</v>
+      </c>
+      <c r="E112" t="s">
+        <v>273</v>
+      </c>
+      <c r="F112" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>124</v>
+      </c>
+      <c r="B113" t="s">
+        <v>85</v>
+      </c>
+      <c r="C113" t="s">
+        <v>108</v>
+      </c>
+      <c r="D113" t="s">
+        <v>180</v>
+      </c>
+      <c r="E113" t="s">
+        <v>274</v>
+      </c>
+      <c r="F113" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>125</v>
+      </c>
+      <c r="B114" t="s">
+        <v>86</v>
+      </c>
+      <c r="C114" t="s">
+        <v>119</v>
+      </c>
+      <c r="D114" t="s">
+        <v>180</v>
+      </c>
+      <c r="E114" t="s">
+        <v>275</v>
+      </c>
+      <c r="F114" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>127</v>
+      </c>
+      <c r="B115" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" t="s">
+        <v>135</v>
+      </c>
+      <c r="D115" t="s">
+        <v>160</v>
+      </c>
+      <c r="E115" t="s">
+        <v>276</v>
+      </c>
+      <c r="F115" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>128</v>
+      </c>
+      <c r="B116" t="s">
+        <v>87</v>
+      </c>
+      <c r="C116" t="s">
+        <v>129</v>
+      </c>
+      <c r="D116" t="s">
+        <v>164</v>
+      </c>
+      <c r="E116" t="s">
+        <v>277</v>
+      </c>
+      <c r="F116" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>129</v>
+      </c>
+      <c r="B117" t="s">
+        <v>87</v>
+      </c>
+      <c r="C117" t="s">
+        <v>132</v>
+      </c>
+      <c r="D117" t="s">
+        <v>162</v>
+      </c>
+      <c r="E117" t="s">
+        <v>278</v>
+      </c>
+      <c r="F117" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>130</v>
+      </c>
+      <c r="B118" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118" t="s">
+        <v>105</v>
+      </c>
+      <c r="D118" t="s">
+        <v>165</v>
+      </c>
+      <c r="E118" t="s">
+        <v>279</v>
+      </c>
+      <c r="F118" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>131</v>
+      </c>
+      <c r="B119" t="s">
+        <v>89</v>
+      </c>
+      <c r="C119" t="s">
+        <v>147</v>
+      </c>
+      <c r="D119" t="s">
+        <v>151</v>
+      </c>
+      <c r="E119" t="s">
+        <v>280</v>
+      </c>
+      <c r="F119" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>132</v>
+      </c>
+      <c r="B120" t="s">
+        <v>89</v>
+      </c>
+      <c r="C120" t="s">
+        <v>148</v>
+      </c>
+      <c r="D120" t="s">
+        <v>159</v>
+      </c>
+      <c r="E120" t="s">
+        <v>281</v>
+      </c>
+      <c r="F120" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>134</v>
+      </c>
+      <c r="B121" t="s">
+        <v>90</v>
+      </c>
+      <c r="C121" t="s">
+        <v>149</v>
+      </c>
+      <c r="D121" t="s">
+        <v>181</v>
+      </c>
+      <c r="E121" t="s">
+        <v>282</v>
+      </c>
+      <c r="F121" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>138</v>
+      </c>
+      <c r="B122" t="s">
+        <v>91</v>
+      </c>
+      <c r="C122" t="s">
+        <v>112</v>
+      </c>
+      <c r="D122" t="s">
+        <v>182</v>
+      </c>
+      <c r="E122" t="s">
+        <v>283</v>
+      </c>
+      <c r="F122" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="297">
   <si>
     <t>Item</t>
   </si>
@@ -91,6 +91,9 @@
     <t>CARBAMAZEPINA</t>
   </si>
   <si>
+    <t>CARBONATO DE CÁLCIO</t>
+  </si>
+  <si>
     <t>CARBONATO DE LÍTIO</t>
   </si>
   <si>
@@ -202,6 +205,9 @@
     <t>GLICLAZIDA</t>
   </si>
   <si>
+    <t>GLICOSE</t>
+  </si>
+  <si>
     <t>HALOPERIDOL</t>
   </si>
   <si>
@@ -253,6 +259,9 @@
     <t>MICONAZOL</t>
   </si>
   <si>
+    <t>NITRATO DE MICONAZOL</t>
+  </si>
+  <si>
     <t>NITROFURANTOÍNA</t>
   </si>
   <si>
@@ -289,6 +298,12 @@
     <t>SULFATO DE SALBUTAMOL</t>
   </si>
   <si>
+    <t>SULFATO FERROSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA PARA TESTES DE GLICEMIA COMPATIVEL PARA O APARELHO ACCU-CHEK ACTIVE </t>
+  </si>
+  <si>
     <t>VARFARINA SÓDICA</t>
   </si>
   <si>
@@ -421,6 +436,9 @@
     <t>60mg</t>
   </si>
   <si>
+    <t>Concentração não encontrada</t>
+  </si>
+  <si>
     <t>10mg</t>
   </si>
   <si>
@@ -466,6 +484,9 @@
     <t>100mcg</t>
   </si>
   <si>
+    <t>125 mg/ml</t>
+  </si>
+  <si>
     <t>LABORATÓRIOS OSÓRIO DE MORAES LTDA</t>
   </si>
   <si>
@@ -508,6 +529,9 @@
     <t>GERMED FARMACEUTICA LTDA</t>
   </si>
   <si>
+    <t>Nutivit/Imec</t>
+  </si>
+  <si>
     <t>NOVA QUIMICA FARMACÊUTICA S/A</t>
   </si>
   <si>
@@ -538,6 +562,9 @@
     <t>ACHÉ LABORATÓRIOS FARMACÊUTICOS S.A</t>
   </si>
   <si>
+    <t>On Call Plus</t>
+  </si>
+  <si>
     <t>LEGRAND PHARMA INDÚSTRIA FARMACÊUTICA LTDA</t>
   </si>
   <si>
@@ -562,6 +589,9 @@
     <t>PHARMASCIENCE INDUSTRIA FARMACEUTICA S.A</t>
   </si>
   <si>
+    <t>Arte Nativa</t>
+  </si>
+  <si>
     <t>UNIÃO QUÍMICA FARMACÊUTICA NACIONAL S/A</t>
   </si>
   <si>
@@ -620,6 +650,9 @@
   </si>
   <si>
     <t>105830847</t>
+  </si>
+  <si>
+    <t>Não encontrado</t>
   </si>
   <si>
     <t>109740309</t>
@@ -1229,7 +1262,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1263,16 +1296,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1283,16 +1316,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1303,16 +1336,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1323,16 +1356,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1343,16 +1376,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1363,16 +1396,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1383,16 +1416,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="F8" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1403,16 +1436,16 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="F9" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1423,16 +1456,16 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F10" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1443,16 +1476,16 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1463,16 +1496,16 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1483,16 +1516,16 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E13" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F13" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1503,16 +1536,16 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E14" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F14" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1523,16 +1556,16 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F15" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1543,16 +1576,16 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F16" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1563,16 +1596,16 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E17" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F17" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1583,16 +1616,16 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E18" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F18" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1603,16 +1636,16 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F19" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1623,16 +1656,16 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E20" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F20" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1643,16 +1676,16 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F21" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1663,16 +1696,16 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E22" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F22" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1683,16 +1716,16 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E23" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="F23" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1703,16 +1736,16 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E24" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F24" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1723,1956 +1756,2056 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E25" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F25" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="E26" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F26" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E27" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F27" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E28" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F28" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F29" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>108</v>
       </c>
       <c r="D30" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E30" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F30" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F31" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F32" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F33" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E34" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F34" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="E35" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F35" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E36" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F36" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E37" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F37" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E38" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F38" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="E39" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F39" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
         <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E40" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F40" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="E41" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="F41" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F42" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
         <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F43" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
         <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D44" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F44" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E45" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="F45" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E46" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="F46" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
         <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D47" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E47" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F47" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
         <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D48" t="s">
         <v>169</v>
       </c>
       <c r="E48" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F48" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
         <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="E49" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="F49" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
         <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E50" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F50" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
         <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E51" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F51" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
         <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E52" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F52" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E53" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="F53" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
         <v>44</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="D54" t="s">
         <v>160</v>
       </c>
       <c r="E54" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="F54" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E55" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="F55" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
         <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D56" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E56" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F56" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
         <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="E57" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F57" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
         <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E58" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F58" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E59" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="F59" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
         <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D60" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="E60" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="F60" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
         <v>49</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D61" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E61" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="F61" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
         <v>50</v>
       </c>
       <c r="C62" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E62" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F62" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="D63" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E63" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="F63" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E64" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F64" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
         <v>51</v>
       </c>
       <c r="C65" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D65" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="E65" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F65" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
         <v>52</v>
       </c>
       <c r="C66" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="D66" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E66" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F66" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
         <v>53</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D67" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E67" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F67" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
         <v>54</v>
       </c>
       <c r="C68" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D68" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E68" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F68" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
         <v>55</v>
       </c>
       <c r="C69" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D69" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E69" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="F69" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
         <v>56</v>
       </c>
       <c r="C70" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D70" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="E70" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F70" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
         <v>57</v>
       </c>
       <c r="C71" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D71" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E71" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F71" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
         <v>58</v>
       </c>
       <c r="C72" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D72" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E72" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="F72" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
         <v>59</v>
       </c>
       <c r="C73" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D73" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E73" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="F73" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" t="s">
         <v>60</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="D74" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E74" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F74" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
         <v>61</v>
       </c>
       <c r="C75" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D75" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E75" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F75" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D76" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E76" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="F76" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B77" t="s">
         <v>62</v>
       </c>
       <c r="C77" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="D77" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E77" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="F77" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D78" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="E78" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="F78" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C79" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D79" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E79" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F79" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B80" t="s">
         <v>64</v>
       </c>
       <c r="C80" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D80" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E80" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="F80" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B81" t="s">
         <v>65</v>
       </c>
       <c r="C81" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="D81" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="E81" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F81" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C82" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D82" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="E82" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="F82" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C83" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D83" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E83" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F83" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C84" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D84" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E84" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F84" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C85" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D85" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E85" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F85" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B86" t="s">
         <v>68</v>
       </c>
       <c r="C86" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D86" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="E86" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F86" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B87" t="s">
         <v>69</v>
       </c>
       <c r="C87" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D87" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E87" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="F87" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D88" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E88" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="F88" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C89" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D89" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E89" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="F89" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C90" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D90" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="E90" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="F90" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C91" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D91" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="E91" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="F91" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C92" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="D92" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E92" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="F92" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B93" t="s">
         <v>72</v>
       </c>
       <c r="C93" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="D93" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E93" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F93" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B94" t="s">
         <v>73</v>
       </c>
       <c r="C94" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="D94" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E94" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="F94" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C95" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="D95" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E95" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="F95" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C96" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D96" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E96" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="F96" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B97" t="s">
         <v>75</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D97" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E97" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="F97" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C98" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="D98" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E98" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="F98" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C99" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="D99" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="E99" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="F99" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C100" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D100" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="E100" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F100" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C101" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D101" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E101" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F101" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C102" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="D102" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E102" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="F102" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C103" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D103" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E103" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F103" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B104" t="s">
         <v>79</v>
       </c>
       <c r="C104" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D104" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="E104" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="F104" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B105" t="s">
         <v>80</v>
       </c>
       <c r="C105" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D105" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E105" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="F105" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B106" t="s">
         <v>81</v>
       </c>
       <c r="C106" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D106" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E106" t="s">
-        <v>268</v>
+        <v>212</v>
       </c>
       <c r="F106" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C107" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="D107" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E107" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="F107" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C108" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="D108" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="E108" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F108" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C109" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="D109" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="E109" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="F109" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C110" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="D110" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="E110" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F110" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C111" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D111" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="E111" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="F111" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C112" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="D112" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E112" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F112" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C113" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D113" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E113" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="F113" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C114" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D114" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E114" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F114" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B115" t="s">
         <v>87</v>
       </c>
       <c r="C115" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D115" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="E115" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="F115" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C116" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D116" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="E116" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F116" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C117" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D117" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="E117" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F117" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B118" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C118" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="D118" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E118" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F118" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B119" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C119" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D119" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E119" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="F119" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C120" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D120" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E120" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="F120" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B121" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C121" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="D121" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E121" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="F121" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
+        <v>131</v>
+      </c>
+      <c r="B122" t="s">
+        <v>92</v>
+      </c>
+      <c r="C122" t="s">
+        <v>153</v>
+      </c>
+      <c r="D122" t="s">
+        <v>158</v>
+      </c>
+      <c r="E122" t="s">
+        <v>291</v>
+      </c>
+      <c r="F122" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>132</v>
+      </c>
+      <c r="B123" t="s">
+        <v>92</v>
+      </c>
+      <c r="C123" t="s">
+        <v>154</v>
+      </c>
+      <c r="D123" t="s">
+        <v>166</v>
+      </c>
+      <c r="E123" t="s">
+        <v>292</v>
+      </c>
+      <c r="F123" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>134</v>
+      </c>
+      <c r="B124" t="s">
+        <v>93</v>
+      </c>
+      <c r="C124" t="s">
+        <v>155</v>
+      </c>
+      <c r="D124" t="s">
+        <v>190</v>
+      </c>
+      <c r="E124" t="s">
+        <v>293</v>
+      </c>
+      <c r="F124" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>135</v>
+      </c>
+      <c r="B125" t="s">
+        <v>94</v>
+      </c>
+      <c r="C125" t="s">
+        <v>156</v>
+      </c>
+      <c r="D125" t="s">
+        <v>191</v>
+      </c>
+      <c r="E125" t="s">
+        <v>212</v>
+      </c>
+      <c r="F125" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>137</v>
+      </c>
+      <c r="B126" t="s">
+        <v>95</v>
+      </c>
+      <c r="C126" t="s">
+        <v>140</v>
+      </c>
+      <c r="D126" t="s">
+        <v>182</v>
+      </c>
+      <c r="E126" t="s">
+        <v>212</v>
+      </c>
+      <c r="F126" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
         <v>138</v>
       </c>
-      <c r="B122" t="s">
-        <v>91</v>
-      </c>
-      <c r="C122" t="s">
-        <v>112</v>
-      </c>
-      <c r="D122" t="s">
-        <v>182</v>
-      </c>
-      <c r="E122" t="s">
-        <v>283</v>
-      </c>
-      <c r="F122" t="s">
-        <v>284</v>
+      <c r="B127" t="s">
+        <v>96</v>
+      </c>
+      <c r="C127" t="s">
+        <v>117</v>
+      </c>
+      <c r="D127" t="s">
+        <v>192</v>
+      </c>
+      <c r="E127" t="s">
+        <v>294</v>
+      </c>
+      <c r="F127" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Item</t>
   </si>
@@ -55,10 +55,13 @@
     <t>104910019</t>
   </si>
   <si>
-    <t>104910020</t>
+    <t>Não encontrado</t>
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Pendente</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="149">
   <si>
     <t>Item</t>
   </si>
@@ -34,28 +34,427 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>CLORETO DE SÓDIO;GLICOSE</t>
-  </si>
-  <si>
-    <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-  </si>
-  <si>
-    <t>1000ml</t>
-  </si>
-  <si>
-    <t>250ml</t>
+    <t>MICONAZOL</t>
+  </si>
+  <si>
+    <t>BACITRACINA;NEOMICINA</t>
+  </si>
+  <si>
+    <t>NIFEDIPINO</t>
+  </si>
+  <si>
+    <t>NIMESULIDA</t>
+  </si>
+  <si>
+    <t>NISTATINA</t>
+  </si>
+  <si>
+    <t>NITROPRUSSETO DE SÓDIO</t>
+  </si>
+  <si>
+    <t>EPINEFRINA</t>
+  </si>
+  <si>
+    <t>tipo;oleo</t>
+  </si>
+  <si>
+    <t>OMEPRAZOL</t>
+  </si>
+  <si>
+    <t>ONDANSETRONA</t>
+  </si>
+  <si>
+    <t>PARACETAMOL</t>
+  </si>
+  <si>
+    <t>PERÓXIDO DE BENZOÍLA</t>
+  </si>
+  <si>
+    <t>PIPERACILINA SÓDICA;PIPERACILINA;TAZOBACTAM</t>
+  </si>
+  <si>
+    <t>LIDOCAÍNA;NEOMICINA</t>
+  </si>
+  <si>
+    <t>PREDNISOLONA</t>
+  </si>
+  <si>
+    <t>PREDNISONA</t>
+  </si>
+  <si>
+    <t>PROMETAZINA</t>
+  </si>
+  <si>
+    <t>cloridrato;propafenona</t>
+  </si>
+  <si>
+    <t>cloridrato;propranolol</t>
+  </si>
+  <si>
+    <t>SALBUTAMOL</t>
+  </si>
+  <si>
+    <t>SIMETICONA</t>
+  </si>
+  <si>
+    <t>SINVASTATINA</t>
+  </si>
+  <si>
+    <t>SULFAMETOXAZOL;TRIMETOPRIMA</t>
+  </si>
+  <si>
+    <t>SULFATO FERROSO</t>
+  </si>
+  <si>
+    <t>TIMOL</t>
+  </si>
+  <si>
+    <t>cloridrato;tramadol</t>
+  </si>
+  <si>
+    <t>forma;cloridrato;tramadol</t>
+  </si>
+  <si>
+    <t>forma;cloridrato;amitriptilina</t>
+  </si>
+  <si>
+    <t>CARVEDILOL</t>
+  </si>
+  <si>
+    <t>DIAZEPAM</t>
+  </si>
+  <si>
+    <t>cloridrato;nortriptilina</t>
+  </si>
+  <si>
+    <t>RIVAROXABANA</t>
+  </si>
+  <si>
+    <t>ACICLOVIR</t>
+  </si>
+  <si>
+    <t>CLORETO DE SÓDIO</t>
+  </si>
+  <si>
+    <t>80 g</t>
+  </si>
+  <si>
+    <t>250 mg</t>
+  </si>
+  <si>
+    <t>20 mg</t>
+  </si>
+  <si>
+    <t>100 mg</t>
+  </si>
+  <si>
+    <t>000 ui/ml</t>
+  </si>
+  <si>
+    <t>000 ui</t>
+  </si>
+  <si>
+    <t>25 mg/ml</t>
+  </si>
+  <si>
+    <t>2 mg/ml</t>
+  </si>
+  <si>
+    <t>100 ml</t>
+  </si>
+  <si>
+    <t>4 mg</t>
+  </si>
+  <si>
+    <t>200 mg/ml</t>
+  </si>
+  <si>
+    <t>500 mg</t>
+  </si>
+  <si>
+    <t>20 g</t>
+  </si>
+  <si>
+    <t>4g</t>
+  </si>
+  <si>
+    <t>10ml</t>
+  </si>
+  <si>
+    <t>3 mg/ml</t>
+  </si>
+  <si>
+    <t>25 mg</t>
+  </si>
+  <si>
+    <t>300mg</t>
+  </si>
+  <si>
+    <t>40 mg</t>
+  </si>
+  <si>
+    <t>100 mcg</t>
+  </si>
+  <si>
+    <t>75 mg/ml</t>
+  </si>
+  <si>
+    <t>8 mg/ml</t>
+  </si>
+  <si>
+    <t>80 mg</t>
+  </si>
+  <si>
+    <t>40mg</t>
+  </si>
+  <si>
+    <t>5 ml</t>
+  </si>
+  <si>
+    <t>50 mg/ml</t>
+  </si>
+  <si>
+    <t>75mg</t>
+  </si>
+  <si>
+    <t>25mg</t>
+  </si>
+  <si>
+    <t>5 mg</t>
+  </si>
+  <si>
+    <t>8 mg</t>
+  </si>
+  <si>
+    <t>10mg</t>
+  </si>
+  <si>
+    <t>400mg</t>
+  </si>
+  <si>
+    <t>100ml</t>
   </si>
   <si>
     <t>500ml</t>
   </si>
   <si>
+    <t>BELFAR LTDA</t>
+  </si>
+  <si>
+    <t>LEGRAND PHARMA INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>BRAINFARMA INDÚSTRIA QUÍMICA E FARMACÊUTICA S.A</t>
+  </si>
+  <si>
+    <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>NATULAB LABORATÓRIO S.A</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO NEO QUÍMICA COMÉRCIO E INDÚSTRIA LTDA</t>
+  </si>
+  <si>
+    <t>HYPOFARMA - INSTITUTO DE HYPODERMIA E FARMÁCIA LTDA</t>
+  </si>
+  <si>
+    <t>FRESENIUS KABI BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>NATIVITA IND. COM. LTDA</t>
+  </si>
+  <si>
+    <t>GEOLAB INDÚSTRIA FARMACÊUTICA S/A</t>
+  </si>
+  <si>
+    <t>PHARLAB INDÚSTRIA FARMACÊUTICA S.A.</t>
+  </si>
+  <si>
+    <t>GREENPHARMA QUÍMICA E FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>BRASTERAPICA INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>MYLAN LABORATORIOS LTDA</t>
+  </si>
+  <si>
+    <t>ACHÉ LABORATÓRIOS FARMACÊUTICOS S.A</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO GLOBO SA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO TEUTO BRASILEIRO S/A</t>
+  </si>
+  <si>
+    <t>EUROFARMA LABORATÓRIOS S.A.</t>
+  </si>
+  <si>
+    <t>LABORATÓRIOS OSÓRIO DE MORAES LTDA</t>
+  </si>
+  <si>
+    <t>MULTILAB INDÚSTRIA E COMÉRCIO DE PRODUTOS FARMACÊUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>NOVA QUIMICA FARMACÊUTICA S/A</t>
+  </si>
+  <si>
+    <t>SANDOZ DO BRASIL INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>EMS SIGMA PHARMA LTDA</t>
+  </si>
+  <si>
+    <t>PHARMASCIENCE INDUSTRIA FARMACEUTICA S.A</t>
+  </si>
+  <si>
+    <t>GERMED FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>BIOLAB SANUS FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>RANBAXY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
     <t>JP INDUSTRIA FARMACEUTICA S/A</t>
   </si>
   <si>
-    <t>104910019</t>
+    <t>HALEX ISTAR INDÚSTRIA FARMACÊUTICA SA</t>
+  </si>
+  <si>
+    <t>105710019</t>
   </si>
   <si>
     <t>Não encontrado</t>
+  </si>
+  <si>
+    <t>155840169</t>
+  </si>
+  <si>
+    <t>103920174</t>
+  </si>
+  <si>
+    <t>138410028</t>
+  </si>
+  <si>
+    <t>155840547</t>
+  </si>
+  <si>
+    <t>103870012</t>
+  </si>
+  <si>
+    <t>100410226</t>
+  </si>
+  <si>
+    <t>147610011</t>
+  </si>
+  <si>
+    <t>154230328</t>
+  </si>
+  <si>
+    <t>103870058</t>
+  </si>
+  <si>
+    <t>141070644</t>
+  </si>
+  <si>
+    <t>120190106</t>
+  </si>
+  <si>
+    <t>100380110</t>
+  </si>
+  <si>
+    <t>154230164</t>
+  </si>
+  <si>
+    <t>105730560</t>
+  </si>
+  <si>
+    <t>105350217</t>
+  </si>
+  <si>
+    <t>103700321</t>
+  </si>
+  <si>
+    <t>100431138</t>
+  </si>
+  <si>
+    <t>105040033</t>
+  </si>
+  <si>
+    <t>103700096</t>
+  </si>
+  <si>
+    <t>102351372</t>
+  </si>
+  <si>
+    <t>102350716</t>
+  </si>
+  <si>
+    <t>167730170</t>
+  </si>
+  <si>
+    <t>102351374</t>
+  </si>
+  <si>
+    <t>105830994</t>
+  </si>
+  <si>
+    <t>118190226</t>
+  </si>
+  <si>
+    <t>100470270</t>
+  </si>
+  <si>
+    <t>102351048</t>
+  </si>
+  <si>
+    <t>105710130</t>
+  </si>
+  <si>
+    <t>117170015</t>
+  </si>
+  <si>
+    <t>117170067</t>
+  </si>
+  <si>
+    <t>105830993</t>
+  </si>
+  <si>
+    <t>103700503</t>
+  </si>
+  <si>
+    <t>103700339</t>
+  </si>
+  <si>
+    <t>109740322</t>
+  </si>
+  <si>
+    <t>155840121</t>
+  </si>
+  <si>
+    <t>123520191</t>
+  </si>
+  <si>
+    <t>109740194</t>
+  </si>
+  <si>
+    <t>167730603</t>
+  </si>
+  <si>
+    <t>102351322</t>
+  </si>
+  <si>
+    <t>104910018</t>
+  </si>
+  <si>
+    <t>103110159</t>
+  </si>
+  <si>
+    <t>103110011</t>
   </si>
   <si>
     <t>OK</t>
@@ -419,7 +818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +846,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -470,19 +869,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -490,19 +889,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -510,19 +909,919 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>100</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" t="s">
+        <v>141</v>
+      </c>
+      <c r="F45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>104</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>122</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>124</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>124</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="115">
   <si>
     <t>Item</t>
   </si>
@@ -34,79 +34,331 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>ALBENDAZOL</t>
-  </si>
-  <si>
-    <t>AMOXICILINA</t>
-  </si>
-  <si>
-    <t>CLAVULANATO DE POTÁSSIO</t>
-  </si>
-  <si>
-    <t>AZITROMICINA</t>
-  </si>
-  <si>
-    <t>DEXCLORFENIRAMINA</t>
-  </si>
-  <si>
-    <t>mesilato;doxazosina</t>
-  </si>
-  <si>
-    <t>40 mg/ml</t>
-  </si>
-  <si>
-    <t>250mg</t>
-  </si>
-  <si>
-    <t>5 mg/ml</t>
-  </si>
-  <si>
-    <t>125 mg</t>
-  </si>
-  <si>
-    <t>2mg</t>
-  </si>
-  <si>
-    <t>4mg</t>
+    <t>fluido;forma;esteril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRASCO FRACIONADO PARA ADMINISTRAÇÃO DE SOLUÇÃO ENTERAIS, CAPACIDADE DE 500ML. PERMITE TRATAMENTO TÉRMICO (AQUECIMENTO, RESFRIAMENTO) DE SOLUÇÕES, COM DISPOSITIVO PARA FIXAÇÃO EM SUPORTE.( FRASCO PARA ALIMENTAÇÃO 500ML).. </t>
+  </si>
+  <si>
+    <t>fluido;agua</t>
+  </si>
+  <si>
+    <t>INSULINA DEGLUDECA;LIRAGLUTIDA</t>
+  </si>
+  <si>
+    <t>INSULINA ASPARTE</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE METFORMINA</t>
+  </si>
+  <si>
+    <t>CLOZAPINA</t>
+  </si>
+  <si>
+    <t>besilato</t>
+  </si>
+  <si>
+    <t>lisdexanfetamina</t>
+  </si>
+  <si>
+    <t>SULFATO DE NEOMICINA;BACITRACINA;NEOMICINA</t>
+  </si>
+  <si>
+    <t>OXCARBAZEPINA</t>
+  </si>
+  <si>
+    <t>RAMIPRIL</t>
+  </si>
+  <si>
+    <t>BESILATO DE ANLODIPINO;RAMIPRIL</t>
+  </si>
+  <si>
+    <t>BUPRENORFINA</t>
+  </si>
+  <si>
+    <t>HIDROCLOROTIAZIDA;TELMISARTANA</t>
+  </si>
+  <si>
+    <t>HIDROCLOROTIAZIDA;VALSARTANA</t>
+  </si>
+  <si>
+    <t>VALSARTANA;SACUBITRIL</t>
+  </si>
+  <si>
+    <t>BESILATO DE ANLODIPINO;PERINDOPRIL ARGININA</t>
+  </si>
+  <si>
+    <t>ARIPIPRAZOL</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE FEXOFENADINA;PSEUDOEFEDRINA</t>
+  </si>
+  <si>
+    <t>GLICOSE</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE MEMANTINA</t>
+  </si>
+  <si>
+    <t>FENOFIBRATO</t>
+  </si>
+  <si>
+    <t>DICLORIDRATO DE ZUCLOPENTIXOL</t>
+  </si>
+  <si>
+    <t>EMPAGLIFLOZINA</t>
+  </si>
+  <si>
+    <t>BROMOPRIDA</t>
+  </si>
+  <si>
+    <t>CANDESARTANA CILEXETILA;HIDROCLOROTIAZIDA</t>
+  </si>
+  <si>
+    <t>CANDESARTANA CILEXETILA</t>
+  </si>
+  <si>
+    <t>SEMAGLUTIDA</t>
+  </si>
+  <si>
+    <t>Concentração não encontrada</t>
+  </si>
+  <si>
+    <t>500ml</t>
+  </si>
+  <si>
+    <t>6 mg/ml</t>
+  </si>
+  <si>
+    <t>3 ml</t>
+  </si>
+  <si>
+    <t>1g</t>
+  </si>
+  <si>
+    <t>750mg</t>
+  </si>
+  <si>
+    <t>500mg</t>
+  </si>
+  <si>
+    <t>850mg</t>
+  </si>
+  <si>
+    <t>25mg</t>
+  </si>
+  <si>
+    <t>70mg</t>
+  </si>
+  <si>
+    <t>50mg</t>
+  </si>
+  <si>
+    <t>0 mg</t>
+  </si>
+  <si>
+    <t>60 mg/ml</t>
+  </si>
+  <si>
+    <t>10mg</t>
+  </si>
+  <si>
+    <t>5mg</t>
+  </si>
+  <si>
+    <t>80mg</t>
+  </si>
+  <si>
+    <t>00mg</t>
+  </si>
+  <si>
+    <t>320mg</t>
+  </si>
+  <si>
+    <t>200mg</t>
+  </si>
+  <si>
+    <t>100mg</t>
+  </si>
+  <si>
+    <t>14mg</t>
+  </si>
+  <si>
+    <t>7mg</t>
+  </si>
+  <si>
+    <t>1 mg/ml</t>
+  </si>
+  <si>
+    <t>0mg</t>
+  </si>
+  <si>
+    <t>160mg</t>
+  </si>
+  <si>
+    <t>1000mg</t>
+  </si>
+  <si>
+    <t>4mg/ml</t>
+  </si>
+  <si>
+    <t>16mg</t>
+  </si>
+  <si>
+    <t>8mg</t>
+  </si>
+  <si>
+    <t>34 mg/ml</t>
+  </si>
+  <si>
+    <t>markmed</t>
+  </si>
+  <si>
+    <t>biobase</t>
+  </si>
+  <si>
+    <t>descarpack</t>
+  </si>
+  <si>
+    <t>NOVO NORDISK PRODUÇÃO FARMACÊUTICA DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>MERCK S/A</t>
+  </si>
+  <si>
+    <t>viatriz</t>
+  </si>
+  <si>
+    <t>APSEN FARMACEUTICA S/A</t>
+  </si>
+  <si>
+    <t>TAKEDA PHARMA LTDA</t>
+  </si>
+  <si>
+    <t>BELFAR LTDA</t>
+  </si>
+  <si>
+    <t>NOVARTIS BIOCIENCIAS S.A</t>
+  </si>
+  <si>
+    <t>LIBBS FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>MUNDIPHARMA BRASIL PRODUTOS MÉDICOS E FARMACÊUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>BOEHRINGER INGELHEIM DO BRASIL QUÍMICA E FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIOS SERVIER DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>ACHÉ LABORATÓRIOS FARMACÊUTICOS S.A</t>
+  </si>
+  <si>
+    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>PRODUTOS ROCHE QUÍMICOS E FARMACÊUTICOS S.A.</t>
   </si>
   <si>
     <t>GEOLAB INDÚSTRIA FARMACÊUTICA S/A</t>
   </si>
   <si>
-    <t>EUROFARMA LABORATÓRIOS S.A.</t>
-  </si>
-  <si>
-    <t>EMS SIGMA PHARMA LTDA</t>
-  </si>
-  <si>
-    <t>PHARLAB INDÚSTRIA FARMACÊUTICA S.A.</t>
-  </si>
-  <si>
-    <t>154230044</t>
-  </si>
-  <si>
-    <t>Último registro encontrado: 100431426</t>
-  </si>
-  <si>
-    <t>102350528</t>
-  </si>
-  <si>
-    <t>135690713</t>
-  </si>
-  <si>
-    <t>Último registro encontrado: 141070610</t>
-  </si>
-  <si>
-    <t>Último registro encontrado: 154230012</t>
-  </si>
-  <si>
-    <t>100431114</t>
+    <t>ABBOTT LABORATÓRIOS DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>LUNDBECK BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>AIRELA INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>SANDOZ DO BRASIL INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>Não encontrado</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 802123490</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 103306602</t>
+  </si>
+  <si>
+    <t>100890193</t>
+  </si>
+  <si>
+    <t>100890340</t>
+  </si>
+  <si>
+    <t>101180612</t>
+  </si>
+  <si>
+    <t>106390304</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 105710163</t>
+  </si>
+  <si>
+    <t>100680046</t>
+  </si>
+  <si>
+    <t>100330086</t>
+  </si>
+  <si>
+    <t>100330096</t>
+  </si>
+  <si>
+    <t>191980002</t>
+  </si>
+  <si>
+    <t>103670134</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 100470580</t>
+  </si>
+  <si>
+    <t>100681141</t>
+  </si>
+  <si>
+    <t>112780075</t>
+  </si>
+  <si>
+    <t>105730048</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 183260313</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 103870016</t>
+  </si>
+  <si>
+    <t>154230344</t>
+  </si>
+  <si>
+    <t>105530358</t>
+  </si>
+  <si>
+    <t>104750045</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 103670172</t>
+  </si>
+  <si>
+    <t>144930066</t>
+  </si>
+  <si>
+    <t>100330177</t>
+  </si>
+  <si>
+    <t>100470476</t>
+  </si>
+  <si>
+    <t>Pendente</t>
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>Pendente</t>
   </si>
 </sst>
 </file>
@@ -464,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,142 +744,822 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
         <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>61</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="335">
   <si>
     <t>Item</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t>Concentração_Obtida</t>
+    <t>Concentração_Encontrada</t>
   </si>
   <si>
     <t>Laboratório</t>
@@ -34,331 +34,991 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>fluido;forma;esteril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRASCO FRACIONADO PARA ADMINISTRAÇÃO DE SOLUÇÃO ENTERAIS, CAPACIDADE DE 500ML. PERMITE TRATAMENTO TÉRMICO (AQUECIMENTO, RESFRIAMENTO) DE SOLUÇÕES, COM DISPOSITIVO PARA FIXAÇÃO EM SUPORTE.( FRASCO PARA ALIMENTAÇÃO 500ML).. </t>
-  </si>
-  <si>
-    <t>fluido;agua</t>
-  </si>
-  <si>
-    <t>INSULINA DEGLUDECA;LIRAGLUTIDA</t>
-  </si>
-  <si>
-    <t>INSULINA ASPARTE</t>
-  </si>
-  <si>
-    <t>CLORIDRATO DE METFORMINA</t>
-  </si>
-  <si>
-    <t>CLOZAPINA</t>
-  </si>
-  <si>
-    <t>besilato</t>
-  </si>
-  <si>
-    <t>lisdexanfetamina</t>
-  </si>
-  <si>
-    <t>SULFATO DE NEOMICINA;BACITRACINA;NEOMICINA</t>
-  </si>
-  <si>
-    <t>OXCARBAZEPINA</t>
-  </si>
-  <si>
-    <t>RAMIPRIL</t>
-  </si>
-  <si>
-    <t>BESILATO DE ANLODIPINO;RAMIPRIL</t>
-  </si>
-  <si>
-    <t>BUPRENORFINA</t>
-  </si>
-  <si>
-    <t>HIDROCLOROTIAZIDA;TELMISARTANA</t>
-  </si>
-  <si>
-    <t>HIDROCLOROTIAZIDA;VALSARTANA</t>
-  </si>
-  <si>
-    <t>VALSARTANA;SACUBITRIL</t>
-  </si>
-  <si>
-    <t>BESILATO DE ANLODIPINO;PERINDOPRIL ARGININA</t>
-  </si>
-  <si>
-    <t>ARIPIPRAZOL</t>
-  </si>
-  <si>
-    <t>CLORIDRATO DE FEXOFENADINA;PSEUDOEFEDRINA</t>
-  </si>
-  <si>
-    <t>GLICOSE</t>
-  </si>
-  <si>
-    <t>CLORIDRATO DE MEMANTINA</t>
-  </si>
-  <si>
-    <t>FENOFIBRATO</t>
-  </si>
-  <si>
-    <t>DICLORIDRATO DE ZUCLOPENTIXOL</t>
-  </si>
-  <si>
-    <t>EMPAGLIFLOZINA</t>
-  </si>
-  <si>
-    <t>BROMOPRIDA</t>
-  </si>
-  <si>
-    <t>CANDESARTANA CILEXETILA;HIDROCLOROTIAZIDA</t>
-  </si>
-  <si>
-    <t>CANDESARTANA CILEXETILA</t>
-  </si>
-  <si>
-    <t>SEMAGLUTIDA</t>
+    <t>ACETATO DE DEXAMETASONA CREME 1MG//G TUBO 10 G</t>
+  </si>
+  <si>
+    <t>ACETATO DE MEDROXIPROGESTERONA SUSPENSAO INJETAVEL 150 MG/ML</t>
+  </si>
+  <si>
+    <t>ACIDO ACETILSALICILICO 100 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ACIDO FOLICO 5MG</t>
+  </si>
+  <si>
+    <t>ACIDO VALPROICO 250MG</t>
+  </si>
+  <si>
+    <t>ACIDO VALPROICO 500 MG</t>
+  </si>
+  <si>
+    <t>ALBENDAZOL 40 MG/ML SUSPENSAO ORAL   - FRASCO COM 10 ML  - FRASCO COM 10 ML</t>
+  </si>
+  <si>
+    <t>ALBENDAZOL 400 MG COMPRIMIDO MASTIGAVEL</t>
+  </si>
+  <si>
+    <t>ALENDRONATO SODIO 70 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ALOPURINOL 100 MG</t>
+  </si>
+  <si>
+    <t>ALOPURINOL 300 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>AMOXICILINA 250MG/5ML SUSPENSAO ORAL 150ML</t>
+  </si>
+  <si>
+    <t>AMOXILINA + CLAVULANATO DE POTASSIO 50+12,5 MG/ML PO PARA SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>AMOXILINA + CLAVULANATO DE POTASSIO 500+125 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>AMOXILINA 500MG CAPSULA</t>
+  </si>
+  <si>
+    <t>ANLODIPINO BESILATO 10 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ATENOLOL 50MG</t>
+  </si>
+  <si>
+    <t>AZITROMICINA 40 MG/ML (600 MG) PO PARA SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>AZITROMICINA DI-HIDRATADA 500MG</t>
+  </si>
+  <si>
+    <t>BENZOILMETRONIDAZOL 40MG/ML SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>BESILATO DE ANLODIPINO  5MG</t>
+  </si>
+  <si>
+    <t>CAPTOPRIL 25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARBAMAZEPINA 20 MG/ML SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>CARBAMAZEPINA 200 MG</t>
+  </si>
+  <si>
+    <t>CARBONATO DE CALCIO 500MG</t>
+  </si>
+  <si>
+    <t>CARBONATO DE LITIO 300MG</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 12,5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 3,125 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 6,25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CEFALEXINA 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CEFALEXINA SUSPENSAO ORAL 250MG/5ML 100ML</t>
+  </si>
+  <si>
+    <t>CETOCONAZOL 20MG/ML SHAMPOO</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACINO CLORIDRATO 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CLARITROMICINA 500MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA 200MCG SPRAY 200 DOSES 10ML</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA 50MCG SPRAY 200 DOSES 10ML</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA 250 MCG/DOSE SOL AER CT TB AL + DISPOSITIVO ORAL X 200 DOSES</t>
+  </si>
+  <si>
+    <t>CLONAZEPAM 2,5MG/ML</t>
+  </si>
+  <si>
+    <t>CLORETO DE SODIO 9 MG/ML SOLUCAO NASAL (NASOJET)</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE AMIODARONA 200MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE AMITRIPTILINA 25 MG CAIXA COM 30</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLOMIPRAMINA 25 MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA 100MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA 25MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA 40MG/ML SOL OR CT FR VD GOTAS X 20ML 4%</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE HIDRALAZINA 25MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE IMIPRAMINA 25 MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE PROPRANOLOL 40MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE VERAPAMIL 80MG</t>
+  </si>
+  <si>
+    <t>DEXAMETASONA 1 MG/ML (0,1%) SUSPENSAO OFTALMICA</t>
+  </si>
+  <si>
+    <t>DEXCLORFENIRAMINA MALEATO 0,4 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>DEXCLORFENIRAMINA MALEATO 2MG</t>
+  </si>
+  <si>
+    <t>DIAZEPAM 10 MG</t>
+  </si>
+  <si>
+    <t>DIAZEPAM 5 MG</t>
+  </si>
+  <si>
+    <t>DIGOXINA 0,25 MG</t>
+  </si>
+  <si>
+    <t>DINITRATO DE ISOSSORBIDA 5MG SUBLINGUAL</t>
+  </si>
+  <si>
+    <t>DIPIRONA SODICA 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>DIPIRONA SODICA 500MG/ML FRASCO 20ML</t>
+  </si>
+  <si>
+    <t>DOXAZOSINA 2MG</t>
+  </si>
+  <si>
+    <t>DOXAZOSINA MESILATO 4MG</t>
+  </si>
+  <si>
+    <t>ENALAPRIL MALEATO 10 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ENALAPRIL MALEATO 20 MG</t>
+  </si>
+  <si>
+    <t>ENALAPRIL MALEATO 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ESPIRONOCTONA 25 MG</t>
+  </si>
+  <si>
+    <t>ESTRIOL 1MG/G CREME VAGINAL</t>
+  </si>
+  <si>
+    <t>FENITOINA SODICA 100 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>FENOBARBITAL 100MG</t>
+  </si>
+  <si>
+    <t>FENOBARBITAL SODICO 40 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>FLUCONAZOL 150 MG - CAPSULA</t>
+  </si>
+  <si>
+    <t>FLUOXETINA CLORIDRATO 20 MG CAPSULA</t>
+  </si>
+  <si>
+    <t>FOSFATO DE SODIO DE PREDNISOLONA 3MG/ML XAROPE</t>
+  </si>
+  <si>
+    <t>FUROSEMIDA 40 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>GLIBENCLAMIDA 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA 30 MG</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA 60MG COMPRIMIDO DE LIBERACAO PROLONGADA</t>
+  </si>
+  <si>
+    <t>GLICOSIMETROS (MEDIDOR DE GLICOSE)</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL 1MG</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>HIDROCLOROTIAZIDA 25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>HIDROCORTISONA ACETATO 10MG/G CREME DERMATOLOGICO</t>
+  </si>
+  <si>
+    <t>IBUPROFENO 50MG/ML</t>
+  </si>
+  <si>
+    <t>IBUPROFENO 600 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ISOSSORBIDA MONONITRATO 20 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ISOSSORBIDA MONONITRATO 40 MG</t>
+  </si>
+  <si>
+    <t>ITRACONAZOL 100MG</t>
+  </si>
+  <si>
+    <t>IVERMECTINA 6MG</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SODICA 100 MCG</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SODICA 25 MCG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SODICA 50 MCG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>LORATADINA 1 MG/ML XAROPE</t>
+  </si>
+  <si>
+    <t>LORATADINA 10MG</t>
+  </si>
+  <si>
+    <t>LOSARTANA POTASSICA 50MG</t>
+  </si>
+  <si>
+    <t>MALEATO DE TIMOLOL 5MG/ML 0,5%</t>
+  </si>
+  <si>
+    <t>METFORMINA CLORIDRATO  850 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METFORMINA CLORIDRATO 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METILDOPA 250 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METOCLOPRAMIDA CLORIDRATO 10 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METOCLOPRAMIDA CLORIDRATO 4 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>METOPROLOL SUCCINATO 100 MCG COMPRIMIDO REVESTIDO DE LIBERACAO CONTROLADA</t>
+  </si>
+  <si>
+    <t>METOPROLOL SUCCINATO 50 MG COMPRIMIDO REVESTIDO DE LIBERACAO CONTROLADA</t>
+  </si>
+  <si>
+    <t>METRONIDAZOL 250 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METRONIDAZOL 400 MG</t>
+  </si>
+  <si>
+    <t>MICONAZOL NITRATO 20 MG/G CREME VAGINAL</t>
+  </si>
+  <si>
+    <t>NITRATO DE MICONAZOL 20 MG CREME DERMATOLOGICO - EMBALAGEM 28 GRAMAS</t>
+  </si>
+  <si>
+    <t>NITROFURANTOINA 100 MG CAPSULA</t>
+  </si>
+  <si>
+    <t>ENANTATO DE NORETISTERONA + VALERATO DE ESTRADIOL 50 + 5 MG/ML SOLUÇÃO INJETÁVEL C/ 1 AMPOLA 1 ML</t>
+  </si>
+  <si>
+    <t>NORTRIPTILINA CLORIDRATO 25 MG</t>
+  </si>
+  <si>
+    <t>NORTRIPTILINA CLORIDRATO 50 MG CAPSULA</t>
+  </si>
+  <si>
+    <t>OMEPRAZOL 20MG</t>
+  </si>
+  <si>
+    <t>PARACETAMOL 200 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>PARACETAMOL 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>PREDNISONA 20 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>PREDNISONA 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>LEVODORA + CLORIDRATO DE BENZERAZIDA 100/25 MG BD</t>
+  </si>
+  <si>
+    <t>LEVODORA + CORIDRATO DE BENZERAZIDA 200MG/50 MG</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 10MG</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 20 MG</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 40 MG</t>
+  </si>
+  <si>
+    <t>SULFADIAZINA DE PRATA 10 MG/G CREME</t>
+  </si>
+  <si>
+    <t>SULFAMETOXAZOL + TRIMETROPRIMA 40 + 8 MG/ML SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>SULFAMETOXAZOL + TRIMETROPRIMA 400 + 80 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>SULFATO DE SALBUTAMOL 100MCG AEROSOL ORAL</t>
+  </si>
+  <si>
+    <t>SULFATO FERROSO 125 MG/ML GOTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA PARA TESTES DE GLICEMIA COMPATIVEL PARA O APARELHO ACCU-CHEK ACTIVE </t>
+  </si>
+  <si>
+    <t>VARFARINA SODICA 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>1mg</t>
+  </si>
+  <si>
+    <t>150 mg/ml</t>
+  </si>
+  <si>
+    <t>100 mg</t>
+  </si>
+  <si>
+    <t>5mg</t>
+  </si>
+  <si>
+    <t>250mg</t>
+  </si>
+  <si>
+    <t>500 mg</t>
+  </si>
+  <si>
+    <t>40 mg/ml</t>
+  </si>
+  <si>
+    <t>400 mg</t>
+  </si>
+  <si>
+    <t>70 mg</t>
+  </si>
+  <si>
+    <t>300 mg</t>
+  </si>
+  <si>
+    <t>5 mg/ml</t>
+  </si>
+  <si>
+    <t>125 mg</t>
+  </si>
+  <si>
+    <t>500mg</t>
+  </si>
+  <si>
+    <t>10 mg</t>
+  </si>
+  <si>
+    <t>50mg</t>
+  </si>
+  <si>
+    <t>40mg/ml</t>
+  </si>
+  <si>
+    <t>25 mg</t>
+  </si>
+  <si>
+    <t>20 mg/ml</t>
+  </si>
+  <si>
+    <t>200 mg</t>
+  </si>
+  <si>
+    <t>300mg</t>
+  </si>
+  <si>
+    <t>5 mg</t>
+  </si>
+  <si>
+    <t>20mg/ml</t>
+  </si>
+  <si>
+    <t>200mcg</t>
+  </si>
+  <si>
+    <t>50mcg</t>
+  </si>
+  <si>
+    <t>250 mcg</t>
+  </si>
+  <si>
+    <t>5mg/ml</t>
+  </si>
+  <si>
+    <t>9 mg/ml</t>
+  </si>
+  <si>
+    <t>200mg</t>
+  </si>
+  <si>
+    <t>100mg</t>
+  </si>
+  <si>
+    <t>25mg</t>
+  </si>
+  <si>
+    <t>40mg</t>
+  </si>
+  <si>
+    <t>80mg</t>
+  </si>
+  <si>
+    <t>1 mg/ml</t>
+  </si>
+  <si>
+    <t>4 mg/ml</t>
+  </si>
+  <si>
+    <t>2mg</t>
+  </si>
+  <si>
+    <t>500mg/ml</t>
+  </si>
+  <si>
+    <t>4mg</t>
+  </si>
+  <si>
+    <t>20 mg</t>
+  </si>
+  <si>
+    <t>150 mg</t>
+  </si>
+  <si>
+    <t>3mg/ml</t>
+  </si>
+  <si>
+    <t>40 mg</t>
+  </si>
+  <si>
+    <t>30 mg</t>
+  </si>
+  <si>
+    <t>60mg</t>
   </si>
   <si>
     <t>Concentração não encontrada</t>
   </si>
   <si>
-    <t>500ml</t>
-  </si>
-  <si>
-    <t>6 mg/ml</t>
-  </si>
-  <si>
-    <t>3 ml</t>
-  </si>
-  <si>
-    <t>1g</t>
-  </si>
-  <si>
-    <t>750mg</t>
-  </si>
-  <si>
-    <t>500mg</t>
-  </si>
-  <si>
-    <t>850mg</t>
-  </si>
-  <si>
-    <t>25mg</t>
-  </si>
-  <si>
-    <t>70mg</t>
-  </si>
-  <si>
-    <t>50mg</t>
-  </si>
-  <si>
-    <t>0 mg</t>
-  </si>
-  <si>
-    <t>60 mg/ml</t>
-  </si>
-  <si>
     <t>10mg</t>
   </si>
   <si>
-    <t>5mg</t>
-  </si>
-  <si>
-    <t>80mg</t>
-  </si>
-  <si>
-    <t>00mg</t>
-  </si>
-  <si>
-    <t>320mg</t>
-  </si>
-  <si>
-    <t>200mg</t>
-  </si>
-  <si>
-    <t>100mg</t>
-  </si>
-  <si>
-    <t>14mg</t>
-  </si>
-  <si>
-    <t>7mg</t>
-  </si>
-  <si>
-    <t>1 mg/ml</t>
-  </si>
-  <si>
-    <t>0mg</t>
-  </si>
-  <si>
-    <t>160mg</t>
-  </si>
-  <si>
-    <t>1000mg</t>
-  </si>
-  <si>
-    <t>4mg/ml</t>
-  </si>
-  <si>
-    <t>16mg</t>
-  </si>
-  <si>
-    <t>8mg</t>
-  </si>
-  <si>
-    <t>34 mg/ml</t>
-  </si>
-  <si>
-    <t>markmed</t>
-  </si>
-  <si>
-    <t>biobase</t>
-  </si>
-  <si>
-    <t>descarpack</t>
-  </si>
-  <si>
-    <t>NOVO NORDISK PRODUÇÃO FARMACÊUTICA DO BRASIL LTDA</t>
+    <t>50mg/ml</t>
+  </si>
+  <si>
+    <t>600 mg</t>
+  </si>
+  <si>
+    <t>6mg</t>
+  </si>
+  <si>
+    <t>100 mcg</t>
+  </si>
+  <si>
+    <t>25 mcg</t>
+  </si>
+  <si>
+    <t>50 mcg</t>
+  </si>
+  <si>
+    <t>850 mg</t>
+  </si>
+  <si>
+    <t>250 mg</t>
+  </si>
+  <si>
+    <t>50 mg</t>
+  </si>
+  <si>
+    <t>20mg</t>
+  </si>
+  <si>
+    <t>200 mg/ml</t>
+  </si>
+  <si>
+    <t>8 mg/ml</t>
+  </si>
+  <si>
+    <t>80 mg</t>
+  </si>
+  <si>
+    <t>100mcg</t>
+  </si>
+  <si>
+    <t>125 mg/ml</t>
+  </si>
+  <si>
+    <t>LABORATÓRIOS OSÓRIO DE MORAES LTDA</t>
+  </si>
+  <si>
+    <t>EMS SIGMA PHARMA LTDA</t>
+  </si>
+  <si>
+    <t>BRASTERAPICA INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>GEOLAB INDÚSTRIA FARMACÊUTICA S/A</t>
+  </si>
+  <si>
+    <t>BIOLAB SANUS FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>CELLERA FARMACÊUTICA S.A.</t>
+  </si>
+  <si>
+    <t>SANDOZ DO BRASIL INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>EUROFARMA LABORATÓRIOS S.A.</t>
+  </si>
+  <si>
+    <t>BRAINFARMA INDÚSTRIA QUÍMICA E FARMACÊUTICA S.A</t>
+  </si>
+  <si>
+    <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>PHARLAB INDÚSTRIA FARMACÊUTICA S.A.</t>
+  </si>
+  <si>
+    <t>BELFAR LTDA</t>
+  </si>
+  <si>
+    <t>NOVARTIS BIOCIENCIAS S.A</t>
+  </si>
+  <si>
+    <t>GERMED FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>Nutivit/Imec</t>
+  </si>
+  <si>
+    <t>NOVA QUIMICA FARMACÊUTICA S/A</t>
+  </si>
+  <si>
+    <t>NATIVITA IND. COM. LTDA</t>
+  </si>
+  <si>
+    <t>CHIESI FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>NATULAB LABORATÓRIO S.A</t>
+  </si>
+  <si>
+    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>AIRELA INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO TEUTO BRASILEIRO S/A</t>
+  </si>
+  <si>
+    <t>MEDQUIMICA INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>ACHÉ LABORATÓRIOS FARMACÊUTICOS S.A</t>
+  </si>
+  <si>
+    <t>On Call Plus</t>
+  </si>
+  <si>
+    <t>LEGRAND PHARMA INDÚSTRIA FARMACÊUTICA LTDA</t>
   </si>
   <si>
     <t>MERCK S/A</t>
   </si>
   <si>
-    <t>viatriz</t>
-  </si>
-  <si>
-    <t>APSEN FARMACEUTICA S/A</t>
-  </si>
-  <si>
-    <t>TAKEDA PHARMA LTDA</t>
-  </si>
-  <si>
-    <t>BELFAR LTDA</t>
-  </si>
-  <si>
-    <t>NOVARTIS BIOCIENCIAS S.A</t>
-  </si>
-  <si>
-    <t>LIBBS FARMACÊUTICA LTDA</t>
-  </si>
-  <si>
-    <t>MUNDIPHARMA BRASIL PRODUTOS MÉDICOS E FARMACÊUTICOS LTDA</t>
-  </si>
-  <si>
-    <t>BOEHRINGER INGELHEIM DO BRASIL QUÍMICA E FARMACÊUTICA LTDA</t>
-  </si>
-  <si>
-    <t>LABORATÓRIOS SERVIER DO BRASIL LTDA</t>
-  </si>
-  <si>
-    <t>ACHÉ LABORATÓRIOS FARMACÊUTICOS S.A</t>
-  </si>
-  <si>
-    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+    <t>MULTILAB INDÚSTRIA E COMÉRCIO DE PRODUTOS FARMACÊUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>CIFARMA CIENTÍFICA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>RANBAXY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO GLOBO SA</t>
   </si>
   <si>
     <t>PRODUTOS ROCHE QUÍMICOS E FARMACÊUTICOS S.A.</t>
   </si>
   <si>
-    <t>GEOLAB INDÚSTRIA FARMACÊUTICA S/A</t>
-  </si>
-  <si>
-    <t>ABBOTT LABORATÓRIOS DO BRASIL LTDA</t>
-  </si>
-  <si>
-    <t>LUNDBECK BRASIL LTDA</t>
-  </si>
-  <si>
-    <t>AIRELA INDÚSTRIA FARMACÊUTICA LTDA</t>
-  </si>
-  <si>
-    <t>SANDOZ DO BRASIL INDÚSTRIA FARMACÊUTICA LTDA</t>
+    <t>PHARMASCIENCE INDUSTRIA FARMACEUTICA S.A</t>
+  </si>
+  <si>
+    <t>Arte Nativa</t>
+  </si>
+  <si>
+    <t>UNIÃO QUÍMICA FARMACÊUTICA NACIONAL S/A</t>
+  </si>
+  <si>
+    <t>105040038</t>
+  </si>
+  <si>
+    <t>105830220</t>
+  </si>
+  <si>
+    <t>100380043</t>
+  </si>
+  <si>
+    <t>154230142</t>
+  </si>
+  <si>
+    <t>109740046</t>
+  </si>
+  <si>
+    <t>154230044</t>
+  </si>
+  <si>
+    <t>104400157</t>
+  </si>
+  <si>
+    <t>100470614</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 100430802</t>
+  </si>
+  <si>
+    <t>102350528</t>
+  </si>
+  <si>
+    <t>102350845</t>
+  </si>
+  <si>
+    <t>155840141</t>
+  </si>
+  <si>
+    <t>103920150</t>
+  </si>
+  <si>
+    <t>100470363</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 141070006</t>
+  </si>
+  <si>
+    <t>154230166</t>
+  </si>
+  <si>
+    <t>105710125</t>
+  </si>
+  <si>
+    <t>154230282</t>
+  </si>
+  <si>
+    <t>100680085</t>
+  </si>
+  <si>
+    <t>105830847</t>
   </si>
   <si>
     <t>Não encontrado</t>
   </si>
   <si>
-    <t>Último registro encontrado: 802123490</t>
-  </si>
-  <si>
-    <t>Último registro encontrado: 103306602</t>
-  </si>
-  <si>
-    <t>100890193</t>
-  </si>
-  <si>
-    <t>100890340</t>
-  </si>
-  <si>
-    <t>101180612</t>
-  </si>
-  <si>
-    <t>106390304</t>
-  </si>
-  <si>
-    <t>Último registro encontrado: 105710163</t>
-  </si>
-  <si>
-    <t>100680046</t>
-  </si>
-  <si>
-    <t>100330086</t>
-  </si>
-  <si>
-    <t>100330096</t>
-  </si>
-  <si>
-    <t>191980002</t>
-  </si>
-  <si>
-    <t>103670134</t>
-  </si>
-  <si>
-    <t>Último registro encontrado: 100470580</t>
-  </si>
-  <si>
-    <t>100681141</t>
-  </si>
-  <si>
-    <t>112780075</t>
-  </si>
-  <si>
-    <t>105730048</t>
-  </si>
-  <si>
-    <t>Último registro encontrado: 183260313</t>
-  </si>
-  <si>
-    <t>Último registro encontrado: 103870016</t>
-  </si>
-  <si>
-    <t>154230344</t>
-  </si>
-  <si>
-    <t>105530358</t>
-  </si>
-  <si>
-    <t>104750045</t>
-  </si>
-  <si>
-    <t>Último registro encontrado: 103670172</t>
-  </si>
-  <si>
-    <t>144930066</t>
-  </si>
-  <si>
-    <t>100330177</t>
-  </si>
-  <si>
-    <t>100470476</t>
+    <t>109740347</t>
+  </si>
+  <si>
+    <t>109740146</t>
+  </si>
+  <si>
+    <t>102351370</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 155840056</t>
+  </si>
+  <si>
+    <t>147610020</t>
+  </si>
+  <si>
+    <t>167730663</t>
+  </si>
+  <si>
+    <t>141070628</t>
+  </si>
+  <si>
+    <t>100580111</t>
+  </si>
+  <si>
+    <t>154230330</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 138410072</t>
+  </si>
+  <si>
+    <t>154230277</t>
+  </si>
+  <si>
+    <t>155840067</t>
+  </si>
+  <si>
+    <t>167730263</t>
+  </si>
+  <si>
+    <t>183260385</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 183260385</t>
+  </si>
+  <si>
+    <t>100680013</t>
+  </si>
+  <si>
+    <t>102980023</t>
+  </si>
+  <si>
+    <t>105040051</t>
+  </si>
+  <si>
+    <t>135690199</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 100681097</t>
+  </si>
+  <si>
+    <t>154230126</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 154230038</t>
+  </si>
+  <si>
+    <t>141070086</t>
+  </si>
+  <si>
+    <t>167730219</t>
+  </si>
+  <si>
+    <t>141070059</t>
+  </si>
+  <si>
+    <t>135690015</t>
+  </si>
+  <si>
+    <t>103920101</t>
+  </si>
+  <si>
+    <t>144930010</t>
+  </si>
+  <si>
+    <t>154230285</t>
+  </si>
+  <si>
+    <t>100431005</t>
+  </si>
+  <si>
+    <t>103920084</t>
+  </si>
+  <si>
+    <t>105710158</t>
+  </si>
+  <si>
+    <t>154230266</t>
+  </si>
+  <si>
+    <t>109740237</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 103700507</t>
+  </si>
+  <si>
+    <t>103700322</t>
+  </si>
+  <si>
+    <t>183260323</t>
+  </si>
+  <si>
+    <t>103920157</t>
+  </si>
+  <si>
+    <t>109170103</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 105730560</t>
+  </si>
+  <si>
+    <t>154230265</t>
+  </si>
+  <si>
+    <t>109170126</t>
+  </si>
+  <si>
+    <t>141070117</t>
+  </si>
+  <si>
+    <t>112360011</t>
+  </si>
+  <si>
+    <t>109170093</t>
+  </si>
+  <si>
+    <t>103700768</t>
+  </si>
+  <si>
+    <t>154230134</t>
+  </si>
+  <si>
+    <t>103920222</t>
+  </si>
+  <si>
+    <t>109740265</t>
+  </si>
+  <si>
+    <t>105730581</t>
+  </si>
+  <si>
+    <t>167730588</t>
+  </si>
+  <si>
+    <t>105830989</t>
+  </si>
+  <si>
+    <t>100890202</t>
+  </si>
+  <si>
+    <t>144930068</t>
+  </si>
+  <si>
+    <t>154230339</t>
+  </si>
+  <si>
+    <t>141070627</t>
+  </si>
+  <si>
+    <t>105830876</t>
+  </si>
+  <si>
+    <t>154230270</t>
+  </si>
+  <si>
+    <t>103920109</t>
+  </si>
+  <si>
+    <t>102350564</t>
+  </si>
+  <si>
+    <t>105710086</t>
+  </si>
+  <si>
+    <t>109170016</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 109740350</t>
+  </si>
+  <si>
+    <t>109740334</t>
+  </si>
+  <si>
+    <t>155840137</t>
+  </si>
+  <si>
+    <t>167730181</t>
+  </si>
+  <si>
+    <t>105710019</t>
+  </si>
+  <si>
+    <t>103700443</t>
+  </si>
+  <si>
+    <t>115600234</t>
+  </si>
+  <si>
+    <t>123520191</t>
+  </si>
+  <si>
+    <t>154230328</t>
+  </si>
+  <si>
+    <t>154230008</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 105710133</t>
+  </si>
+  <si>
+    <t>105350218</t>
+  </si>
+  <si>
+    <t>167730519</t>
+  </si>
+  <si>
+    <t>101000651</t>
+  </si>
+  <si>
+    <t>141070108</t>
+  </si>
+  <si>
+    <t>118190226</t>
+  </si>
+  <si>
+    <t>100470472</t>
+  </si>
+  <si>
+    <t>147610023</t>
+  </si>
+  <si>
+    <t>102351048</t>
+  </si>
+  <si>
+    <t>103920169</t>
+  </si>
+  <si>
+    <t>117170009</t>
+  </si>
+  <si>
+    <t>104971323</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
   <si>
     <t>Pendente</t>
-  </si>
-  <si>
-    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -716,7 +1376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -750,16 +1410,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -767,799 +1427,2499 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>229</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>231</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>232</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>232</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>233</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>233</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>234</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>235</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>235</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>199</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>236</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>239</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="F19" t="s">
-        <v>114</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>243</v>
       </c>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>248</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>250</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>250</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>250</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>250</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>251</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>253</v>
       </c>
       <c r="F34" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
       <c r="F35" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>256</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="F38" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
       <c r="F39" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="E40" t="s">
-        <v>112</v>
+        <v>257</v>
       </c>
       <c r="F40" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>258</v>
       </c>
       <c r="F41" t="s">
-        <v>114</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" t="s">
+        <v>260</v>
+      </c>
+      <c r="F43" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" t="s">
+        <v>205</v>
+      </c>
+      <c r="E44" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" t="s">
+        <v>262</v>
+      </c>
+      <c r="F45" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" t="s">
+        <v>262</v>
+      </c>
+      <c r="F46" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" t="s">
+        <v>263</v>
+      </c>
+      <c r="F47" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" t="s">
+        <v>264</v>
+      </c>
+      <c r="F48" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49" t="s">
+        <v>265</v>
+      </c>
+      <c r="F49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" t="s">
+        <v>266</v>
+      </c>
+      <c r="F50" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" t="s">
+        <v>267</v>
+      </c>
+      <c r="F51" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" t="s">
+        <v>268</v>
+      </c>
+      <c r="F52" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" t="s">
+        <v>195</v>
+      </c>
+      <c r="E53" t="s">
+        <v>269</v>
+      </c>
+      <c r="F53" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" t="s">
+        <v>270</v>
+      </c>
+      <c r="F54" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" t="s">
+        <v>271</v>
+      </c>
+      <c r="F55" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" t="s">
+        <v>205</v>
+      </c>
+      <c r="E56" t="s">
+        <v>272</v>
+      </c>
+      <c r="F56" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57" t="s">
+        <v>273</v>
+      </c>
+      <c r="F57" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" t="s">
+        <v>274</v>
+      </c>
+      <c r="F58" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" t="s">
+        <v>201</v>
+      </c>
+      <c r="E59" t="s">
+        <v>275</v>
+      </c>
+      <c r="F59" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" t="s">
+        <v>213</v>
+      </c>
+      <c r="E60" t="s">
+        <v>276</v>
+      </c>
+      <c r="F60" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" t="s">
+        <v>277</v>
+      </c>
+      <c r="F61" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
         <v>66</v>
       </c>
-      <c r="B42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C62" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" t="s">
+        <v>278</v>
+      </c>
+      <c r="F62" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" t="s">
+        <v>201</v>
+      </c>
+      <c r="E63" t="s">
+        <v>279</v>
+      </c>
+      <c r="F63" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
         <v>68</v>
       </c>
-      <c r="E42" t="s">
+      <c r="C64" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" t="s">
+        <v>201</v>
+      </c>
+      <c r="E64" t="s">
+        <v>279</v>
+      </c>
+      <c r="F64" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" t="s">
+        <v>203</v>
+      </c>
+      <c r="E65" t="s">
+        <v>280</v>
+      </c>
+      <c r="F65" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" t="s">
+        <v>195</v>
+      </c>
+      <c r="E66" t="s">
+        <v>281</v>
+      </c>
+      <c r="F66" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" t="s">
+        <v>196</v>
+      </c>
+      <c r="E67" t="s">
+        <v>282</v>
+      </c>
+      <c r="F67" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" t="s">
+        <v>214</v>
+      </c>
+      <c r="E68" t="s">
+        <v>283</v>
+      </c>
+      <c r="F68" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" t="s">
+        <v>214</v>
+      </c>
+      <c r="E69" t="s">
+        <v>284</v>
+      </c>
+      <c r="F69" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" t="s">
+        <v>211</v>
+      </c>
+      <c r="E70" t="s">
+        <v>285</v>
+      </c>
+      <c r="F70" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" t="s">
+        <v>201</v>
+      </c>
+      <c r="E71" t="s">
+        <v>286</v>
+      </c>
+      <c r="F71" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" t="s">
+        <v>215</v>
+      </c>
+      <c r="E72" t="s">
+        <v>287</v>
+      </c>
+      <c r="F72" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" t="s">
+        <v>216</v>
+      </c>
+      <c r="E73" t="s">
+        <v>288</v>
+      </c>
+      <c r="F73" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" t="s">
+        <v>195</v>
+      </c>
+      <c r="E74" t="s">
+        <v>289</v>
+      </c>
+      <c r="F74" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" t="s">
+        <v>215</v>
+      </c>
+      <c r="E75" t="s">
+        <v>290</v>
+      </c>
+      <c r="F75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>173</v>
+      </c>
+      <c r="D76" t="s">
+        <v>202</v>
+      </c>
+      <c r="E76" t="s">
+        <v>291</v>
+      </c>
+      <c r="F76" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E77" t="s">
+        <v>291</v>
+      </c>
+      <c r="F77" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" t="s">
+        <v>175</v>
+      </c>
+      <c r="D78" t="s">
+        <v>217</v>
+      </c>
+      <c r="E78" t="s">
+        <v>248</v>
+      </c>
+      <c r="F78" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79" t="s">
+        <v>197</v>
+      </c>
+      <c r="E79" t="s">
+        <v>292</v>
+      </c>
+      <c r="F79" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" t="s">
+        <v>152</v>
+      </c>
+      <c r="D80" t="s">
+        <v>197</v>
+      </c>
+      <c r="E80" t="s">
+        <v>292</v>
+      </c>
+      <c r="F80" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" t="s">
+        <v>148</v>
+      </c>
+      <c r="D81" t="s">
+        <v>215</v>
+      </c>
+      <c r="E81" t="s">
+        <v>293</v>
+      </c>
+      <c r="F81" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
         <v>87</v>
       </c>
-      <c r="F42" t="s">
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" t="s">
+        <v>214</v>
+      </c>
+      <c r="E82" t="s">
+        <v>294</v>
+      </c>
+      <c r="F82" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>177</v>
+      </c>
+      <c r="D83" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83" t="s">
+        <v>295</v>
+      </c>
+      <c r="F83" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" t="s">
+        <v>201</v>
+      </c>
+      <c r="E84" t="s">
+        <v>296</v>
+      </c>
+      <c r="F84" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>90</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" t="s">
+        <v>196</v>
+      </c>
+      <c r="E85" t="s">
+        <v>297</v>
+      </c>
+      <c r="F85" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" t="s">
+        <v>216</v>
+      </c>
+      <c r="E86" t="s">
+        <v>298</v>
+      </c>
+      <c r="F86" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>92</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87" t="s">
+        <v>218</v>
+      </c>
+      <c r="E87" t="s">
+        <v>299</v>
+      </c>
+      <c r="F87" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" t="s">
+        <v>205</v>
+      </c>
+      <c r="E88" t="s">
+        <v>300</v>
+      </c>
+      <c r="F88" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" t="s">
+        <v>219</v>
+      </c>
+      <c r="E89" t="s">
+        <v>301</v>
+      </c>
+      <c r="F89" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90" t="s">
+        <v>219</v>
+      </c>
+      <c r="E90" t="s">
+        <v>301</v>
+      </c>
+      <c r="F90" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" t="s">
+        <v>219</v>
+      </c>
+      <c r="E91" t="s">
+        <v>301</v>
+      </c>
+      <c r="F91" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" t="s">
+        <v>164</v>
+      </c>
+      <c r="D92" t="s">
+        <v>213</v>
+      </c>
+      <c r="E92" t="s">
+        <v>302</v>
+      </c>
+      <c r="F92" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" t="s">
+        <v>176</v>
+      </c>
+      <c r="D93" t="s">
+        <v>195</v>
+      </c>
+      <c r="E93" t="s">
+        <v>303</v>
+      </c>
+      <c r="F93" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" t="s">
+        <v>146</v>
+      </c>
+      <c r="D94" t="s">
+        <v>202</v>
+      </c>
+      <c r="E94" t="s">
+        <v>304</v>
+      </c>
+      <c r="F94" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>102</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" t="s">
+        <v>157</v>
+      </c>
+      <c r="D95" t="s">
+        <v>205</v>
+      </c>
+      <c r="E95" t="s">
+        <v>305</v>
+      </c>
+      <c r="F95" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" t="s">
+        <v>195</v>
+      </c>
+      <c r="E96" t="s">
+        <v>306</v>
+      </c>
+      <c r="F96" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>104</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" t="s">
+        <v>137</v>
+      </c>
+      <c r="D97" t="s">
+        <v>201</v>
+      </c>
+      <c r="E97" t="s">
+        <v>307</v>
+      </c>
+      <c r="F97" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" t="s">
+        <v>184</v>
+      </c>
+      <c r="D98" t="s">
+        <v>193</v>
+      </c>
+      <c r="E98" t="s">
+        <v>308</v>
+      </c>
+      <c r="F98" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" t="s">
+        <v>203</v>
+      </c>
+      <c r="E99" t="s">
+        <v>309</v>
+      </c>
+      <c r="F99" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" t="s">
+        <v>165</v>
+      </c>
+      <c r="D100" t="s">
+        <v>215</v>
+      </c>
+      <c r="E100" t="s">
+        <v>310</v>
+      </c>
+      <c r="F100" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>108</v>
+      </c>
+      <c r="B101" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" t="s">
+        <v>180</v>
+      </c>
+      <c r="D101" t="s">
+        <v>196</v>
+      </c>
+      <c r="E101" t="s">
+        <v>311</v>
+      </c>
+      <c r="F101" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>110</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" t="s">
+        <v>185</v>
+      </c>
+      <c r="D102" t="s">
+        <v>196</v>
+      </c>
+      <c r="E102" t="s">
+        <v>312</v>
+      </c>
+      <c r="F102" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>111</v>
+      </c>
+      <c r="B103" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" t="s">
+        <v>184</v>
+      </c>
+      <c r="D103" t="s">
+        <v>200</v>
+      </c>
+      <c r="E103" t="s">
+        <v>313</v>
+      </c>
+      <c r="F103" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>112</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" t="s">
+        <v>139</v>
+      </c>
+      <c r="D104" t="s">
+        <v>220</v>
+      </c>
+      <c r="E104" t="s">
+        <v>314</v>
+      </c>
+      <c r="F104" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
         <v>113</v>
+      </c>
+      <c r="B105" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" t="s">
+        <v>169</v>
+      </c>
+      <c r="D105" t="s">
+        <v>203</v>
+      </c>
+      <c r="E105" t="s">
+        <v>315</v>
+      </c>
+      <c r="F105" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>114</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" t="s">
+        <v>169</v>
+      </c>
+      <c r="D106" t="s">
+        <v>208</v>
+      </c>
+      <c r="E106" t="s">
+        <v>248</v>
+      </c>
+      <c r="F106" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>115</v>
+      </c>
+      <c r="B107" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" t="s">
+        <v>134</v>
+      </c>
+      <c r="D107" t="s">
+        <v>214</v>
+      </c>
+      <c r="E107" t="s">
+        <v>316</v>
+      </c>
+      <c r="F107" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>116</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" t="s">
+        <v>142</v>
+      </c>
+      <c r="D108" t="s">
+        <v>221</v>
+      </c>
+      <c r="E108" t="s">
+        <v>317</v>
+      </c>
+      <c r="F108" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>117</v>
+      </c>
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" t="s">
+        <v>148</v>
+      </c>
+      <c r="D109" t="s">
+        <v>222</v>
+      </c>
+      <c r="E109" t="s">
+        <v>318</v>
+      </c>
+      <c r="F109" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>118</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" t="s">
+        <v>185</v>
+      </c>
+      <c r="D110" t="s">
+        <v>222</v>
+      </c>
+      <c r="E110" t="s">
+        <v>318</v>
+      </c>
+      <c r="F110" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>119</v>
+      </c>
+      <c r="B111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" t="s">
+        <v>186</v>
+      </c>
+      <c r="D111" t="s">
+        <v>195</v>
+      </c>
+      <c r="E111" t="s">
+        <v>319</v>
+      </c>
+      <c r="F111" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>120</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" t="s">
+        <v>187</v>
+      </c>
+      <c r="D112" t="s">
+        <v>195</v>
+      </c>
+      <c r="E112" t="s">
+        <v>320</v>
+      </c>
+      <c r="F112" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>121</v>
+      </c>
+      <c r="B113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" t="s">
+        <v>137</v>
+      </c>
+      <c r="D113" t="s">
+        <v>203</v>
+      </c>
+      <c r="E113" t="s">
+        <v>321</v>
+      </c>
+      <c r="F113" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>122</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" t="s">
+        <v>169</v>
+      </c>
+      <c r="D114" t="s">
+        <v>223</v>
+      </c>
+      <c r="E114" t="s">
+        <v>322</v>
+      </c>
+      <c r="F114" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>123</v>
+      </c>
+      <c r="B115" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" t="s">
+        <v>152</v>
+      </c>
+      <c r="D115" t="s">
+        <v>207</v>
+      </c>
+      <c r="E115" t="s">
+        <v>323</v>
+      </c>
+      <c r="F115" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>124</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" t="s">
+        <v>148</v>
+      </c>
+      <c r="D116" t="s">
+        <v>224</v>
+      </c>
+      <c r="E116" t="s">
+        <v>324</v>
+      </c>
+      <c r="F116" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>125</v>
+      </c>
+      <c r="B117" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" t="s">
+        <v>159</v>
+      </c>
+      <c r="D117" t="s">
+        <v>224</v>
+      </c>
+      <c r="E117" t="s">
+        <v>248</v>
+      </c>
+      <c r="F117" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>127</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" t="s">
+        <v>176</v>
+      </c>
+      <c r="D118" t="s">
+        <v>202</v>
+      </c>
+      <c r="E118" t="s">
+        <v>325</v>
+      </c>
+      <c r="F118" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>128</v>
+      </c>
+      <c r="B119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" t="s">
+        <v>169</v>
+      </c>
+      <c r="D119" t="s">
+        <v>207</v>
+      </c>
+      <c r="E119" t="s">
+        <v>326</v>
+      </c>
+      <c r="F119" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>129</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" t="s">
+        <v>172</v>
+      </c>
+      <c r="D120" t="s">
+        <v>204</v>
+      </c>
+      <c r="E120" t="s">
+        <v>327</v>
+      </c>
+      <c r="F120" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>130</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" t="s">
+        <v>145</v>
+      </c>
+      <c r="D121" t="s">
+        <v>208</v>
+      </c>
+      <c r="E121" t="s">
+        <v>328</v>
+      </c>
+      <c r="F121" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>131</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" t="s">
+        <v>188</v>
+      </c>
+      <c r="D122" t="s">
+        <v>193</v>
+      </c>
+      <c r="E122" t="s">
+        <v>329</v>
+      </c>
+      <c r="F122" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>132</v>
+      </c>
+      <c r="B123" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" t="s">
+        <v>189</v>
+      </c>
+      <c r="D123" t="s">
+        <v>201</v>
+      </c>
+      <c r="E123" t="s">
+        <v>330</v>
+      </c>
+      <c r="F123" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>134</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124" t="s">
+        <v>190</v>
+      </c>
+      <c r="D124" t="s">
+        <v>225</v>
+      </c>
+      <c r="E124" t="s">
+        <v>331</v>
+      </c>
+      <c r="F124" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>135</v>
+      </c>
+      <c r="B125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" t="s">
+        <v>191</v>
+      </c>
+      <c r="D125" t="s">
+        <v>226</v>
+      </c>
+      <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>137</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" t="s">
+        <v>175</v>
+      </c>
+      <c r="D126" t="s">
+        <v>217</v>
+      </c>
+      <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>138</v>
+      </c>
+      <c r="B127" t="s">
+        <v>131</v>
+      </c>
+      <c r="C127" t="s">
+        <v>152</v>
+      </c>
+      <c r="D127" t="s">
+        <v>227</v>
+      </c>
+      <c r="E127" t="s">
+        <v>332</v>
+      </c>
+      <c r="F127" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>Item</t>
   </si>
@@ -34,37 +34,139 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 250ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 500ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-  </si>
-  <si>
-    <t>1000ml</t>
-  </si>
-  <si>
-    <t>250ml</t>
-  </si>
-  <si>
-    <t>500ml</t>
-  </si>
-  <si>
-    <t>JP INDUSTRIA FARMACEUTICA S/A</t>
-  </si>
-  <si>
-    <t>104910019</t>
-  </si>
-  <si>
-    <t>104910020</t>
+    <t>HEPARINA SODICA SUBCUT 5000UI</t>
+  </si>
+  <si>
+    <t>PROMETAZINA 25MG, CLORIDRATO</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL 5MG</t>
+  </si>
+  <si>
+    <t>CLORPROMAZINA 40MG/ML SOL ORAL</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL 2MG/ML SOL ORAL</t>
+  </si>
+  <si>
+    <t>CLORPROMAZINA 25MG</t>
+  </si>
+  <si>
+    <t>CODEINA 30MG</t>
+  </si>
+  <si>
+    <t>IMIPRAMINA 25MG</t>
+  </si>
+  <si>
+    <t>RISPERIDONA 3MG</t>
+  </si>
+  <si>
+    <t>RISPERIDONA 1MG</t>
+  </si>
+  <si>
+    <t>LEVOMEPROMAZINA 4% GOTAS</t>
+  </si>
+  <si>
+    <t>LIDOCAINA 2% C/ VASO CONSTRITO</t>
+  </si>
+  <si>
+    <t>NITRATO DE CERIO +SULFADIAZINA</t>
+  </si>
+  <si>
+    <t>COLAGENASE+CLORAFENICOL POMADA 30g</t>
+  </si>
+  <si>
+    <t>5000ui</t>
+  </si>
+  <si>
+    <t>25mg</t>
+  </si>
+  <si>
+    <t>5mg</t>
+  </si>
+  <si>
+    <t>40mg/ml</t>
+  </si>
+  <si>
+    <t>2mg/ml</t>
+  </si>
+  <si>
+    <t>30mg</t>
+  </si>
+  <si>
+    <t>3mg</t>
+  </si>
+  <si>
+    <t>1mg</t>
+  </si>
+  <si>
+    <t>4%</t>
+  </si>
+  <si>
+    <t>2%</t>
+  </si>
+  <si>
+    <t>Concentração não encontrada</t>
+  </si>
+  <si>
+    <t>30g</t>
+  </si>
+  <si>
+    <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO TEUTO BRASILEIRO S/A</t>
+  </si>
+  <si>
+    <t>CELLERA FARMACÊUTICA S.A.</t>
+  </si>
+  <si>
+    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>102980371</t>
+  </si>
+  <si>
+    <t>103700321</t>
+  </si>
+  <si>
+    <t>112360011</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 183260385</t>
+  </si>
+  <si>
+    <t>183260385</t>
+  </si>
+  <si>
+    <t>102980199</t>
+  </si>
+  <si>
+    <t>102980023</t>
+  </si>
+  <si>
+    <t>103920197</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 183260316</t>
+  </si>
+  <si>
+    <t>102980249</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 102980560</t>
+  </si>
+  <si>
+    <t>102980431</t>
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Pendente</t>
   </si>
 </sst>
 </file>
@@ -422,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,82 +552,282 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Item</t>
   </si>
@@ -34,139 +34,37 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>HEPARINA SODICA SUBCUT 5000UI</t>
-  </si>
-  <si>
-    <t>PROMETAZINA 25MG, CLORIDRATO</t>
-  </si>
-  <si>
-    <t>HALOPERIDOL 5MG</t>
-  </si>
-  <si>
-    <t>CLORPROMAZINA 40MG/ML SOL ORAL</t>
-  </si>
-  <si>
-    <t>HALOPERIDOL 2MG/ML SOL ORAL</t>
-  </si>
-  <si>
-    <t>CLORPROMAZINA 25MG</t>
-  </si>
-  <si>
-    <t>CODEINA 30MG</t>
-  </si>
-  <si>
-    <t>IMIPRAMINA 25MG</t>
-  </si>
-  <si>
-    <t>RISPERIDONA 3MG</t>
-  </si>
-  <si>
-    <t>RISPERIDONA 1MG</t>
-  </si>
-  <si>
-    <t>LEVOMEPROMAZINA 4% GOTAS</t>
-  </si>
-  <si>
-    <t>LIDOCAINA 2% C/ VASO CONSTRITO</t>
-  </si>
-  <si>
-    <t>NITRATO DE CERIO +SULFADIAZINA</t>
-  </si>
-  <si>
-    <t>COLAGENASE+CLORAFENICOL POMADA 30g</t>
-  </si>
-  <si>
-    <t>5000ui</t>
-  </si>
-  <si>
-    <t>25mg</t>
-  </si>
-  <si>
-    <t>5mg</t>
-  </si>
-  <si>
-    <t>40mg/ml</t>
-  </si>
-  <si>
-    <t>2mg/ml</t>
-  </si>
-  <si>
-    <t>30mg</t>
-  </si>
-  <si>
-    <t>3mg</t>
-  </si>
-  <si>
-    <t>1mg</t>
-  </si>
-  <si>
-    <t>4%</t>
-  </si>
-  <si>
-    <t>2%</t>
-  </si>
-  <si>
-    <t>Concentração não encontrada</t>
-  </si>
-  <si>
-    <t>30g</t>
-  </si>
-  <si>
-    <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
-  </si>
-  <si>
-    <t>LABORATÓRIO TEUTO BRASILEIRO S/A</t>
-  </si>
-  <si>
-    <t>CELLERA FARMACÊUTICA S.A.</t>
-  </si>
-  <si>
-    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
-  </si>
-  <si>
-    <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
-  </si>
-  <si>
-    <t>102980371</t>
-  </si>
-  <si>
-    <t>103700321</t>
-  </si>
-  <si>
-    <t>112360011</t>
-  </si>
-  <si>
-    <t>Último registro encontrado: 183260385</t>
-  </si>
-  <si>
-    <t>183260385</t>
-  </si>
-  <si>
-    <t>102980199</t>
-  </si>
-  <si>
-    <t>102980023</t>
-  </si>
-  <si>
-    <t>103920197</t>
-  </si>
-  <si>
-    <t>Último registro encontrado: 183260316</t>
-  </si>
-  <si>
-    <t>102980249</t>
-  </si>
-  <si>
-    <t>Último registro encontrado: 102980560</t>
-  </si>
-  <si>
-    <t>102980431</t>
+    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
+  </si>
+  <si>
+    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 250ML</t>
+  </si>
+  <si>
+    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 500ML</t>
+  </si>
+  <si>
+    <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
+  </si>
+  <si>
+    <t>1000ml</t>
+  </si>
+  <si>
+    <t>250ml</t>
+  </si>
+  <si>
+    <t>500ml</t>
+  </si>
+  <si>
+    <t>JP INDUSTRIA FARMACEUTICA S/A</t>
+  </si>
+  <si>
+    <t>104910019</t>
+  </si>
+  <si>
+    <t>104910020</t>
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>Pendente</t>
   </si>
 </sst>
 </file>
@@ -524,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,282 +450,82 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
         <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="336">
   <si>
     <t>Item</t>
   </si>
@@ -34,37 +34,994 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 250ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 500ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-  </si>
-  <si>
-    <t>1000ml</t>
-  </si>
-  <si>
-    <t>250ml</t>
-  </si>
-  <si>
-    <t>500ml</t>
-  </si>
-  <si>
-    <t>JP INDUSTRIA FARMACEUTICA S/A</t>
-  </si>
-  <si>
-    <t>104910019</t>
-  </si>
-  <si>
-    <t>104910020</t>
+    <t>ACETATO DE DEXAMETASONA CREME 1MG//G TUBO 10 G</t>
+  </si>
+  <si>
+    <t>ACETATO DE MEDROXIPROGESTERONA SUSPENSAO INJETAVEL 150 MG/ML</t>
+  </si>
+  <si>
+    <t>ACIDO ACETILSALICILICO 100 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ACIDO FOLICO 5MG</t>
+  </si>
+  <si>
+    <t>ACIDO VALPROICO 250MG</t>
+  </si>
+  <si>
+    <t>ACIDO VALPROICO 500 MG</t>
+  </si>
+  <si>
+    <t>ALBENDAZOL 40 MG/ML SUSPENSAO ORAL   - FRASCO COM 10 ML  - FRASCO COM 10 ML</t>
+  </si>
+  <si>
+    <t>ALBENDAZOL 400 MG COMPRIMIDO MASTIGAVEL</t>
+  </si>
+  <si>
+    <t>ALENDRONATO SODIO 70 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ALOPURINOL 100 MG</t>
+  </si>
+  <si>
+    <t>ALOPURINOL 300 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>AMOXICILINA 250MG/5ML SUSPENSAO ORAL 150ML</t>
+  </si>
+  <si>
+    <t>AMOXILINA + CLAVULANATO DE POTASSIO 50+12,5 MG/ML PO PARA SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>AMOXILINA + CLAVULANATO DE POTASSIO 500+125 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>AMOXILINA 500MG CAPSULA</t>
+  </si>
+  <si>
+    <t>ANLODIPINO BESILATO 10 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ATENOLOL 50MG</t>
+  </si>
+  <si>
+    <t>AZITROMICINA 40 MG/ML (600 MG) PO PARA SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>AZITROMICINA DI-HIDRATADA 500MG</t>
+  </si>
+  <si>
+    <t>BENZOILMETRONIDAZOL 40MG/ML SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>BESILATO DE ANLODIPINO  5MG</t>
+  </si>
+  <si>
+    <t>CAPTOPRIL 25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARBAMAZEPINA 20 MG/ML SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>CARBAMAZEPINA 200 MG</t>
+  </si>
+  <si>
+    <t>CARBONATO DE CALCIO 500MG</t>
+  </si>
+  <si>
+    <t>CARBONATO DE LITIO 300MG</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 12,5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 3,125 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 6,25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CEFALEXINA 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CEFALEXINA SUSPENSAO ORAL 250MG/5ML 100ML</t>
+  </si>
+  <si>
+    <t>CETOCONAZOL 20MG/ML SHAMPOO</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACINO CLORIDRATO 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CLARITROMICINA 500MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA 200MCG SPRAY 200 DOSES 10ML</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA 50MCG SPRAY 200 DOSES 10ML</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA 250 MCG/DOSE SOL AER CT TB AL + DISPOSITIVO ORAL X 200 DOSES</t>
+  </si>
+  <si>
+    <t>CLONAZEPAM 2,5MG/ML</t>
+  </si>
+  <si>
+    <t>CLORETO DE SODIO 9 MG/ML SOLUCAO NASAL (NASOJET)</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE AMIODARONA 200MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE AMITRIPTILINA 25 MG CAIXA COM 30</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLOMIPRAMINA 25 MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA 100MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA 25MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA 40MG/ML SOL OR CT FR VD GOTAS X 20ML 4%</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE HIDRALAZINA 25MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE IMIPRAMINA 25 MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE PROPRANOLOL 40MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE VERAPAMIL 80MG</t>
+  </si>
+  <si>
+    <t>DEXAMETASONA 1 MG/ML (0,1%) SUSPENSAO OFTALMICA</t>
+  </si>
+  <si>
+    <t>DEXCLORFENIRAMINA MALEATO 0,4 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>DEXCLORFENIRAMINA MALEATO 2MG</t>
+  </si>
+  <si>
+    <t>DIAZEPAM 10 MG</t>
+  </si>
+  <si>
+    <t>DIAZEPAM 5 MG</t>
+  </si>
+  <si>
+    <t>DIGOXINA 0,25 MG</t>
+  </si>
+  <si>
+    <t>DINITRATO DE ISOSSORBIDA 5MG SUBLINGUAL</t>
+  </si>
+  <si>
+    <t>DIPIRONA SODICA 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>DIPIRONA SODICA 500MG/ML FRASCO 20ML</t>
+  </si>
+  <si>
+    <t>DOXAZOSINA 2MG</t>
+  </si>
+  <si>
+    <t>DOXAZOSINA MESILATO 4MG</t>
+  </si>
+  <si>
+    <t>ENALAPRIL MALEATO 10 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ENALAPRIL MALEATO 20 MG</t>
+  </si>
+  <si>
+    <t>ENALAPRIL MALEATO 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ESPIRONOCTONA 25 MG</t>
+  </si>
+  <si>
+    <t>ESTRIOL 1MG/G CREME VAGINAL</t>
+  </si>
+  <si>
+    <t>FENITOINA SODICA 100 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>FENOBARBITAL 100MG</t>
+  </si>
+  <si>
+    <t>FENOBARBITAL SODICO 40 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>FLUCONAZOL 150 MG - CAPSULA</t>
+  </si>
+  <si>
+    <t>FLUOXETINA CLORIDRATO 20 MG CAPSULA</t>
+  </si>
+  <si>
+    <t>FOSFATO DE SODIO DE PREDNISOLONA 3MG/ML XAROPE</t>
+  </si>
+  <si>
+    <t>FUROSEMIDA 40 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>GLIBENCLAMIDA 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA 30 MG</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA 60MG COMPRIMIDO DE LIBERACAO PROLONGADA</t>
+  </si>
+  <si>
+    <t>GLICOSIMETROS (MEDIDOR DE GLICOSE)</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL 1MG</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>HIDROCLOROTIAZIDA 25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>HIDROCORTISONA ACETATO 10MG/G CREME DERMATOLOGICO</t>
+  </si>
+  <si>
+    <t>IBUPROFENO 50MG/ML</t>
+  </si>
+  <si>
+    <t>IBUPROFENO 600 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ISOSSORBIDA MONONITRATO 20 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ISOSSORBIDA MONONITRATO 40 MG</t>
+  </si>
+  <si>
+    <t>ITRACONAZOL 100MG</t>
+  </si>
+  <si>
+    <t>IVERMECTINA 6MG</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SODICA 100 MCG</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SODICA 25 MCG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SODICA 50 MCG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>LORATADINA 1 MG/ML XAROPE</t>
+  </si>
+  <si>
+    <t>LORATADINA 10MG</t>
+  </si>
+  <si>
+    <t>LOSARTANA POTASSICA 50MG</t>
+  </si>
+  <si>
+    <t>MALEATO DE TIMOLOL 5MG/ML 0,5%</t>
+  </si>
+  <si>
+    <t>METFORMINA CLORIDRATO  850 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METFORMINA CLORIDRATO 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METILDOPA 250 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METOCLOPRAMIDA CLORIDRATO 10 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METOCLOPRAMIDA CLORIDRATO 4 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>METOPROLOL SUCCINATO 100 MCG COMPRIMIDO REVESTIDO DE LIBERACAO CONTROLADA</t>
+  </si>
+  <si>
+    <t>METOPROLOL SUCCINATO 50 MG COMPRIMIDO REVESTIDO DE LIBERACAO CONTROLADA</t>
+  </si>
+  <si>
+    <t>METRONIDAZOL 250 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METRONIDAZOL 400 MG</t>
+  </si>
+  <si>
+    <t>MICONAZOL NITRATO 20 MG/G CREME VAGINAL</t>
+  </si>
+  <si>
+    <t>NITRATO DE MICONAZOL 20 MG CREME DERMATOLOGICO - EMBALAGEM 28 GRAMAS</t>
+  </si>
+  <si>
+    <t>NITROFURANTOINA 100 MG CAPSULA</t>
+  </si>
+  <si>
+    <t>ENANTATO DE NORETISTERONA + VALERATO DE ESTRADIOL 50 + 5 MG/ML SOLUÇÃO INJETÁVEL C/ 1 AMPOLA 1 ML</t>
+  </si>
+  <si>
+    <t>NORTRIPTILINA CLORIDRATO 25 MG</t>
+  </si>
+  <si>
+    <t>NORTRIPTILINA CLORIDRATO 50 MG CAPSULA</t>
+  </si>
+  <si>
+    <t>OMEPRAZOL 20MG</t>
+  </si>
+  <si>
+    <t>PARACETAMOL 200 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>PARACETAMOL 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>PREDNISONA 20 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>PREDNISONA 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>LEVODORA + CLORIDRATO DE BENZERAZIDA 100/25 MG BD</t>
+  </si>
+  <si>
+    <t>LEVODORA + CORIDRATO DE BENZERAZIDA 200MG/50 MG</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 10MG</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 20 MG</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 40 MG</t>
+  </si>
+  <si>
+    <t>SULFADIAZINA DE PRATA 10 MG/G CREME</t>
+  </si>
+  <si>
+    <t>SULFAMETOXAZOL + TRIMETROPRIMA 40 + 8 MG/ML SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>SULFAMETOXAZOL + TRIMETROPRIMA 400 + 80 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>SULFATO DE SALBUTAMOL 100MCG AEROSOL ORAL</t>
+  </si>
+  <si>
+    <t>SULFATO FERROSO 125 MG/ML GOTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA PARA TESTES DE GLICEMIA COMPATIVEL PARA O APARELHO ACCU-CHEK ACTIVE </t>
+  </si>
+  <si>
+    <t>VARFARINA SODICA 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>1mg</t>
+  </si>
+  <si>
+    <t>150 mg/ml</t>
+  </si>
+  <si>
+    <t>100 mg</t>
+  </si>
+  <si>
+    <t>5mg</t>
+  </si>
+  <si>
+    <t>250mg</t>
+  </si>
+  <si>
+    <t>500 mg</t>
+  </si>
+  <si>
+    <t>40 mg/ml</t>
+  </si>
+  <si>
+    <t>400 mg</t>
+  </si>
+  <si>
+    <t>70 mg</t>
+  </si>
+  <si>
+    <t>300 mg</t>
+  </si>
+  <si>
+    <t>5 mg/ml</t>
+  </si>
+  <si>
+    <t>125 mg</t>
+  </si>
+  <si>
+    <t>500mg</t>
+  </si>
+  <si>
+    <t>10 mg</t>
+  </si>
+  <si>
+    <t>50mg</t>
+  </si>
+  <si>
+    <t>40mg/ml</t>
+  </si>
+  <si>
+    <t>25 mg</t>
+  </si>
+  <si>
+    <t>20 mg/ml</t>
+  </si>
+  <si>
+    <t>200 mg</t>
+  </si>
+  <si>
+    <t>300mg</t>
+  </si>
+  <si>
+    <t>5 mg</t>
+  </si>
+  <si>
+    <t>20mg/ml</t>
+  </si>
+  <si>
+    <t>200mcg</t>
+  </si>
+  <si>
+    <t>50mcg</t>
+  </si>
+  <si>
+    <t>250 mcg</t>
+  </si>
+  <si>
+    <t>5mg/ml</t>
+  </si>
+  <si>
+    <t>9 mg/ml</t>
+  </si>
+  <si>
+    <t>200mg</t>
+  </si>
+  <si>
+    <t>100mg</t>
+  </si>
+  <si>
+    <t>25mg</t>
+  </si>
+  <si>
+    <t>40mg</t>
+  </si>
+  <si>
+    <t>80mg</t>
+  </si>
+  <si>
+    <t>1 mg/ml</t>
+  </si>
+  <si>
+    <t>4 mg/ml</t>
+  </si>
+  <si>
+    <t>2mg</t>
+  </si>
+  <si>
+    <t>500mg/ml</t>
+  </si>
+  <si>
+    <t>4mg</t>
+  </si>
+  <si>
+    <t>20 mg</t>
+  </si>
+  <si>
+    <t>150 mg</t>
+  </si>
+  <si>
+    <t>3mg/ml</t>
+  </si>
+  <si>
+    <t>40 mg</t>
+  </si>
+  <si>
+    <t>30 mg</t>
+  </si>
+  <si>
+    <t>60mg</t>
+  </si>
+  <si>
+    <t>Concentração não encontrada</t>
+  </si>
+  <si>
+    <t>10mg</t>
+  </si>
+  <si>
+    <t>50mg/ml</t>
+  </si>
+  <si>
+    <t>600 mg</t>
+  </si>
+  <si>
+    <t>6mg</t>
+  </si>
+  <si>
+    <t>100 mcg</t>
+  </si>
+  <si>
+    <t>25 mcg</t>
+  </si>
+  <si>
+    <t>50 mcg</t>
+  </si>
+  <si>
+    <t>850 mg</t>
+  </si>
+  <si>
+    <t>250 mg</t>
+  </si>
+  <si>
+    <t>50 mg</t>
+  </si>
+  <si>
+    <t>20mg</t>
+  </si>
+  <si>
+    <t>200 mg/ml</t>
+  </si>
+  <si>
+    <t>8 mg/ml</t>
+  </si>
+  <si>
+    <t>80 mg</t>
+  </si>
+  <si>
+    <t>100mcg</t>
+  </si>
+  <si>
+    <t>125 mg/ml</t>
+  </si>
+  <si>
+    <t>LABORATÓRIOS OSÓRIO DE MORAES LTDA</t>
+  </si>
+  <si>
+    <t>EMS SIGMA PHARMA LTDA</t>
+  </si>
+  <si>
+    <t>BRASTERAPICA INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>GEOLAB INDÚSTRIA FARMACÊUTICA S/A</t>
+  </si>
+  <si>
+    <t>BIOLAB SANUS FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>CELLERA FARMACÊUTICA S.A.</t>
+  </si>
+  <si>
+    <t>SANDOZ DO BRASIL INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>EUROFARMA LABORATÓRIOS S.A.</t>
+  </si>
+  <si>
+    <t>BRAINFARMA INDÚSTRIA QUÍMICA E FARMACÊUTICA S.A</t>
+  </si>
+  <si>
+    <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>PHARLAB INDÚSTRIA FARMACÊUTICA S.A.</t>
+  </si>
+  <si>
+    <t>BELFAR LTDA</t>
+  </si>
+  <si>
+    <t>NOVARTIS BIOCIENCIAS S.A</t>
+  </si>
+  <si>
+    <t>GERMED FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>Nutivit/Imec</t>
+  </si>
+  <si>
+    <t>NOVA QUIMICA FARMACÊUTICA S/A</t>
+  </si>
+  <si>
+    <t>NATIVITA IND. COM. LTDA</t>
+  </si>
+  <si>
+    <t>CHIESI FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>NATULAB LABORATÓRIO S.A</t>
+  </si>
+  <si>
+    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>AIRELA INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO TEUTO BRASILEIRO S/A</t>
+  </si>
+  <si>
+    <t>MEDQUIMICA INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>ACHÉ LABORATÓRIOS FARMACÊUTICOS S.A</t>
+  </si>
+  <si>
+    <t>On Call Plus</t>
+  </si>
+  <si>
+    <t>LEGRAND PHARMA INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>MERCK S/A</t>
+  </si>
+  <si>
+    <t>MULTILAB INDÚSTRIA E COMÉRCIO DE PRODUTOS FARMACÊUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>CIFARMA CIENTÍFICA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>RANBAXY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO GLOBO SA</t>
+  </si>
+  <si>
+    <t>PRODUTOS ROCHE QUÍMICOS E FARMACÊUTICOS S.A.</t>
+  </si>
+  <si>
+    <t>PHARMASCIENCE INDUSTRIA FARMACEUTICA S.A</t>
+  </si>
+  <si>
+    <t>Arte Nativa</t>
+  </si>
+  <si>
+    <t>UNIÃO QUÍMICA FARMACÊUTICA NACIONAL S/A</t>
+  </si>
+  <si>
+    <t>105040038</t>
+  </si>
+  <si>
+    <t>105830220</t>
+  </si>
+  <si>
+    <t>100380043</t>
+  </si>
+  <si>
+    <t>154230142</t>
+  </si>
+  <si>
+    <t>109740046</t>
+  </si>
+  <si>
+    <t>154230044</t>
+  </si>
+  <si>
+    <t>154230329</t>
+  </si>
+  <si>
+    <t>104400157</t>
+  </si>
+  <si>
+    <t>100681154</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 100431171</t>
+  </si>
+  <si>
+    <t>102351143</t>
+  </si>
+  <si>
+    <t>167730644</t>
+  </si>
+  <si>
+    <t>155840141</t>
+  </si>
+  <si>
+    <t>103920187</t>
+  </si>
+  <si>
+    <t>100470352</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 141070006</t>
+  </si>
+  <si>
+    <t>154230167</t>
+  </si>
+  <si>
+    <t>105710125</t>
+  </si>
+  <si>
+    <t>154230001</t>
+  </si>
+  <si>
+    <t>100680085</t>
+  </si>
+  <si>
+    <t>105830847</t>
+  </si>
+  <si>
+    <t>Não encontrado</t>
+  </si>
+  <si>
+    <t>109740309</t>
+  </si>
+  <si>
+    <t>109740324</t>
+  </si>
+  <si>
+    <t>102351370</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 155840056</t>
+  </si>
+  <si>
+    <t>147610020</t>
+  </si>
+  <si>
+    <t>102351366</t>
+  </si>
+  <si>
+    <t>141070628</t>
+  </si>
+  <si>
+    <t>100580119</t>
+  </si>
+  <si>
+    <t>154230330</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 138410072</t>
+  </si>
+  <si>
+    <t>154230002</t>
+  </si>
+  <si>
+    <t>155840067</t>
+  </si>
+  <si>
+    <t>167730263</t>
+  </si>
+  <si>
+    <t>183260385</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 183260385</t>
+  </si>
+  <si>
+    <t>100680013</t>
+  </si>
+  <si>
+    <t>102980023</t>
+  </si>
+  <si>
+    <t>105040033</t>
+  </si>
+  <si>
+    <t>105830343</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 100681097</t>
+  </si>
+  <si>
+    <t>154230012</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 154230126</t>
+  </si>
+  <si>
+    <t>141070086</t>
+  </si>
+  <si>
+    <t>167730219</t>
+  </si>
+  <si>
+    <t>141070059</t>
+  </si>
+  <si>
+    <t>135690015</t>
+  </si>
+  <si>
+    <t>103920101</t>
+  </si>
+  <si>
+    <t>144930010</t>
+  </si>
+  <si>
+    <t>154230285</t>
+  </si>
+  <si>
+    <t>100431114</t>
+  </si>
+  <si>
+    <t>103920177</t>
+  </si>
+  <si>
+    <t>105710158</t>
+  </si>
+  <si>
+    <t>154230266</t>
+  </si>
+  <si>
+    <t>109740237</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 103700507</t>
+  </si>
+  <si>
+    <t>103700322</t>
+  </si>
+  <si>
+    <t>183260323</t>
+  </si>
+  <si>
+    <t>103920157</t>
+  </si>
+  <si>
+    <t>109170103</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 105730560</t>
+  </si>
+  <si>
+    <t>154230265</t>
+  </si>
+  <si>
+    <t>109170126</t>
+  </si>
+  <si>
+    <t>141070117</t>
+  </si>
+  <si>
+    <t>112360011</t>
+  </si>
+  <si>
+    <t>109170093</t>
+  </si>
+  <si>
+    <t>103700527</t>
+  </si>
+  <si>
+    <t>154230133</t>
+  </si>
+  <si>
+    <t>103920219</t>
+  </si>
+  <si>
+    <t>109740265</t>
+  </si>
+  <si>
+    <t>105730581</t>
+  </si>
+  <si>
+    <t>167730588</t>
+  </si>
+  <si>
+    <t>167730667</t>
+  </si>
+  <si>
+    <t>100890202</t>
+  </si>
+  <si>
+    <t>144930068</t>
+  </si>
+  <si>
+    <t>154230339</t>
+  </si>
+  <si>
+    <t>141070632</t>
+  </si>
+  <si>
+    <t>102350774</t>
+  </si>
+  <si>
+    <t>154230270</t>
+  </si>
+  <si>
+    <t>103920215</t>
+  </si>
+  <si>
+    <t>102350564</t>
+  </si>
+  <si>
+    <t>105710086</t>
+  </si>
+  <si>
+    <t>109170016</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 109740350</t>
+  </si>
+  <si>
+    <t>109740334</t>
+  </si>
+  <si>
+    <t>155840308</t>
+  </si>
+  <si>
+    <t>167730181</t>
+  </si>
+  <si>
+    <t>105710019</t>
+  </si>
+  <si>
+    <t>103700579</t>
+  </si>
+  <si>
+    <t>115600234</t>
+  </si>
+  <si>
+    <t>123520191</t>
+  </si>
+  <si>
+    <t>154230313</t>
+  </si>
+  <si>
+    <t>154230008</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 105710133</t>
+  </si>
+  <si>
+    <t>105350218</t>
+  </si>
+  <si>
+    <t>167730519</t>
+  </si>
+  <si>
+    <t>101000064</t>
+  </si>
+  <si>
+    <t>141070108</t>
+  </si>
+  <si>
+    <t>118190228</t>
+  </si>
+  <si>
+    <t>100470270</t>
+  </si>
+  <si>
+    <t>147610023</t>
+  </si>
+  <si>
+    <t>167730253</t>
+  </si>
+  <si>
+    <t>103920212</t>
+  </si>
+  <si>
+    <t>117170009</t>
+  </si>
+  <si>
+    <t>104971323</t>
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Pendente</t>
   </si>
 </sst>
 </file>
@@ -422,7 +1379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,82 +1407,2522 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" t="s">
+        <v>240</v>
+      </c>
+      <c r="F16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" t="s">
+        <v>242</v>
+      </c>
+      <c r="F18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" t="s">
+        <v>243</v>
+      </c>
+      <c r="F19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" t="s">
+        <v>241</v>
+      </c>
+      <c r="F22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" t="s">
+        <v>247</v>
+      </c>
+      <c r="F24" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" t="s">
+        <v>248</v>
+      </c>
+      <c r="F25" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" t="s">
+        <v>249</v>
+      </c>
+      <c r="F26" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" t="s">
+        <v>250</v>
+      </c>
+      <c r="F27" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" t="s">
+        <v>251</v>
+      </c>
+      <c r="F28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" t="s">
+        <v>251</v>
+      </c>
+      <c r="F29" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" t="s">
+        <v>251</v>
+      </c>
+      <c r="F30" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" t="s">
+        <v>251</v>
+      </c>
+      <c r="F31" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" t="s">
+        <v>252</v>
+      </c>
+      <c r="F32" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" t="s">
+        <v>253</v>
+      </c>
+      <c r="F33" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F34" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" t="s">
+        <v>255</v>
+      </c>
+      <c r="F35" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" t="s">
+        <v>256</v>
+      </c>
+      <c r="F36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" t="s">
+        <v>257</v>
+      </c>
+      <c r="F37" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E39" t="s">
+        <v>257</v>
+      </c>
+      <c r="F39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E40" t="s">
+        <v>258</v>
+      </c>
+      <c r="F40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" t="s">
+        <v>259</v>
+      </c>
+      <c r="F41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" t="s">
+        <v>260</v>
+      </c>
+      <c r="F42" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" t="s">
+        <v>261</v>
+      </c>
+      <c r="F43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" t="s">
+        <v>205</v>
+      </c>
+      <c r="E44" t="s">
+        <v>262</v>
+      </c>
+      <c r="F44" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" t="s">
+        <v>263</v>
+      </c>
+      <c r="F45" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" t="s">
+        <v>263</v>
+      </c>
+      <c r="F46" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" t="s">
+        <v>264</v>
+      </c>
+      <c r="F47" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" t="s">
+        <v>265</v>
+      </c>
+      <c r="F48" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49" t="s">
+        <v>266</v>
+      </c>
+      <c r="F49" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" t="s">
+        <v>267</v>
+      </c>
+      <c r="F50" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" t="s">
+        <v>268</v>
+      </c>
+      <c r="F51" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" t="s">
+        <v>269</v>
+      </c>
+      <c r="F52" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" t="s">
+        <v>195</v>
+      </c>
+      <c r="E53" t="s">
+        <v>270</v>
+      </c>
+      <c r="F53" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" t="s">
+        <v>271</v>
+      </c>
+      <c r="F54" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" t="s">
+        <v>272</v>
+      </c>
+      <c r="F55" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" t="s">
+        <v>205</v>
+      </c>
+      <c r="E56" t="s">
+        <v>273</v>
+      </c>
+      <c r="F56" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57" t="s">
+        <v>274</v>
+      </c>
+      <c r="F57" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" t="s">
+        <v>275</v>
+      </c>
+      <c r="F58" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" t="s">
+        <v>201</v>
+      </c>
+      <c r="E59" t="s">
+        <v>276</v>
+      </c>
+      <c r="F59" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" t="s">
+        <v>213</v>
+      </c>
+      <c r="E60" t="s">
+        <v>277</v>
+      </c>
+      <c r="F60" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" t="s">
+        <v>278</v>
+      </c>
+      <c r="F61" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" t="s">
+        <v>279</v>
+      </c>
+      <c r="F62" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" t="s">
+        <v>201</v>
+      </c>
+      <c r="E63" t="s">
+        <v>280</v>
+      </c>
+      <c r="F63" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" t="s">
+        <v>201</v>
+      </c>
+      <c r="E64" t="s">
+        <v>280</v>
+      </c>
+      <c r="F64" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" t="s">
+        <v>203</v>
+      </c>
+      <c r="E65" t="s">
+        <v>281</v>
+      </c>
+      <c r="F65" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" t="s">
+        <v>195</v>
+      </c>
+      <c r="E66" t="s">
+        <v>282</v>
+      </c>
+      <c r="F66" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" t="s">
+        <v>196</v>
+      </c>
+      <c r="E67" t="s">
+        <v>283</v>
+      </c>
+      <c r="F67" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" t="s">
+        <v>214</v>
+      </c>
+      <c r="E68" t="s">
+        <v>284</v>
+      </c>
+      <c r="F68" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" t="s">
+        <v>214</v>
+      </c>
+      <c r="E69" t="s">
+        <v>285</v>
+      </c>
+      <c r="F69" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" t="s">
+        <v>211</v>
+      </c>
+      <c r="E70" t="s">
+        <v>286</v>
+      </c>
+      <c r="F70" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" t="s">
+        <v>201</v>
+      </c>
+      <c r="E71" t="s">
+        <v>287</v>
+      </c>
+      <c r="F71" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" t="s">
+        <v>215</v>
+      </c>
+      <c r="E72" t="s">
+        <v>288</v>
+      </c>
+      <c r="F72" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" t="s">
+        <v>216</v>
+      </c>
+      <c r="E73" t="s">
+        <v>289</v>
+      </c>
+      <c r="F73" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" t="s">
+        <v>195</v>
+      </c>
+      <c r="E74" t="s">
+        <v>290</v>
+      </c>
+      <c r="F74" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" t="s">
+        <v>215</v>
+      </c>
+      <c r="E75" t="s">
+        <v>291</v>
+      </c>
+      <c r="F75" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>173</v>
+      </c>
+      <c r="D76" t="s">
+        <v>202</v>
+      </c>
+      <c r="E76" t="s">
+        <v>292</v>
+      </c>
+      <c r="F76" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E77" t="s">
+        <v>292</v>
+      </c>
+      <c r="F77" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" t="s">
+        <v>175</v>
+      </c>
+      <c r="D78" t="s">
+        <v>217</v>
+      </c>
+      <c r="E78" t="s">
+        <v>249</v>
+      </c>
+      <c r="F78" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79" t="s">
+        <v>197</v>
+      </c>
+      <c r="E79" t="s">
+        <v>293</v>
+      </c>
+      <c r="F79" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" t="s">
+        <v>152</v>
+      </c>
+      <c r="D80" t="s">
+        <v>197</v>
+      </c>
+      <c r="E80" t="s">
+        <v>293</v>
+      </c>
+      <c r="F80" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" t="s">
+        <v>148</v>
+      </c>
+      <c r="D81" t="s">
+        <v>215</v>
+      </c>
+      <c r="E81" t="s">
+        <v>294</v>
+      </c>
+      <c r="F81" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" t="s">
+        <v>214</v>
+      </c>
+      <c r="E82" t="s">
+        <v>295</v>
+      </c>
+      <c r="F82" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>177</v>
+      </c>
+      <c r="D83" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83" t="s">
+        <v>296</v>
+      </c>
+      <c r="F83" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" t="s">
+        <v>201</v>
+      </c>
+      <c r="E84" t="s">
+        <v>297</v>
+      </c>
+      <c r="F84" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>90</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" t="s">
+        <v>196</v>
+      </c>
+      <c r="E85" t="s">
+        <v>298</v>
+      </c>
+      <c r="F85" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" t="s">
+        <v>216</v>
+      </c>
+      <c r="E86" t="s">
+        <v>299</v>
+      </c>
+      <c r="F86" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>92</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87" t="s">
+        <v>218</v>
+      </c>
+      <c r="E87" t="s">
+        <v>300</v>
+      </c>
+      <c r="F87" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" t="s">
+        <v>205</v>
+      </c>
+      <c r="E88" t="s">
+        <v>301</v>
+      </c>
+      <c r="F88" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" t="s">
+        <v>219</v>
+      </c>
+      <c r="E89" t="s">
+        <v>302</v>
+      </c>
+      <c r="F89" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90" t="s">
+        <v>219</v>
+      </c>
+      <c r="E90" t="s">
+        <v>302</v>
+      </c>
+      <c r="F90" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" t="s">
+        <v>219</v>
+      </c>
+      <c r="E91" t="s">
+        <v>302</v>
+      </c>
+      <c r="F91" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" t="s">
+        <v>164</v>
+      </c>
+      <c r="D92" t="s">
+        <v>213</v>
+      </c>
+      <c r="E92" t="s">
+        <v>303</v>
+      </c>
+      <c r="F92" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" t="s">
+        <v>176</v>
+      </c>
+      <c r="D93" t="s">
+        <v>195</v>
+      </c>
+      <c r="E93" t="s">
+        <v>304</v>
+      </c>
+      <c r="F93" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" t="s">
+        <v>146</v>
+      </c>
+      <c r="D94" t="s">
+        <v>202</v>
+      </c>
+      <c r="E94" t="s">
+        <v>305</v>
+      </c>
+      <c r="F94" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>102</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" t="s">
+        <v>157</v>
+      </c>
+      <c r="D95" t="s">
+        <v>205</v>
+      </c>
+      <c r="E95" t="s">
+        <v>306</v>
+      </c>
+      <c r="F95" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" t="s">
+        <v>195</v>
+      </c>
+      <c r="E96" t="s">
+        <v>307</v>
+      </c>
+      <c r="F96" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>104</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" t="s">
+        <v>137</v>
+      </c>
+      <c r="D97" t="s">
+        <v>201</v>
+      </c>
+      <c r="E97" t="s">
+        <v>308</v>
+      </c>
+      <c r="F97" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" t="s">
+        <v>184</v>
+      </c>
+      <c r="D98" t="s">
+        <v>193</v>
+      </c>
+      <c r="E98" t="s">
+        <v>309</v>
+      </c>
+      <c r="F98" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" t="s">
+        <v>203</v>
+      </c>
+      <c r="E99" t="s">
+        <v>310</v>
+      </c>
+      <c r="F99" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" t="s">
+        <v>165</v>
+      </c>
+      <c r="D100" t="s">
+        <v>215</v>
+      </c>
+      <c r="E100" t="s">
+        <v>311</v>
+      </c>
+      <c r="F100" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>108</v>
+      </c>
+      <c r="B101" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" t="s">
+        <v>180</v>
+      </c>
+      <c r="D101" t="s">
+        <v>196</v>
+      </c>
+      <c r="E101" t="s">
+        <v>312</v>
+      </c>
+      <c r="F101" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>110</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" t="s">
+        <v>185</v>
+      </c>
+      <c r="D102" t="s">
+        <v>196</v>
+      </c>
+      <c r="E102" t="s">
+        <v>313</v>
+      </c>
+      <c r="F102" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>111</v>
+      </c>
+      <c r="B103" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" t="s">
+        <v>184</v>
+      </c>
+      <c r="D103" t="s">
+        <v>200</v>
+      </c>
+      <c r="E103" t="s">
+        <v>314</v>
+      </c>
+      <c r="F103" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>112</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" t="s">
+        <v>139</v>
+      </c>
+      <c r="D104" t="s">
+        <v>220</v>
+      </c>
+      <c r="E104" t="s">
+        <v>315</v>
+      </c>
+      <c r="F104" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>113</v>
+      </c>
+      <c r="B105" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" t="s">
+        <v>169</v>
+      </c>
+      <c r="D105" t="s">
+        <v>203</v>
+      </c>
+      <c r="E105" t="s">
+        <v>316</v>
+      </c>
+      <c r="F105" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>114</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" t="s">
+        <v>169</v>
+      </c>
+      <c r="D106" t="s">
+        <v>208</v>
+      </c>
+      <c r="E106" t="s">
+        <v>249</v>
+      </c>
+      <c r="F106" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>115</v>
+      </c>
+      <c r="B107" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" t="s">
+        <v>134</v>
+      </c>
+      <c r="D107" t="s">
+        <v>214</v>
+      </c>
+      <c r="E107" t="s">
+        <v>317</v>
+      </c>
+      <c r="F107" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>116</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" t="s">
+        <v>142</v>
+      </c>
+      <c r="D108" t="s">
+        <v>221</v>
+      </c>
+      <c r="E108" t="s">
+        <v>318</v>
+      </c>
+      <c r="F108" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>117</v>
+      </c>
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" t="s">
+        <v>148</v>
+      </c>
+      <c r="D109" t="s">
+        <v>222</v>
+      </c>
+      <c r="E109" t="s">
+        <v>319</v>
+      </c>
+      <c r="F109" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>118</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" t="s">
+        <v>185</v>
+      </c>
+      <c r="D110" t="s">
+        <v>222</v>
+      </c>
+      <c r="E110" t="s">
+        <v>319</v>
+      </c>
+      <c r="F110" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>119</v>
+      </c>
+      <c r="B111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" t="s">
+        <v>186</v>
+      </c>
+      <c r="D111" t="s">
+        <v>195</v>
+      </c>
+      <c r="E111" t="s">
+        <v>320</v>
+      </c>
+      <c r="F111" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>120</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" t="s">
+        <v>187</v>
+      </c>
+      <c r="D112" t="s">
+        <v>195</v>
+      </c>
+      <c r="E112" t="s">
+        <v>321</v>
+      </c>
+      <c r="F112" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>121</v>
+      </c>
+      <c r="B113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" t="s">
+        <v>137</v>
+      </c>
+      <c r="D113" t="s">
+        <v>203</v>
+      </c>
+      <c r="E113" t="s">
+        <v>322</v>
+      </c>
+      <c r="F113" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>122</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" t="s">
+        <v>169</v>
+      </c>
+      <c r="D114" t="s">
+        <v>223</v>
+      </c>
+      <c r="E114" t="s">
+        <v>323</v>
+      </c>
+      <c r="F114" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>123</v>
+      </c>
+      <c r="B115" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" t="s">
+        <v>152</v>
+      </c>
+      <c r="D115" t="s">
+        <v>207</v>
+      </c>
+      <c r="E115" t="s">
+        <v>324</v>
+      </c>
+      <c r="F115" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>124</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" t="s">
+        <v>148</v>
+      </c>
+      <c r="D116" t="s">
+        <v>224</v>
+      </c>
+      <c r="E116" t="s">
+        <v>325</v>
+      </c>
+      <c r="F116" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>125</v>
+      </c>
+      <c r="B117" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" t="s">
+        <v>159</v>
+      </c>
+      <c r="D117" t="s">
+        <v>224</v>
+      </c>
+      <c r="E117" t="s">
+        <v>249</v>
+      </c>
+      <c r="F117" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>127</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" t="s">
+        <v>176</v>
+      </c>
+      <c r="D118" t="s">
+        <v>202</v>
+      </c>
+      <c r="E118" t="s">
+        <v>326</v>
+      </c>
+      <c r="F118" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>128</v>
+      </c>
+      <c r="B119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" t="s">
+        <v>169</v>
+      </c>
+      <c r="D119" t="s">
+        <v>207</v>
+      </c>
+      <c r="E119" t="s">
+        <v>327</v>
+      </c>
+      <c r="F119" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>129</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" t="s">
+        <v>172</v>
+      </c>
+      <c r="D120" t="s">
+        <v>204</v>
+      </c>
+      <c r="E120" t="s">
+        <v>328</v>
+      </c>
+      <c r="F120" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>130</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" t="s">
+        <v>145</v>
+      </c>
+      <c r="D121" t="s">
+        <v>208</v>
+      </c>
+      <c r="E121" t="s">
+        <v>329</v>
+      </c>
+      <c r="F121" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>131</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" t="s">
+        <v>188</v>
+      </c>
+      <c r="D122" t="s">
+        <v>193</v>
+      </c>
+      <c r="E122" t="s">
+        <v>330</v>
+      </c>
+      <c r="F122" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>132</v>
+      </c>
+      <c r="B123" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" t="s">
+        <v>189</v>
+      </c>
+      <c r="D123" t="s">
+        <v>201</v>
+      </c>
+      <c r="E123" t="s">
+        <v>331</v>
+      </c>
+      <c r="F123" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>134</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124" t="s">
+        <v>190</v>
+      </c>
+      <c r="D124" t="s">
+        <v>225</v>
+      </c>
+      <c r="E124" t="s">
+        <v>332</v>
+      </c>
+      <c r="F124" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>135</v>
+      </c>
+      <c r="B125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" t="s">
+        <v>191</v>
+      </c>
+      <c r="D125" t="s">
+        <v>226</v>
+      </c>
+      <c r="E125" t="s">
+        <v>249</v>
+      </c>
+      <c r="F125" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>137</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" t="s">
+        <v>175</v>
+      </c>
+      <c r="D126" t="s">
+        <v>217</v>
+      </c>
+      <c r="E126" t="s">
+        <v>249</v>
+      </c>
+      <c r="F126" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>138</v>
+      </c>
+      <c r="B127" t="s">
+        <v>131</v>
+      </c>
+      <c r="C127" t="s">
+        <v>152</v>
+      </c>
+      <c r="D127" t="s">
+        <v>227</v>
+      </c>
+      <c r="E127" t="s">
+        <v>333</v>
+      </c>
+      <c r="F127" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>Item</t>
   </si>
@@ -34,34 +34,145 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 250ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 500ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-  </si>
-  <si>
-    <t>1000ml</t>
-  </si>
-  <si>
-    <t>250ml</t>
-  </si>
-  <si>
-    <t>500ml</t>
-  </si>
-  <si>
-    <t>JP INDUSTRIA FARMACEUTICA S/A</t>
-  </si>
-  <si>
-    <t>104910019</t>
-  </si>
-  <si>
-    <t>104910020</t>
+    <t>APARELHO MEDIDOR SENSOR FREESTYLE LIBRE -</t>
+  </si>
+  <si>
+    <t>SONDA URETRAL NR 12 MARK MED É UMA SONDA CONFECCIONADA EM TUBO DE PVC, ATÓXICO, APIROGÊNICO, CRISTAL, TRANSPARENTE DE PAREDES FINAS E MALEÁVEIS, COM 40 CM DE COMPRIMENTO.</t>
+  </si>
+  <si>
+    <t>ABAIXADOR DE LINGUA</t>
+  </si>
+  <si>
+    <t>ACCU CHECK LINK ASSIST (TEOZINHO)</t>
+  </si>
+  <si>
+    <t>ACCU CHEK PERFORMA 50 TIRAS (TEOZINHO)</t>
+  </si>
+  <si>
+    <t>AGULHA 13X4,5 COM 100 UNID</t>
+  </si>
+  <si>
+    <t>AGULHA 20X5,5 COM 100 UNID</t>
+  </si>
+  <si>
+    <t>APARELHO MEDIDOR DE PRESSÃO ARTERIAL MANUAL ESFIGMOMANÔMETRO ADULTO COM ESTETOSCÓPIO PREMIUM PARA USO PEDIÁTRICO</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPOM, 100% ALGODÃO CRU, FIOS DE ALTA TORÇÃO, COM ALTA ELASTICIDADE NO SENTIDO LONGITUDINAL, 13 FIOS Nº 06 CM</t>
+  </si>
+  <si>
+    <t>CAMISOLA SEM MANGA TAMANHO ÚNICO</t>
+  </si>
+  <si>
+    <t>CATETER INTRAVENOSO Nº 14G</t>
+  </si>
+  <si>
+    <t>CLOREXIDINA 2% SOLUÇÃO TÓPICO 1000 ML</t>
+  </si>
+  <si>
+    <t>CLOREXIDINA 4% SOLUÇÃO DEGEMANTE 1000 ML</t>
+  </si>
+  <si>
+    <t>COLETOR DE MAT. PERFURO CORTANTE (DESCARPAX) 07 LTS</t>
+  </si>
+  <si>
+    <t>INSULINA GLULISINA 100 UI/ML FRASCO COM 3 ML (APIDRA)</t>
+  </si>
+  <si>
+    <t>INSULINA HUMALOG INSULINA LISPRO 10 ML</t>
+  </si>
+  <si>
+    <t>Concentração não encontrada</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>14g</t>
+  </si>
+  <si>
+    <t>1000 ml</t>
+  </si>
+  <si>
+    <t>100 ui/ml</t>
+  </si>
+  <si>
+    <t>10 ml</t>
+  </si>
+  <si>
+    <t>ABBOTT LABORATÓRIOS DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>Markmed</t>
+  </si>
+  <si>
+    <t>Theoto</t>
+  </si>
+  <si>
+    <t>PRODUTOS ROCHE QUÍMICOS E FARMACÊUTICOS S.A.</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Cremer</t>
+  </si>
+  <si>
+    <t>Anadona</t>
+  </si>
+  <si>
+    <t>VIC</t>
+  </si>
+  <si>
+    <t>Rioquímica</t>
+  </si>
+  <si>
+    <t>Descarbox</t>
+  </si>
+  <si>
+    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>ELI LILLY DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 801465019</t>
+  </si>
+  <si>
+    <t>Não encontrado</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 800023690</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 103694602</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 103694601</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 100711500</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 801753490</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 103694600</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 809376300</t>
+  </si>
+  <si>
+    <t>183260343</t>
+  </si>
+  <si>
+    <t>112600179</t>
+  </si>
+  <si>
+    <t>Pendente</t>
   </si>
   <si>
     <t>OK</t>
@@ -422,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,82 +561,322 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>119</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>120</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="334">
   <si>
     <t>Item</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Concentração_Encontrada</t>
   </si>
   <si>
-    <t>Laboratório</t>
+    <t>Marca</t>
   </si>
   <si>
     <t>Registro</t>
@@ -34,148 +34,988 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>APARELHO MEDIDOR SENSOR FREESTYLE LIBRE -</t>
-  </si>
-  <si>
-    <t>SONDA URETRAL NR 12 MARK MED É UMA SONDA CONFECCIONADA EM TUBO DE PVC, ATÓXICO, APIROGÊNICO, CRISTAL, TRANSPARENTE DE PAREDES FINAS E MALEÁVEIS, COM 40 CM DE COMPRIMENTO.</t>
-  </si>
-  <si>
-    <t>ABAIXADOR DE LINGUA</t>
-  </si>
-  <si>
-    <t>ACCU CHECK LINK ASSIST (TEOZINHO)</t>
-  </si>
-  <si>
-    <t>ACCU CHEK PERFORMA 50 TIRAS (TEOZINHO)</t>
-  </si>
-  <si>
-    <t>AGULHA 13X4,5 COM 100 UNID</t>
-  </si>
-  <si>
-    <t>AGULHA 20X5,5 COM 100 UNID</t>
-  </si>
-  <si>
-    <t>APARELHO MEDIDOR DE PRESSÃO ARTERIAL MANUAL ESFIGMOMANÔMETRO ADULTO COM ESTETOSCÓPIO PREMIUM PARA USO PEDIÁTRICO</t>
-  </si>
-  <si>
-    <t>ATADURA DE CREPOM, 100% ALGODÃO CRU, FIOS DE ALTA TORÇÃO, COM ALTA ELASTICIDADE NO SENTIDO LONGITUDINAL, 13 FIOS Nº 06 CM</t>
-  </si>
-  <si>
-    <t>CAMISOLA SEM MANGA TAMANHO ÚNICO</t>
-  </si>
-  <si>
-    <t>CATETER INTRAVENOSO Nº 14G</t>
-  </si>
-  <si>
-    <t>CLOREXIDINA 2% SOLUÇÃO TÓPICO 1000 ML</t>
-  </si>
-  <si>
-    <t>CLOREXIDINA 4% SOLUÇÃO DEGEMANTE 1000 ML</t>
-  </si>
-  <si>
-    <t>COLETOR DE MAT. PERFURO CORTANTE (DESCARPAX) 07 LTS</t>
-  </si>
-  <si>
-    <t>INSULINA GLULISINA 100 UI/ML FRASCO COM 3 ML (APIDRA)</t>
-  </si>
-  <si>
-    <t>INSULINA HUMALOG INSULINA LISPRO 10 ML</t>
+    <t>ACETATO DE DEXAMETASONA CREME 1MG//G TUBO 10 G</t>
+  </si>
+  <si>
+    <t>ACETATO DE MEDROXIPROGESTERONA SUSPENSAO INJETAVEL 150 MG/ML</t>
+  </si>
+  <si>
+    <t>ACIDO ACETILSALICILICO 100 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ACIDO FOLICO 5MG</t>
+  </si>
+  <si>
+    <t>ACIDO VALPROICO 250MG</t>
+  </si>
+  <si>
+    <t>ACIDO VALPROICO 500 MG</t>
+  </si>
+  <si>
+    <t>ALBENDAZOL 40 MG/ML SUSPENSAO ORAL   - FRASCO COM 10 ML  - FRASCO COM 10 ML</t>
+  </si>
+  <si>
+    <t>ALBENDAZOL 400 MG COMPRIMIDO MASTIGAVEL</t>
+  </si>
+  <si>
+    <t>ALENDRONATO SODIO 70 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ALOPURINOL 100 MG</t>
+  </si>
+  <si>
+    <t>ALOPURINOL 300 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>AMOXICILINA 250MG/5ML SUSPENSAO ORAL 150ML</t>
+  </si>
+  <si>
+    <t>AMOXILINA + CLAVULANATO DE POTASSIO 50+12,5 MG/ML PO PARA SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>AMOXILINA + CLAVULANATO DE POTASSIO 500+125 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>AMOXILINA 500MG CAPSULA</t>
+  </si>
+  <si>
+    <t>ANLODIPINO BESILATO 10 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ATENOLOL 50MG</t>
+  </si>
+  <si>
+    <t>AZITROMICINA 40 MG/ML (600 MG) PO PARA SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>AZITROMICINA DI-HIDRATADA 500MG</t>
+  </si>
+  <si>
+    <t>BENZOILMETRONIDAZOL 40MG/ML SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>BESILATO DE ANLODIPINO  5MG</t>
+  </si>
+  <si>
+    <t>CAPTOPRIL 25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARBAMAZEPINA 20 MG/ML SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>CARBAMAZEPINA 200 MG</t>
+  </si>
+  <si>
+    <t>CARBONATO DE CALCIO 500MG</t>
+  </si>
+  <si>
+    <t>CARBONATO DE LITIO 300MG</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 12,5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 3,125 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 6,25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CEFALEXINA 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CEFALEXINA SUSPENSAO ORAL 250MG/5ML 100ML</t>
+  </si>
+  <si>
+    <t>CETOCONAZOL 20MG/ML SHAMPOO</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACINO CLORIDRATO 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>CLARITROMICINA 500MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA 200MCG SPRAY 200 DOSES 10ML</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA 50MCG SPRAY 200 DOSES 10ML</t>
+  </si>
+  <si>
+    <t>DIPROPIONATO DE BECLOMETASONA 250 MCG/DOSE SOL AER CT TB AL + DISPOSITIVO ORAL X 200 DOSES</t>
+  </si>
+  <si>
+    <t>CLONAZEPAM 2,5MG/ML</t>
+  </si>
+  <si>
+    <t>CLORETO DE SODIO 9 MG/ML SOLUCAO NASAL (NASOJET)</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE AMIODARONA 200MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE AMITRIPTILINA 25 MG CAIXA COM 30</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLOMIPRAMINA 25 MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA 100MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA 25MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE CLORPROMAZINA 40MG/ML SOL OR CT FR VD GOTAS X 20ML 4%</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE HIDRALAZINA 25MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE IMIPRAMINA 25 MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE PROPRANOLOL 40MG</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE VERAPAMIL 80MG</t>
+  </si>
+  <si>
+    <t>DEXAMETASONA 1 MG/ML (0,1%) SUSPENSAO OFTALMICA</t>
+  </si>
+  <si>
+    <t>DEXCLORFENIRAMINA MALEATO 0,4 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>DEXCLORFENIRAMINA MALEATO 2MG</t>
+  </si>
+  <si>
+    <t>DIAZEPAM 10 MG</t>
+  </si>
+  <si>
+    <t>DIAZEPAM 5 MG</t>
+  </si>
+  <si>
+    <t>DIGOXINA 0,25 MG</t>
+  </si>
+  <si>
+    <t>DINITRATO DE ISOSSORBIDA 5MG SUBLINGUAL</t>
+  </si>
+  <si>
+    <t>DIPIRONA SODICA 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>DIPIRONA SODICA 500MG/ML FRASCO 20ML</t>
+  </si>
+  <si>
+    <t>DOXAZOSINA 2MG</t>
+  </si>
+  <si>
+    <t>DOXAZOSINA MESILATO 4MG</t>
+  </si>
+  <si>
+    <t>ENALAPRIL MALEATO 10 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ENALAPRIL MALEATO 20 MG</t>
+  </si>
+  <si>
+    <t>ENALAPRIL MALEATO 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ESPIRONOCTONA 25 MG</t>
+  </si>
+  <si>
+    <t>ESTRIOL 1MG/G CREME VAGINAL</t>
+  </si>
+  <si>
+    <t>FENITOINA SODICA 100 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>FENOBARBITAL 100MG</t>
+  </si>
+  <si>
+    <t>FENOBARBITAL SODICO 40 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>FLUCONAZOL 150 MG - CAPSULA</t>
+  </si>
+  <si>
+    <t>FLUOXETINA CLORIDRATO 20 MG CAPSULA</t>
+  </si>
+  <si>
+    <t>FOSFATO DE SODIO DE PREDNISOLONA 3MG/ML XAROPE</t>
+  </si>
+  <si>
+    <t>FUROSEMIDA 40 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>GLIBENCLAMIDA 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA 30 MG</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA 60MG COMPRIMIDO DE LIBERACAO PROLONGADA</t>
+  </si>
+  <si>
+    <t>GLICOSIMETROS (MEDIDOR DE GLICOSE)</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL 1MG</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>HIDROCLOROTIAZIDA 25 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>HIDROCORTISONA ACETATO 10MG/G CREME DERMATOLOGICO</t>
+  </si>
+  <si>
+    <t>IBUPROFENO 50MG/ML</t>
+  </si>
+  <si>
+    <t>IBUPROFENO 600 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ISOSSORBIDA MONONITRATO 20 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>ISOSSORBIDA MONONITRATO 40 MG</t>
+  </si>
+  <si>
+    <t>ITRACONAZOL 100MG</t>
+  </si>
+  <si>
+    <t>IVERMECTINA 6MG</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SODICA 100 MCG</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SODICA 25 MCG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>LEVOTIROXINA SODICA 50 MCG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>LORATADINA 1 MG/ML XAROPE</t>
+  </si>
+  <si>
+    <t>LORATADINA 10MG</t>
+  </si>
+  <si>
+    <t>LOSARTANA POTASSICA 50MG</t>
+  </si>
+  <si>
+    <t>MALEATO DE TIMOLOL 5MG/ML 0,5%</t>
+  </si>
+  <si>
+    <t>METFORMINA CLORIDRATO  850 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METFORMINA CLORIDRATO 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METILDOPA 250 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METOCLOPRAMIDA CLORIDRATO 10 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METOCLOPRAMIDA CLORIDRATO 4 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>METOPROLOL SUCCINATO 100 MCG COMPRIMIDO REVESTIDO DE LIBERACAO CONTROLADA</t>
+  </si>
+  <si>
+    <t>METOPROLOL SUCCINATO 50 MG COMPRIMIDO REVESTIDO DE LIBERACAO CONTROLADA</t>
+  </si>
+  <si>
+    <t>METRONIDAZOL 250 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>METRONIDAZOL 400 MG</t>
+  </si>
+  <si>
+    <t>MICONAZOL NITRATO 20 MG/G CREME VAGINAL</t>
+  </si>
+  <si>
+    <t>NITRATO DE MICONAZOL 20 MG CREME DERMATOLOGICO - EMBALAGEM 28 GRAMAS</t>
+  </si>
+  <si>
+    <t>NITROFURANTOINA 100 MG CAPSULA</t>
+  </si>
+  <si>
+    <t>ENANTATO DE NORETISTERONA + VALERATO DE ESTRADIOL 50 + 5 MG/ML SOLUÇÃO INJETÁVEL C/ 1 AMPOLA 1 ML</t>
+  </si>
+  <si>
+    <t>NORTRIPTILINA CLORIDRATO 25 MG</t>
+  </si>
+  <si>
+    <t>NORTRIPTILINA CLORIDRATO 50 MG CAPSULA</t>
+  </si>
+  <si>
+    <t>OMEPRAZOL 20MG</t>
+  </si>
+  <si>
+    <t>PARACETAMOL 200 MG/ML SOLUCAO ORAL</t>
+  </si>
+  <si>
+    <t>PARACETAMOL 500 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>PREDNISONA 20 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>PREDNISONA 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>LEVODORA + CLORIDRATO DE BENZERAZIDA 100/25 MG BD</t>
+  </si>
+  <si>
+    <t>LEVODORA + CORIDRATO DE BENZERAZIDA 200MG/50 MG</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 10MG</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 20 MG</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 40 MG</t>
+  </si>
+  <si>
+    <t>SULFADIAZINA DE PRATA 10 MG/G CREME</t>
+  </si>
+  <si>
+    <t>SULFAMETOXAZOL + TRIMETROPRIMA 40 + 8 MG/ML SUSPENSAO ORAL</t>
+  </si>
+  <si>
+    <t>SULFAMETOXAZOL + TRIMETROPRIMA 400 + 80 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>SULFATO DE SALBUTAMOL 100MCG AEROSOL ORAL</t>
+  </si>
+  <si>
+    <t>SULFATO FERROSO 125 MG/ML GOTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA PARA TESTES DE GLICEMIA COMPATIVEL PARA O APARELHO ACCU-CHEK ACTIVE </t>
+  </si>
+  <si>
+    <t>VARFARINA SODICA 5 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>1mg</t>
+  </si>
+  <si>
+    <t>150 mg/ml</t>
+  </si>
+  <si>
+    <t>100 mg</t>
+  </si>
+  <si>
+    <t>5mg</t>
+  </si>
+  <si>
+    <t>250mg</t>
+  </si>
+  <si>
+    <t>500 mg</t>
+  </si>
+  <si>
+    <t>40 mg/ml</t>
+  </si>
+  <si>
+    <t>400 mg</t>
+  </si>
+  <si>
+    <t>70 mg</t>
+  </si>
+  <si>
+    <t>300 mg</t>
+  </si>
+  <si>
+    <t>5 mg/ml</t>
+  </si>
+  <si>
+    <t>125 mg</t>
+  </si>
+  <si>
+    <t>500mg</t>
+  </si>
+  <si>
+    <t>10 mg</t>
+  </si>
+  <si>
+    <t>50mg</t>
+  </si>
+  <si>
+    <t>40mg/ml</t>
+  </si>
+  <si>
+    <t>25 mg</t>
+  </si>
+  <si>
+    <t>20 mg/ml</t>
+  </si>
+  <si>
+    <t>200 mg</t>
+  </si>
+  <si>
+    <t>300mg</t>
+  </si>
+  <si>
+    <t>5 mg</t>
+  </si>
+  <si>
+    <t>20mg/ml</t>
+  </si>
+  <si>
+    <t>200mcg</t>
+  </si>
+  <si>
+    <t>50mcg</t>
+  </si>
+  <si>
+    <t>250 mcg</t>
+  </si>
+  <si>
+    <t>5mg/ml</t>
+  </si>
+  <si>
+    <t>9 mg/ml</t>
+  </si>
+  <si>
+    <t>200mg</t>
+  </si>
+  <si>
+    <t>100mg</t>
+  </si>
+  <si>
+    <t>25mg</t>
+  </si>
+  <si>
+    <t>40mg</t>
+  </si>
+  <si>
+    <t>80mg</t>
+  </si>
+  <si>
+    <t>1 mg/ml</t>
+  </si>
+  <si>
+    <t>4 mg/ml</t>
+  </si>
+  <si>
+    <t>2mg</t>
+  </si>
+  <si>
+    <t>500mg/ml</t>
+  </si>
+  <si>
+    <t>4mg</t>
+  </si>
+  <si>
+    <t>20 mg</t>
+  </si>
+  <si>
+    <t>150 mg</t>
+  </si>
+  <si>
+    <t>3mg/ml</t>
+  </si>
+  <si>
+    <t>40 mg</t>
+  </si>
+  <si>
+    <t>30 mg</t>
+  </si>
+  <si>
+    <t>60mg</t>
   </si>
   <si>
     <t>Concentração não encontrada</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>14g</t>
-  </si>
-  <si>
-    <t>1000 ml</t>
-  </si>
-  <si>
-    <t>100 ui/ml</t>
-  </si>
-  <si>
-    <t>10 ml</t>
-  </si>
-  <si>
-    <t>ABBOTT LABORATÓRIOS DO BRASIL LTDA</t>
-  </si>
-  <si>
-    <t>Markmed</t>
-  </si>
-  <si>
-    <t>Theoto</t>
+    <t>10mg</t>
+  </si>
+  <si>
+    <t>50mg/ml</t>
+  </si>
+  <si>
+    <t>600 mg</t>
+  </si>
+  <si>
+    <t>6mg</t>
+  </si>
+  <si>
+    <t>100 mcg</t>
+  </si>
+  <si>
+    <t>25 mcg</t>
+  </si>
+  <si>
+    <t>50 mcg</t>
+  </si>
+  <si>
+    <t>850 mg</t>
+  </si>
+  <si>
+    <t>250 mg</t>
+  </si>
+  <si>
+    <t>50 mg</t>
+  </si>
+  <si>
+    <t>20mg</t>
+  </si>
+  <si>
+    <t>200 mg/ml</t>
+  </si>
+  <si>
+    <t>8 mg/ml</t>
+  </si>
+  <si>
+    <t>80 mg</t>
+  </si>
+  <si>
+    <t>100mcg</t>
+  </si>
+  <si>
+    <t>125 mg/ml</t>
+  </si>
+  <si>
+    <t>LABORATÓRIOS OSÓRIO DE MORAES LTDA</t>
+  </si>
+  <si>
+    <t>EMS SIGMA PHARMA LTDA</t>
+  </si>
+  <si>
+    <t>BRASTERAPICA INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>GEOLAB INDÚSTRIA FARMACÊUTICA S/A</t>
+  </si>
+  <si>
+    <t>BIOLAB SANUS FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>CELLERA FARMACÊUTICA S.A.</t>
+  </si>
+  <si>
+    <t>SANDOZ DO BRASIL INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>EUROFARMA LABORATÓRIOS S.A.</t>
+  </si>
+  <si>
+    <t>BRAINFARMA INDÚSTRIA QUÍMICA E FARMACÊUTICA S.A</t>
+  </si>
+  <si>
+    <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>PHARLAB INDÚSTRIA FARMACÊUTICA S.A.</t>
+  </si>
+  <si>
+    <t>BELFAR LTDA</t>
+  </si>
+  <si>
+    <t>NOVARTIS BIOCIENCIAS S.A</t>
+  </si>
+  <si>
+    <t>GERMED FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>Nutivit/Imec</t>
+  </si>
+  <si>
+    <t>NOVA QUIMICA FARMACÊUTICA S/A</t>
+  </si>
+  <si>
+    <t>NATIVITA IND. COM. LTDA</t>
+  </si>
+  <si>
+    <t>CHIESI FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>NATULAB LABORATÓRIO S.A</t>
+  </si>
+  <si>
+    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>AIRELA INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO TEUTO BRASILEIRO S/A</t>
+  </si>
+  <si>
+    <t>MEDQUIMICA INDUSTRIA FARMACEUTICA LTDA</t>
+  </si>
+  <si>
+    <t>ACHÉ LABORATÓRIOS FARMACÊUTICOS S.A</t>
+  </si>
+  <si>
+    <t>On Call Plus</t>
+  </si>
+  <si>
+    <t>LEGRAND PHARMA INDÚSTRIA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>MERCK S/A</t>
+  </si>
+  <si>
+    <t>MULTILAB INDÚSTRIA E COMÉRCIO DE PRODUTOS FARMACÊUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>CIFARMA CIENTÍFICA FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>RANBAXY FARMACÊUTICA LTDA</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO GLOBO SA</t>
   </si>
   <si>
     <t>PRODUTOS ROCHE QUÍMICOS E FARMACÊUTICOS S.A.</t>
   </si>
   <si>
-    <t>Labor</t>
-  </si>
-  <si>
-    <t>Premium</t>
-  </si>
-  <si>
-    <t>Cremer</t>
-  </si>
-  <si>
-    <t>Anadona</t>
-  </si>
-  <si>
-    <t>VIC</t>
-  </si>
-  <si>
-    <t>Rioquímica</t>
-  </si>
-  <si>
-    <t>Descarbox</t>
-  </si>
-  <si>
-    <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
-  </si>
-  <si>
-    <t>ELI LILLY DO BRASIL LTDA</t>
-  </si>
-  <si>
-    <t>Último registro encontrado: 801465019</t>
+    <t>PHARMASCIENCE INDUSTRIA FARMACEUTICA S.A</t>
+  </si>
+  <si>
+    <t>Arte Nativa</t>
+  </si>
+  <si>
+    <t>UNIÃO QUÍMICA FARMACÊUTICA NACIONAL S/A</t>
+  </si>
+  <si>
+    <t>105040038</t>
+  </si>
+  <si>
+    <t>105830220</t>
+  </si>
+  <si>
+    <t>100380043</t>
+  </si>
+  <si>
+    <t>154230142</t>
+  </si>
+  <si>
+    <t>109740046</t>
+  </si>
+  <si>
+    <t>154230044</t>
+  </si>
+  <si>
+    <t>104400205</t>
+  </si>
+  <si>
+    <t>100470331</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 100430811</t>
+  </si>
+  <si>
+    <t>102350528</t>
+  </si>
+  <si>
+    <t>102350845</t>
   </si>
   <si>
     <t>Não encontrado</t>
   </si>
   <si>
-    <t>Último registro encontrado: 800023690</t>
-  </si>
-  <si>
-    <t>Último registro encontrado: 103694602</t>
-  </si>
-  <si>
-    <t>Último registro encontrado: 103694601</t>
-  </si>
-  <si>
-    <t>Último registro encontrado: 100711500</t>
-  </si>
-  <si>
-    <t>Último registro encontrado: 801753490</t>
-  </si>
-  <si>
-    <t>Último registro encontrado: 103694600</t>
-  </si>
-  <si>
-    <t>Último registro encontrado: 809376300</t>
-  </si>
-  <si>
-    <t>183260343</t>
-  </si>
-  <si>
-    <t>112600179</t>
+    <t>103920150</t>
+  </si>
+  <si>
+    <t>100470363</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 141070610</t>
+  </si>
+  <si>
+    <t>154230167</t>
+  </si>
+  <si>
+    <t>105710154</t>
+  </si>
+  <si>
+    <t>154230001</t>
+  </si>
+  <si>
+    <t>100680085</t>
+  </si>
+  <si>
+    <t>105830847</t>
+  </si>
+  <si>
+    <t>109740309</t>
+  </si>
+  <si>
+    <t>109740324</t>
+  </si>
+  <si>
+    <t>118190058</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 155840056</t>
+  </si>
+  <si>
+    <t>147610020</t>
+  </si>
+  <si>
+    <t>126750398</t>
+  </si>
+  <si>
+    <t>141070628</t>
+  </si>
+  <si>
+    <t>100580111</t>
+  </si>
+  <si>
+    <t>154230175</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 138410072</t>
+  </si>
+  <si>
+    <t>154230277</t>
+  </si>
+  <si>
+    <t>155840067</t>
+  </si>
+  <si>
+    <t>167730263</t>
+  </si>
+  <si>
+    <t>183260385</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 183260385</t>
+  </si>
+  <si>
+    <t>100680013</t>
+  </si>
+  <si>
+    <t>102980023</t>
+  </si>
+  <si>
+    <t>105040033</t>
+  </si>
+  <si>
+    <t>105830343</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 101470176</t>
+  </si>
+  <si>
+    <t>154230126</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 154230038</t>
+  </si>
+  <si>
+    <t>141070086</t>
+  </si>
+  <si>
+    <t>167730219</t>
+  </si>
+  <si>
+    <t>141070059</t>
+  </si>
+  <si>
+    <t>135690015</t>
+  </si>
+  <si>
+    <t>103920101</t>
+  </si>
+  <si>
+    <t>144930010</t>
+  </si>
+  <si>
+    <t>154230285</t>
+  </si>
+  <si>
+    <t>100431114</t>
+  </si>
+  <si>
+    <t>103920084</t>
+  </si>
+  <si>
+    <t>105710158</t>
+  </si>
+  <si>
+    <t>154230266</t>
+  </si>
+  <si>
+    <t>109740254</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 103700507</t>
+  </si>
+  <si>
+    <t>103700322</t>
+  </si>
+  <si>
+    <t>183260323</t>
+  </si>
+  <si>
+    <t>103920157</t>
+  </si>
+  <si>
+    <t>109170103</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 105730560</t>
+  </si>
+  <si>
+    <t>154230265</t>
+  </si>
+  <si>
+    <t>109170126</t>
+  </si>
+  <si>
+    <t>141070132</t>
+  </si>
+  <si>
+    <t>112360011</t>
+  </si>
+  <si>
+    <t>109170093</t>
+  </si>
+  <si>
+    <t>103700768</t>
+  </si>
+  <si>
+    <t>154230134</t>
+  </si>
+  <si>
+    <t>103920222</t>
+  </si>
+  <si>
+    <t>109740265</t>
+  </si>
+  <si>
+    <t>105730581</t>
+  </si>
+  <si>
+    <t>167730588</t>
+  </si>
+  <si>
+    <t>105830989</t>
+  </si>
+  <si>
+    <t>100890416</t>
+  </si>
+  <si>
+    <t>144930068</t>
+  </si>
+  <si>
+    <t>154230336</t>
+  </si>
+  <si>
+    <t>141070632</t>
+  </si>
+  <si>
+    <t>167730533</t>
+  </si>
+  <si>
+    <t>154230270</t>
+  </si>
+  <si>
+    <t>103920215</t>
+  </si>
+  <si>
+    <t>102350564</t>
+  </si>
+  <si>
+    <t>105710165</t>
+  </si>
+  <si>
+    <t>109170016</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 109740350</t>
+  </si>
+  <si>
+    <t>109740334</t>
+  </si>
+  <si>
+    <t>155840137</t>
+  </si>
+  <si>
+    <t>167730181</t>
+  </si>
+  <si>
+    <t>105710019</t>
+  </si>
+  <si>
+    <t>103700579</t>
+  </si>
+  <si>
+    <t>115600215</t>
+  </si>
+  <si>
+    <t>123520191</t>
+  </si>
+  <si>
+    <t>154230313</t>
+  </si>
+  <si>
+    <t>154230008</t>
+  </si>
+  <si>
+    <t>Último registro encontrado: 105710133</t>
+  </si>
+  <si>
+    <t>105350217</t>
+  </si>
+  <si>
+    <t>102351206</t>
+  </si>
+  <si>
+    <t>101000651</t>
+  </si>
+  <si>
+    <t>141070108</t>
+  </si>
+  <si>
+    <t>105830919</t>
+  </si>
+  <si>
+    <t>100681124</t>
+  </si>
+  <si>
+    <t>147610023</t>
+  </si>
+  <si>
+    <t>167730253</t>
+  </si>
+  <si>
+    <t>103920212</t>
+  </si>
+  <si>
+    <t>117170009</t>
+  </si>
+  <si>
+    <t>104971323</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
   <si>
     <t>Pendente</t>
-  </si>
-  <si>
-    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -533,7 +1373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,316 +1407,2516 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>234</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>235</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>239</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" t="s">
+        <v>242</v>
+      </c>
+      <c r="F19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" t="s">
+        <v>244</v>
+      </c>
+      <c r="F21" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" t="s">
+        <v>240</v>
+      </c>
+      <c r="F22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" t="s">
+        <v>245</v>
+      </c>
+      <c r="F23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" t="s">
+        <v>246</v>
+      </c>
+      <c r="F24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F26" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F27" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" t="s">
+        <v>249</v>
+      </c>
+      <c r="F28" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" t="s">
+        <v>249</v>
+      </c>
+      <c r="F29" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" t="s">
+        <v>249</v>
+      </c>
+      <c r="F30" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F31" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" t="s">
+        <v>251</v>
+      </c>
+      <c r="F33" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" t="s">
+        <v>252</v>
+      </c>
+      <c r="F34" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F35" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
         <v>40</v>
       </c>
-      <c r="E17" t="s">
+      <c r="C36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" t="s">
+        <v>254</v>
+      </c>
+      <c r="F36" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" t="s">
+        <v>255</v>
+      </c>
+      <c r="F37" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38" t="s">
+        <v>255</v>
+      </c>
+      <c r="F38" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E39" t="s">
+        <v>255</v>
+      </c>
+      <c r="F39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E40" t="s">
+        <v>256</v>
+      </c>
+      <c r="F40" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" t="s">
+        <v>257</v>
+      </c>
+      <c r="F41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" t="s">
+        <v>258</v>
+      </c>
+      <c r="F42" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" t="s">
+        <v>259</v>
+      </c>
+      <c r="F43" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" t="s">
+        <v>205</v>
+      </c>
+      <c r="E44" t="s">
+        <v>260</v>
+      </c>
+      <c r="F44" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" t="s">
+        <v>261</v>
+      </c>
+      <c r="F45" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
         <v>51</v>
       </c>
-      <c r="F17" t="s">
+      <c r="C47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" t="s">
+        <v>262</v>
+      </c>
+      <c r="F47" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" t="s">
+        <v>263</v>
+      </c>
+      <c r="F48" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
         <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49" t="s">
+        <v>264</v>
+      </c>
+      <c r="F49" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" t="s">
+        <v>265</v>
+      </c>
+      <c r="F50" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" t="s">
+        <v>266</v>
+      </c>
+      <c r="F51" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" t="s">
+        <v>267</v>
+      </c>
+      <c r="F52" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" t="s">
+        <v>195</v>
+      </c>
+      <c r="E53" t="s">
+        <v>268</v>
+      </c>
+      <c r="F53" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" t="s">
+        <v>269</v>
+      </c>
+      <c r="F54" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" t="s">
+        <v>270</v>
+      </c>
+      <c r="F55" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" t="s">
+        <v>205</v>
+      </c>
+      <c r="E56" t="s">
+        <v>271</v>
+      </c>
+      <c r="F56" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57" t="s">
+        <v>272</v>
+      </c>
+      <c r="F57" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" t="s">
+        <v>273</v>
+      </c>
+      <c r="F58" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" t="s">
+        <v>201</v>
+      </c>
+      <c r="E59" t="s">
+        <v>274</v>
+      </c>
+      <c r="F59" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" t="s">
+        <v>213</v>
+      </c>
+      <c r="E60" t="s">
+        <v>275</v>
+      </c>
+      <c r="F60" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" t="s">
+        <v>276</v>
+      </c>
+      <c r="F61" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" t="s">
+        <v>277</v>
+      </c>
+      <c r="F62" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" t="s">
+        <v>201</v>
+      </c>
+      <c r="E63" t="s">
+        <v>278</v>
+      </c>
+      <c r="F63" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" t="s">
+        <v>201</v>
+      </c>
+      <c r="E64" t="s">
+        <v>278</v>
+      </c>
+      <c r="F64" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" t="s">
+        <v>203</v>
+      </c>
+      <c r="E65" t="s">
+        <v>279</v>
+      </c>
+      <c r="F65" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" t="s">
+        <v>195</v>
+      </c>
+      <c r="E66" t="s">
+        <v>280</v>
+      </c>
+      <c r="F66" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" t="s">
+        <v>196</v>
+      </c>
+      <c r="E67" t="s">
+        <v>281</v>
+      </c>
+      <c r="F67" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" t="s">
+        <v>214</v>
+      </c>
+      <c r="E68" t="s">
+        <v>282</v>
+      </c>
+      <c r="F68" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" t="s">
+        <v>214</v>
+      </c>
+      <c r="E69" t="s">
+        <v>283</v>
+      </c>
+      <c r="F69" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" t="s">
+        <v>211</v>
+      </c>
+      <c r="E70" t="s">
+        <v>284</v>
+      </c>
+      <c r="F70" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" t="s">
+        <v>201</v>
+      </c>
+      <c r="E71" t="s">
+        <v>285</v>
+      </c>
+      <c r="F71" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" t="s">
+        <v>215</v>
+      </c>
+      <c r="E72" t="s">
+        <v>286</v>
+      </c>
+      <c r="F72" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" t="s">
+        <v>216</v>
+      </c>
+      <c r="E73" t="s">
+        <v>287</v>
+      </c>
+      <c r="F73" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" t="s">
+        <v>195</v>
+      </c>
+      <c r="E74" t="s">
+        <v>288</v>
+      </c>
+      <c r="F74" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" t="s">
+        <v>215</v>
+      </c>
+      <c r="E75" t="s">
+        <v>289</v>
+      </c>
+      <c r="F75" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>173</v>
+      </c>
+      <c r="D76" t="s">
+        <v>202</v>
+      </c>
+      <c r="E76" t="s">
+        <v>290</v>
+      </c>
+      <c r="F76" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E77" t="s">
+        <v>290</v>
+      </c>
+      <c r="F77" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" t="s">
+        <v>175</v>
+      </c>
+      <c r="D78" t="s">
+        <v>217</v>
+      </c>
+      <c r="E78" t="s">
+        <v>239</v>
+      </c>
+      <c r="F78" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79" t="s">
+        <v>197</v>
+      </c>
+      <c r="E79" t="s">
+        <v>291</v>
+      </c>
+      <c r="F79" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" t="s">
+        <v>152</v>
+      </c>
+      <c r="D80" t="s">
+        <v>197</v>
+      </c>
+      <c r="E80" t="s">
+        <v>291</v>
+      </c>
+      <c r="F80" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" t="s">
+        <v>148</v>
+      </c>
+      <c r="D81" t="s">
+        <v>215</v>
+      </c>
+      <c r="E81" t="s">
+        <v>292</v>
+      </c>
+      <c r="F81" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" t="s">
+        <v>214</v>
+      </c>
+      <c r="E82" t="s">
+        <v>293</v>
+      </c>
+      <c r="F82" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>177</v>
+      </c>
+      <c r="D83" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83" t="s">
+        <v>294</v>
+      </c>
+      <c r="F83" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" t="s">
+        <v>201</v>
+      </c>
+      <c r="E84" t="s">
+        <v>295</v>
+      </c>
+      <c r="F84" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>90</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" t="s">
+        <v>196</v>
+      </c>
+      <c r="E85" t="s">
+        <v>296</v>
+      </c>
+      <c r="F85" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" t="s">
+        <v>216</v>
+      </c>
+      <c r="E86" t="s">
+        <v>297</v>
+      </c>
+      <c r="F86" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>92</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87" t="s">
+        <v>218</v>
+      </c>
+      <c r="E87" t="s">
+        <v>298</v>
+      </c>
+      <c r="F87" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" t="s">
+        <v>205</v>
+      </c>
+      <c r="E88" t="s">
+        <v>299</v>
+      </c>
+      <c r="F88" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" t="s">
+        <v>219</v>
+      </c>
+      <c r="E89" t="s">
+        <v>300</v>
+      </c>
+      <c r="F89" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90" t="s">
+        <v>219</v>
+      </c>
+      <c r="E90" t="s">
+        <v>300</v>
+      </c>
+      <c r="F90" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" t="s">
+        <v>219</v>
+      </c>
+      <c r="E91" t="s">
+        <v>300</v>
+      </c>
+      <c r="F91" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" t="s">
+        <v>164</v>
+      </c>
+      <c r="D92" t="s">
+        <v>213</v>
+      </c>
+      <c r="E92" t="s">
+        <v>301</v>
+      </c>
+      <c r="F92" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" t="s">
+        <v>176</v>
+      </c>
+      <c r="D93" t="s">
+        <v>195</v>
+      </c>
+      <c r="E93" t="s">
+        <v>302</v>
+      </c>
+      <c r="F93" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" t="s">
+        <v>146</v>
+      </c>
+      <c r="D94" t="s">
+        <v>202</v>
+      </c>
+      <c r="E94" t="s">
+        <v>303</v>
+      </c>
+      <c r="F94" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>102</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" t="s">
+        <v>157</v>
+      </c>
+      <c r="D95" t="s">
+        <v>205</v>
+      </c>
+      <c r="E95" t="s">
+        <v>304</v>
+      </c>
+      <c r="F95" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" t="s">
+        <v>195</v>
+      </c>
+      <c r="E96" t="s">
+        <v>305</v>
+      </c>
+      <c r="F96" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>104</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" t="s">
+        <v>137</v>
+      </c>
+      <c r="D97" t="s">
+        <v>201</v>
+      </c>
+      <c r="E97" t="s">
+        <v>306</v>
+      </c>
+      <c r="F97" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" t="s">
+        <v>184</v>
+      </c>
+      <c r="D98" t="s">
+        <v>193</v>
+      </c>
+      <c r="E98" t="s">
+        <v>307</v>
+      </c>
+      <c r="F98" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" t="s">
+        <v>203</v>
+      </c>
+      <c r="E99" t="s">
+        <v>308</v>
+      </c>
+      <c r="F99" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" t="s">
+        <v>165</v>
+      </c>
+      <c r="D100" t="s">
+        <v>215</v>
+      </c>
+      <c r="E100" t="s">
+        <v>309</v>
+      </c>
+      <c r="F100" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>108</v>
+      </c>
+      <c r="B101" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" t="s">
+        <v>180</v>
+      </c>
+      <c r="D101" t="s">
+        <v>196</v>
+      </c>
+      <c r="E101" t="s">
+        <v>310</v>
+      </c>
+      <c r="F101" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>110</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" t="s">
+        <v>185</v>
+      </c>
+      <c r="D102" t="s">
+        <v>196</v>
+      </c>
+      <c r="E102" t="s">
+        <v>311</v>
+      </c>
+      <c r="F102" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>111</v>
+      </c>
+      <c r="B103" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" t="s">
+        <v>184</v>
+      </c>
+      <c r="D103" t="s">
+        <v>200</v>
+      </c>
+      <c r="E103" t="s">
+        <v>312</v>
+      </c>
+      <c r="F103" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>112</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" t="s">
+        <v>139</v>
+      </c>
+      <c r="D104" t="s">
+        <v>220</v>
+      </c>
+      <c r="E104" t="s">
+        <v>313</v>
+      </c>
+      <c r="F104" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>113</v>
+      </c>
+      <c r="B105" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" t="s">
+        <v>169</v>
+      </c>
+      <c r="D105" t="s">
+        <v>203</v>
+      </c>
+      <c r="E105" t="s">
+        <v>314</v>
+      </c>
+      <c r="F105" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>114</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" t="s">
+        <v>169</v>
+      </c>
+      <c r="D106" t="s">
+        <v>208</v>
+      </c>
+      <c r="E106" t="s">
+        <v>239</v>
+      </c>
+      <c r="F106" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>115</v>
+      </c>
+      <c r="B107" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" t="s">
+        <v>134</v>
+      </c>
+      <c r="D107" t="s">
+        <v>214</v>
+      </c>
+      <c r="E107" t="s">
+        <v>315</v>
+      </c>
+      <c r="F107" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>116</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" t="s">
+        <v>142</v>
+      </c>
+      <c r="D108" t="s">
+        <v>221</v>
+      </c>
+      <c r="E108" t="s">
+        <v>316</v>
+      </c>
+      <c r="F108" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>117</v>
+      </c>
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" t="s">
+        <v>148</v>
+      </c>
+      <c r="D109" t="s">
+        <v>222</v>
+      </c>
+      <c r="E109" t="s">
+        <v>317</v>
+      </c>
+      <c r="F109" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>118</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" t="s">
+        <v>185</v>
+      </c>
+      <c r="D110" t="s">
+        <v>222</v>
+      </c>
+      <c r="E110" t="s">
+        <v>317</v>
+      </c>
+      <c r="F110" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>119</v>
+      </c>
+      <c r="B111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" t="s">
+        <v>186</v>
+      </c>
+      <c r="D111" t="s">
+        <v>195</v>
+      </c>
+      <c r="E111" t="s">
+        <v>318</v>
+      </c>
+      <c r="F111" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>120</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" t="s">
+        <v>187</v>
+      </c>
+      <c r="D112" t="s">
+        <v>195</v>
+      </c>
+      <c r="E112" t="s">
+        <v>319</v>
+      </c>
+      <c r="F112" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>121</v>
+      </c>
+      <c r="B113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" t="s">
+        <v>137</v>
+      </c>
+      <c r="D113" t="s">
+        <v>203</v>
+      </c>
+      <c r="E113" t="s">
+        <v>320</v>
+      </c>
+      <c r="F113" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>122</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" t="s">
+        <v>169</v>
+      </c>
+      <c r="D114" t="s">
+        <v>223</v>
+      </c>
+      <c r="E114" t="s">
+        <v>321</v>
+      </c>
+      <c r="F114" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>123</v>
+      </c>
+      <c r="B115" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" t="s">
+        <v>152</v>
+      </c>
+      <c r="D115" t="s">
+        <v>207</v>
+      </c>
+      <c r="E115" t="s">
+        <v>322</v>
+      </c>
+      <c r="F115" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>124</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" t="s">
+        <v>148</v>
+      </c>
+      <c r="D116" t="s">
+        <v>224</v>
+      </c>
+      <c r="E116" t="s">
+        <v>323</v>
+      </c>
+      <c r="F116" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>125</v>
+      </c>
+      <c r="B117" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" t="s">
+        <v>159</v>
+      </c>
+      <c r="D117" t="s">
+        <v>224</v>
+      </c>
+      <c r="E117" t="s">
+        <v>239</v>
+      </c>
+      <c r="F117" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>127</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" t="s">
+        <v>176</v>
+      </c>
+      <c r="D118" t="s">
+        <v>202</v>
+      </c>
+      <c r="E118" t="s">
+        <v>324</v>
+      </c>
+      <c r="F118" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>128</v>
+      </c>
+      <c r="B119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" t="s">
+        <v>169</v>
+      </c>
+      <c r="D119" t="s">
+        <v>207</v>
+      </c>
+      <c r="E119" t="s">
+        <v>325</v>
+      </c>
+      <c r="F119" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>129</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" t="s">
+        <v>172</v>
+      </c>
+      <c r="D120" t="s">
+        <v>204</v>
+      </c>
+      <c r="E120" t="s">
+        <v>326</v>
+      </c>
+      <c r="F120" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>130</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" t="s">
+        <v>145</v>
+      </c>
+      <c r="D121" t="s">
+        <v>208</v>
+      </c>
+      <c r="E121" t="s">
+        <v>327</v>
+      </c>
+      <c r="F121" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>131</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" t="s">
+        <v>188</v>
+      </c>
+      <c r="D122" t="s">
+        <v>193</v>
+      </c>
+      <c r="E122" t="s">
+        <v>328</v>
+      </c>
+      <c r="F122" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>132</v>
+      </c>
+      <c r="B123" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" t="s">
+        <v>189</v>
+      </c>
+      <c r="D123" t="s">
+        <v>201</v>
+      </c>
+      <c r="E123" t="s">
+        <v>329</v>
+      </c>
+      <c r="F123" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>134</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124" t="s">
+        <v>190</v>
+      </c>
+      <c r="D124" t="s">
+        <v>225</v>
+      </c>
+      <c r="E124" t="s">
+        <v>330</v>
+      </c>
+      <c r="F124" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>135</v>
+      </c>
+      <c r="B125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" t="s">
+        <v>191</v>
+      </c>
+      <c r="D125" t="s">
+        <v>226</v>
+      </c>
+      <c r="E125" t="s">
+        <v>239</v>
+      </c>
+      <c r="F125" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>137</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" t="s">
+        <v>175</v>
+      </c>
+      <c r="D126" t="s">
+        <v>217</v>
+      </c>
+      <c r="E126" t="s">
+        <v>239</v>
+      </c>
+      <c r="F126" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>138</v>
+      </c>
+      <c r="B127" t="s">
+        <v>131</v>
+      </c>
+      <c r="C127" t="s">
+        <v>152</v>
+      </c>
+      <c r="D127" t="s">
+        <v>227</v>
+      </c>
+      <c r="E127" t="s">
+        <v>331</v>
+      </c>
+      <c r="F127" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -1,96 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Descrição</t>
-  </si>
-  <si>
-    <t>Concentração_Encontrada</t>
-  </si>
-  <si>
-    <t>Marca</t>
-  </si>
-  <si>
-    <t>Registro</t>
-  </si>
-  <si>
-    <t>PDF</t>
-  </si>
-  <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 250ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 500ML</t>
-  </si>
-  <si>
-    <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-  </si>
-  <si>
-    <t>1000ml</t>
-  </si>
-  <si>
-    <t>250ml</t>
-  </si>
-  <si>
-    <t>500ml</t>
-  </si>
-  <si>
-    <t>JP INDUSTRIA FARMACEUTICA S/A</t>
-  </si>
-  <si>
-    <t>104910019</t>
-  </si>
-  <si>
-    <t>104910020</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -105,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,114 +420,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Descrição</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Concentração_Encontrada</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Marca</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Registro</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1000ml</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Último registro encontrado: 104910019</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 250ML</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>250ml</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Último registro encontrado: 104910019</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 500ML</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>500ml</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Último registro encontrado: 104910019</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1000ml</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>104910020</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -486,12 +486,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Último registro encontrado: 104910019</t>
+          <t>104910019</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -516,12 +516,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Último registro encontrado: 104910019</t>
+          <t>104910019</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -546,12 +546,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Último registro encontrado: 104910019</t>
+          <t>104910019</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>OK</t>
         </is>
       </c>
     </row>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,26 +467,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
+          <t>HEPARINA SODICA SUBCUT 5000UI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1000ml</t>
+          <t>5000ui</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
+          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>104910019</t>
+          <t>102980371</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -497,26 +497,26 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 250ML</t>
+          <t>PROMETAZINA 25MG, CLORIDRATO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>250ml</t>
+          <t>25mg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
+          <t>LABORATÓRIO TEUTO BRASILEIRO S/A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>104910019</t>
+          <t>103700321</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -527,26 +527,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 500ML</t>
+          <t>HALOPERIDOL 5MG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>500ml</t>
+          <t>5mg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
+          <t>CELLERA FARMACÊUTICA S.A.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>104910019</t>
+          <t>112360011</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -557,29 +557,329 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CLORPROMAZINA 40MG/ML SOL ORAL</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>40mg/ml</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Último registro encontrado: 183260385</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HALOPERIDOL 2MG/ML SOL ORAL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2mg/ml</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CELLERA FARMACÊUTICA S.A.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>112360011</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CLORPROMAZINA 25MG</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>25mg</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>183260385</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>9</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1000ml</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>104910020</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CODEINA 30MG</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>30mg</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>102980199</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IMIPRAMINA 25MG</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>25mg</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>102980023</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RISPERIDONA 3MG</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3mg</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>103920197</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>RISPERIDONA 1MG</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1mg</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>103920197</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>14</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LEVOMEPROMAZINA 4% GOTAS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Último registro encontrado: 183260316</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>16</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>LIDOCAINA 2% C/ VASO CONSTRITO</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>102980249</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>17</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NITRATO DE CERIO +SULFADIAZINA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Concentração não encontrada</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Último registro encontrado: 102980560</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>18</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>COLAGENASE+CLORAFENICOL POMADA 30g</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>30g</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>102980431</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,26 +467,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HEPARINA SODICA SUBCUT 5000UI</t>
+          <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5000ui</t>
+          <t>1000ml</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>102980371</t>
+          <t>104910019</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -497,26 +497,26 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PROMETAZINA 25MG, CLORIDRATO</t>
+          <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 250ML</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>25mg</t>
+          <t>250ml</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LABORATÓRIO TEUTO BRASILEIRO S/A</t>
+          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>103700321</t>
+          <t>104910019</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -527,26 +527,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HALOPERIDOL 5MG</t>
+          <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 500ML</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5mg</t>
+          <t>500ml</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CELLERA FARMACÊUTICA S.A.</t>
+          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>112360011</t>
+          <t>104910019</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -557,329 +557,29 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLORPROMAZINA 40MG/ML SOL ORAL</t>
+          <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>40mg/ml</t>
+          <t>1000ml</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Último registro encontrado: 183260385</t>
+          <t>104910020</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HALOPERIDOL 2MG/ML SOL ORAL</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2mg/ml</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CELLERA FARMACÊUTICA S.A.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>112360011</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CLORPROMAZINA 25MG</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>25mg</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>183260385</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>9</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CODEINA 30MG</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>30mg</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>102980199</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>10</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>IMIPRAMINA 25MG</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>25mg</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>102980023</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>11</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>RISPERIDONA 3MG</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3mg</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>103920197</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>13</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>RISPERIDONA 1MG</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1mg</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>103920197</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>14</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>LEVOMEPROMAZINA 4% GOTAS</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Último registro encontrado: 183260316</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>16</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>LIDOCAINA 2% C/ VASO CONSTRITO</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>102980249</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>17</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>NITRATO DE CERIO +SULFADIAZINA</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Concentração não encontrada</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Último registro encontrado: 102980560</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>18</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>COLAGENASE+CLORAFENICOL POMADA 30g</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>30g</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>102980431</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Concentração_Encontrada</t>
+          <t>Marca</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Marca</t>
+          <t>Registro</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Registro</t>
+          <t>Apresentação</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -467,26 +467,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
+          <t>HEPARINA SODICA SUBCUT 5000UI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1000ml</t>
+          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
+          <t>102980371</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>104910019</t>
+          <t>5000 UI/ML SOL INJ CX 25 FA VD INC X 5 ML ATIVA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -497,26 +497,26 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 250ML</t>
+          <t>PROMETAZINA 25MG, CLORIDRATO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>250ml</t>
+          <t>LABORATÓRIO TEUTO BRASILEIRO S/A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
+          <t>103700321</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>104910019</t>
+          <t>25 MG COM REV BL AL PLAS INC X 200 (EMB. HOSP.) ATIVA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -527,26 +527,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 500ML</t>
+          <t>HALOPERIDOL 5MG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>500ml</t>
+          <t>CELLERA FARMACÊUTICA S.A.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
+          <t>112360011</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>104910019</t>
+          <t>5 MG COM CT BL AL PLAS TRANS X 20 ATIVA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -557,29 +557,329 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CLORPROMAZINA 40MG/ML SOL ORAL</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Último registro encontrado: 183260385</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HALOPERIDOL 2MG/ML SOL ORAL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CELLERA FARMACÊUTICA S.A.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>112360011</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2 MG/ML SOL GOT OR CT FR GOT PLAS OPC X 30 ML ATIVA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CLORPROMAZINA 25MG</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>183260385</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25 MG COM REV CT BL AL PLAS OPC X 20 ATIVA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>9</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1000ml</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>104910020</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CODEINA 30MG</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>102980199</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>30 MG COM CT BL AL PLAS TRANS X 30 ATIVA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IMIPRAMINA 25MG</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>102980023</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25 MG COM REV CX 20 ENV AL POLIET X 10 (EMB HOSP) CANCELADA OU CADUCA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RISPERIDONA 3MG</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>103920197</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3 MG COM REV CT BL AL PLAS TRANS X 10 ATIVA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>RISPERIDONA 1MG</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>103920197</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1 MG COM REV CT BL AL PLAS TRANS X 10 ATIVA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>14</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LEVOMEPROMAZINA 4% GOTAS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Último registro encontrado: 183260316</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>16</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>LIDOCAINA 2% C/ VASO CONSTRITO</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>102980249</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2% GEL TOP CT BG AL X 30 G + APLIC ATIVA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>17</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NITRATO DE CERIO +SULFADIAZINA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Último registro encontrado: 102980560</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Não encontrado</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>18</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>COLAGENASE+CLORAFENICOL POMADA 30g</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>102980431</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0,6 U/G POM DERM CT 01 BG AL X 30 G + ESP PLAS ATIVA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5000 UI/ML SOL INJ CX 25 FA VD INC X 5 ML ATIVA</t>
+          <t>5000 UI/ML SOL INJ IV CX 1 EST PLAS X 1 FA VD TRANS X 5 ML (EMB HOSP) Ativo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>25 MG COM REV BL AL PLAS INC X 200 (EMB. HOSP.) ATIVA</t>
+          <t>25 MG COM REV BL AL PLAS INC X 200 (EMB. HOSP.) Ativo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5 MG COM CT BL AL PLAS TRANS X 20 ATIVA</t>
+          <t>5 MG COM CT BL AL PLAS TRANS X 20 Ativo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2 MG/ML SOL GOT OR CT FR GOT PLAS OPC X 30 ML ATIVA</t>
+          <t>2 MG/ML SOL GOT OR CT FR GOT PLAS OPC X 30 ML Ativo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25 MG COM REV CT BL AL PLAS OPC X 20 ATIVA</t>
+          <t>25 MG COM REV CT BL AL PLAS OPC X 20 Ativo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>30 MG COM CT BL AL PLAS TRANS X 30 ATIVA</t>
+          <t>30 MG COM CT BL AL PLAS PVC/PVDC TRANS X 30 Ativo</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25 MG COM REV CX 20 ENV AL POLIET X 10 (EMB HOSP) CANCELADA OU CADUCA</t>
+          <t>25 MG COM REV CT BL AL PLAS PVDC TRANS X 20 Ativo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3 MG COM REV CT BL AL PLAS TRANS X 10 ATIVA</t>
+          <t>3 MG COM REV CT BL AL PLAS TRANS X 10 Ativo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1 MG COM REV CT BL AL PLAS TRANS X 10 ATIVA</t>
+          <t>1 MG COM REV CT BL AL PLAS TRANS X 10 Ativo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -811,17 +811,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>102980249</t>
+          <t>Último registro encontrado: 102980249</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2% GEL TOP CT BG AL X 30 G + APLIC ATIVA</t>
+          <t>Não encontrado</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0,6 U/G POM DERM CT 01 BG AL X 30 G + ESP PLAS ATIVA</t>
+          <t>1,2 U/G POM DERM CT 10 BG AL X 30 G + ESP PLAS Ativo</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,26 +467,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HEPARINA SODICA SUBCUT 5000UI</t>
+          <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
+          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>102980371</t>
+          <t>104910019</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5000 UI/ML SOL INJ IV CX 1 EST PLAS X 1 FA VD TRANS X 5 ML (EMB HOSP) Ativo</t>
+          <t>(9 + 50) MG/ML SOL INJ IV CX 10 BOLS PLAS PVC TRANS SIST FECH X 1000 ML  Ativo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -497,26 +497,26 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PROMETAZINA 25MG, CLORIDRATO</t>
+          <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 250ML</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LABORATÓRIO TEUTO BRASILEIRO S/A</t>
+          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>103700321</t>
+          <t>104910019</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>25 MG COM REV BL AL PLAS INC X 200 (EMB. HOSP.) Ativo</t>
+          <t>(9 + 50) MG/ML SOL INJ IV CX 35 BOLS PLAS PVC TRANS SIST FECH X 250 ML Ativo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -527,26 +527,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HALOPERIDOL 5MG</t>
+          <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 500ML</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CELLERA FARMACÊUTICA S.A.</t>
+          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>112360011</t>
+          <t>104910019</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5 MG COM CT BL AL PLAS TRANS X 20 Ativo</t>
+          <t>(9 + 50) MG/ML SOL INJ IV CX 20 BOLS PLAS PVC TRANS SIST FECH X 500 ML Ativo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -557,329 +557,29 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLORPROMAZINA 40MG/ML SOL ORAL</t>
+          <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
+          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Último registro encontrado: 183260385</t>
+          <t>104910020</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Não encontrado</t>
+          <t>50 MG/ML SOL INJ IV CX 10 BOLS PLAS SIST FECH X 1000 ML Ativo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HALOPERIDOL 2MG/ML SOL ORAL</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CELLERA FARMACÊUTICA S.A.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>112360011</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2 MG/ML SOL GOT OR CT FR GOT PLAS OPC X 30 ML Ativo</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CLORPROMAZINA 25MG</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>183260385</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>25 MG COM REV CT BL AL PLAS OPC X 20 Ativo</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>9</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CODEINA 30MG</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>102980199</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>30 MG COM CT BL AL PLAS PVC/PVDC TRANS X 30 Ativo</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>10</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>IMIPRAMINA 25MG</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>102980023</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>25 MG COM REV CT BL AL PLAS PVDC TRANS X 20 Ativo</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>11</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>RISPERIDONA 3MG</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>103920197</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3 MG COM REV CT BL AL PLAS TRANS X 10 Ativo</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>13</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>RISPERIDONA 1MG</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>VITAMEDIC INDUSTRIA FARMACEUTICA LTDA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>103920197</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1 MG COM REV CT BL AL PLAS TRANS X 10 Ativo</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>14</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>LEVOMEPROMAZINA 4% GOTAS</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SANOFI MEDLEY FARMACÊUTICA LTDA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Último registro encontrado: 183260316</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Não encontrado</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>16</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>LIDOCAINA 2% C/ VASO CONSTRITO</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Último registro encontrado: 102980249</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Não encontrado</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>17</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>NITRATO DE CERIO +SULFADIAZINA</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Último registro encontrado: 102980560</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Não encontrado</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>18</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>COLAGENASE+CLORAFENICOL POMADA 30g</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>CRISTÁLIA PRODUTOS QUÍMICOS FARMACÊUTICOS LTDA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>102980431</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1,2 U/G POM DERM CT 10 BG AL X 30 G + ESP PLAS Ativo</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,120 +466,32 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>6</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
+          <t>Aciclovir 200mg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
+          <t>CIMED INDUSTRIA S.A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>104910019</t>
+          <t>143810181</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(9 + 50) MG/ML SOL INJ IV CX 10 BOLS PLAS PVC TRANS SIST FECH X 1000 ML  Ativo</t>
+          <t>200 MG COM CT BL AL PLAS TRANS X 10  Ativo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 250ML</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>104910019</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>(9 + 50) MG/ML SOL INJ IV CX 35 BOLS PLAS PVC TRANS SIST FECH X 250 ML Ativo</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SORO GLICOFISIOLÓGICO, GLICOSE À 5% EM CLORETO DE SÓDIO À 0,9%; BOLSA SISTEMA FECHADO, FRASCO COM 500ML</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>104910019</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>(9 + 50) MG/ML SOL INJ IV CX 20 BOLS PLAS PVC TRANS SIST FECH X 500 ML Ativo</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>9</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>104910020</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>50 MG/ML SOL INJ IV CX 10 BOLS PLAS SIST FECH X 1000 ML Ativo</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -466,29 +466,27 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2" t="n">
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aciclovir 200mg</t>
+          <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CIMED INDUSTRIA S.A</t>
+          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>143810181</t>
+          <t>104910020</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>200 MG COM CT BL AL PLAS TRANS X 10  Ativo</t>
+          <t>50 MG/ML SOL INJ IV CX 10 BOLS PLAS SIST FECH X 1000 ML Ativo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -466,32 +466,34 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>9</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ITEM</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
+          <t>DESCRIÇÃO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
+          <t>MARCA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>104910020</t>
+          <t>Não encontrado</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>50 MG/ML SOL INJ IV CX 10 BOLS PLAS SIST FECH X 1000 ML Ativo</t>
+          <t>Não encontrado</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>

--- a/relatorio_registros.xlsx
+++ b/relatorio_registros.xlsx
@@ -466,34 +466,32 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ITEM</t>
-        </is>
+      <c r="A2" t="n">
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DESCRIÇÃO</t>
+          <t>SORO GLICOSADO 5%, BOLSA SISTEMA FECHADO, FRASCO COM 1000ML</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MARCA</t>
+          <t>JP INDUSTRIA FARMACEUTICA S/A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Não encontrado</t>
+          <t>104910020</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Não encontrado</t>
+          <t>50 MG/ML SOL INJ IV CX 10 BOLS PLAS SIST FECH X 1000 ML Ativo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
